--- a/市場_2025改修/詳細設計_2025/25_詳細設計書(調整入力) .xlsx
+++ b/市場_2025改修/詳細設計_2025/25_詳細設計書(調整入力) .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts\Documents\サントク\202205姫路市VBA\200_2025改修\v0\詳細設計_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\詳細設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C58ED3-6098-4815-9299-13EBEA4075C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CC82E3-5B54-4ED7-9A3B-7023450E624B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="調整入力" sheetId="173" r:id="rId3"/>
     <sheet name="項目説明" sheetId="171" r:id="rId4"/>
     <sheet name="プログラム機能" sheetId="172" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="174" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="範囲１" localSheetId="4">#REF!</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="141">
   <si>
     <t>作成者</t>
   </si>
@@ -847,6 +848,157 @@
       <t>ツイキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テナントコード</t>
+  </si>
+  <si>
+    <t>売上高割金額</t>
+    <rPh sb="0" eb="2">
+      <t>ウリアゲ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>uriwari_yyyy.xlsx</t>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シート名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月</t>
+    <rPh sb="0" eb="1">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>売上高割金額</t>
+  </si>
+  <si>
+    <t>施設料金(調整)</t>
+  </si>
+  <si>
+    <t>納付書番号</t>
+  </si>
+  <si>
+    <t>テナントコード(業者コード)</t>
+  </si>
+  <si>
+    <t>テナント名(業者名)</t>
+  </si>
+  <si>
+    <t>区分コード</t>
+  </si>
+  <si>
+    <t>区分名称</t>
+  </si>
+  <si>
+    <t>区分サブコード</t>
+  </si>
+  <si>
+    <t>面積(前月)</t>
+  </si>
+  <si>
+    <t>単価(前月)</t>
+  </si>
+  <si>
+    <t>使用金額(前月)</t>
+  </si>
+  <si>
+    <t>面積(今月)</t>
+  </si>
+  <si>
+    <t>単価(今月)</t>
+  </si>
+  <si>
+    <t>使用金額(今月)</t>
+  </si>
+  <si>
+    <t>業者合計金額合計(今月)</t>
+  </si>
+  <si>
+    <t>消費税(今月)</t>
+  </si>
+  <si>
+    <t>業者総合計金額合計(今月)</t>
+  </si>
+  <si>
+    <t>業者合計金額合計(前月)</t>
+  </si>
+  <si>
+    <t>消費税(前月)</t>
+  </si>
+  <si>
+    <t>業者総合計金額合計(前月)</t>
+  </si>
+  <si>
+    <t>金額増減</t>
+  </si>
+  <si>
+    <t>登録番号(インボイス)</t>
+  </si>
+  <si>
+    <t>住所１</t>
+  </si>
+  <si>
+    <t>住所２</t>
+  </si>
+  <si>
+    <t>日割り</t>
+  </si>
+  <si>
+    <t>姫路大同青果㈱</t>
+  </si>
+  <si>
+    <t>青果部卸売場（中温）</t>
+  </si>
+  <si>
+    <t>青果部卸売場（空調）</t>
+  </si>
+  <si>
+    <t>青果部卸冷蔵庫</t>
+  </si>
+  <si>
+    <t>青果部バナナムロ</t>
+  </si>
+  <si>
+    <t>卸売業者事務所</t>
+  </si>
+  <si>
+    <t>卸売業者食堂</t>
+  </si>
+  <si>
+    <t>駐車場使用料（１５㎡以下）</t>
+  </si>
+  <si>
+    <t>駐車場使用料（１５㎡超）</t>
+  </si>
+  <si>
+    <t>seikyu_sisetu_yyyy.xlsx</t>
   </si>
 </sst>
 </file>
@@ -857,7 +1009,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -933,8 +1085,36 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -944,6 +1124,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,7 +1509,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1453,6 +1639,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1462,20 +1663,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1483,30 +1687,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1516,10 +1702,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1527,51 +1758,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1607,6 +1793,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1625,14 +1820,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1728,13 +1933,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>111936</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>117115</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1757,8 +1962,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="66675" y="676275"/>
-          <a:ext cx="5181599" cy="3312336"/>
+          <a:off x="66675" y="923925"/>
+          <a:ext cx="7479940" cy="4781550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1770,15 +1975,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>25428</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>113283</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1801,8 +2006,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47625" y="4010026"/>
-          <a:ext cx="5210174" cy="3330602"/>
+          <a:off x="76200" y="7524750"/>
+          <a:ext cx="7448550" cy="4761483"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2082,7 +2287,7 @@
   </sheetPr>
   <dimension ref="C1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
@@ -2115,50 +2320,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="56"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="53"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -2181,10 +2386,10 @@
         <v>18</v>
       </c>
       <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -2207,42 +2412,42 @@
         <v>20</v>
       </c>
       <c r="G14" s="48"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="51"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
       <c r="F15" s="47" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="48"/>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="56"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
       <c r="F16" s="47" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="48"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="51"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="56"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
       <c r="F17" s="47" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="51"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
       <c r="N17" s="7" t="s">
         <v>54</v>
       </c>
@@ -2272,12 +2477,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -2286,6 +2485,12 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2314,52 +2519,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
       <c r="P1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
       <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="25"/>
@@ -2385,441 +2590,441 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58" t="s">
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="60">
         <v>44762</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63" t="s">
+      <c r="E5" s="61"/>
+      <c r="F5" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="58">
         <v>45848</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="59" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="28">
         <v>11</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="28">
         <v>14</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="28">
         <v>15</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="28">
         <v>16</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="28">
         <v>17</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2830,14 +3035,62 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I19:R19"/>
     <mergeCell ref="I20:R20"/>
     <mergeCell ref="B17:C17"/>
@@ -2854,62 +3107,14 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2923,10 +3128,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF49"/>
+  <dimension ref="A1:BF94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:AI2"/>
+      <selection activeCell="CB29" sqref="CA29:CB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="11.25"/>
@@ -2935,213 +3140,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="30" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="70" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="71" t="str">
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="86" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="72"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="74" t="s">
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="88"/>
+      <c r="AJ1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="74"/>
-      <c r="AN1" s="74"/>
-      <c r="AO1" s="75" t="s">
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="75"/>
-      <c r="AQ1" s="75"/>
-      <c r="AR1" s="75"/>
-      <c r="AS1" s="75"/>
-      <c r="AT1" s="75"/>
-      <c r="AU1" s="75"/>
-      <c r="AV1" s="74" t="s">
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="74"/>
-      <c r="AX1" s="74"/>
-      <c r="AY1" s="74"/>
-      <c r="AZ1" s="74"/>
-      <c r="BA1" s="75"/>
-      <c r="BB1" s="75"/>
-      <c r="BC1" s="75"/>
-      <c r="BD1" s="75"/>
-      <c r="BE1" s="75"/>
-      <c r="BF1" s="75"/>
+      <c r="AW1" s="84"/>
+      <c r="AX1" s="84"/>
+      <c r="AY1" s="84"/>
+      <c r="AZ1" s="84"/>
+      <c r="BA1" s="79"/>
+      <c r="BB1" s="79"/>
+      <c r="BC1" s="79"/>
+      <c r="BD1" s="79"/>
+      <c r="BE1" s="79"/>
+      <c r="BF1" s="79"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="70" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="76" t="str">
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="81" t="str">
         <f>表紙!H15</f>
         <v>調整入力</v>
       </c>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="74" t="s">
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="74"/>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="74"/>
-      <c r="AO2" s="79">
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="85">
         <v>44752</v>
       </c>
-      <c r="AP2" s="75"/>
-      <c r="AQ2" s="75"/>
-      <c r="AR2" s="75"/>
-      <c r="AS2" s="75"/>
-      <c r="AT2" s="75"/>
-      <c r="AU2" s="75"/>
-      <c r="AV2" s="74" t="s">
+      <c r="AP2" s="79"/>
+      <c r="AQ2" s="79"/>
+      <c r="AR2" s="79"/>
+      <c r="AS2" s="79"/>
+      <c r="AT2" s="79"/>
+      <c r="AU2" s="79"/>
+      <c r="AV2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="74"/>
-      <c r="AX2" s="74"/>
-      <c r="AY2" s="74"/>
-      <c r="AZ2" s="74"/>
-      <c r="BA2" s="75"/>
-      <c r="BB2" s="75"/>
-      <c r="BC2" s="75"/>
-      <c r="BD2" s="75"/>
-      <c r="BE2" s="75"/>
-      <c r="BF2" s="75"/>
+      <c r="AW2" s="84"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="84"/>
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="79"/>
+      <c r="BB2" s="79"/>
+      <c r="BC2" s="79"/>
+      <c r="BD2" s="79"/>
+      <c r="BE2" s="79"/>
+      <c r="BF2" s="79"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="81"/>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="81"/>
-      <c r="AL3" s="81"/>
-      <c r="AM3" s="81"/>
-      <c r="AN3" s="82"/>
-      <c r="AO3" s="80" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="78"/>
+      <c r="AO3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="81"/>
-      <c r="AQ3" s="81"/>
-      <c r="AR3" s="81"/>
-      <c r="AS3" s="81"/>
-      <c r="AT3" s="81"/>
-      <c r="AU3" s="81"/>
-      <c r="AV3" s="81"/>
-      <c r="AW3" s="81"/>
-      <c r="AX3" s="81"/>
-      <c r="AY3" s="81"/>
-      <c r="AZ3" s="81"/>
-      <c r="BA3" s="81"/>
-      <c r="BB3" s="81"/>
-      <c r="BC3" s="81"/>
-      <c r="BD3" s="81"/>
-      <c r="BE3" s="81"/>
-      <c r="BF3" s="82"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="77"/>
+      <c r="AS3" s="77"/>
+      <c r="AT3" s="77"/>
+      <c r="AU3" s="77"/>
+      <c r="AV3" s="77"/>
+      <c r="AW3" s="77"/>
+      <c r="AX3" s="77"/>
+      <c r="AY3" s="77"/>
+      <c r="AZ3" s="77"/>
+      <c r="BA3" s="77"/>
+      <c r="BB3" s="77"/>
+      <c r="BC3" s="77"/>
+      <c r="BD3" s="77"/>
+      <c r="BE3" s="77"/>
+      <c r="BF3" s="78"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="2"/>
@@ -3155,11 +3360,11 @@
       <c r="AO5" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="AP5" s="59"/>
-      <c r="AQ5" s="59"/>
-      <c r="AR5" s="59"/>
-      <c r="AS5" s="59"/>
-      <c r="AT5" s="59"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="57"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="57"/>
+      <c r="AT5" s="57"/>
       <c r="AU5" s="68" t="s">
         <v>62</v>
       </c>
@@ -3179,11 +3384,11 @@
       <c r="A6" s="2"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="67"/>
-      <c r="AP6" s="59"/>
-      <c r="AQ6" s="59"/>
-      <c r="AR6" s="59"/>
-      <c r="AS6" s="59"/>
-      <c r="AT6" s="59"/>
+      <c r="AP6" s="57"/>
+      <c r="AQ6" s="57"/>
+      <c r="AR6" s="57"/>
+      <c r="AS6" s="57"/>
+      <c r="AT6" s="57"/>
       <c r="AU6" s="68"/>
       <c r="AV6" s="68"/>
       <c r="AW6" s="68"/>
@@ -3203,11 +3408,11 @@
       <c r="AO7" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="AP7" s="59"/>
-      <c r="AQ7" s="59"/>
-      <c r="AR7" s="59"/>
-      <c r="AS7" s="59"/>
-      <c r="AT7" s="59"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
       <c r="AU7" s="68" t="s">
         <v>53</v>
       </c>
@@ -3227,11 +3432,11 @@
       <c r="A8" s="2"/>
       <c r="AN8" s="3"/>
       <c r="AO8" s="67"/>
-      <c r="AP8" s="59"/>
-      <c r="AQ8" s="59"/>
-      <c r="AR8" s="59"/>
-      <c r="AS8" s="59"/>
-      <c r="AT8" s="59"/>
+      <c r="AP8" s="57"/>
+      <c r="AQ8" s="57"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
+      <c r="AT8" s="57"/>
       <c r="AU8" s="68"/>
       <c r="AV8" s="68"/>
       <c r="AW8" s="68"/>
@@ -3251,11 +3456,11 @@
       <c r="AO9" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="AP9" s="59"/>
-      <c r="AQ9" s="59"/>
-      <c r="AR9" s="59"/>
-      <c r="AS9" s="59"/>
-      <c r="AT9" s="59"/>
+      <c r="AP9" s="57"/>
+      <c r="AQ9" s="57"/>
+      <c r="AR9" s="57"/>
+      <c r="AS9" s="57"/>
+      <c r="AT9" s="57"/>
       <c r="AU9" s="68" t="s">
         <v>64</v>
       </c>
@@ -3275,11 +3480,11 @@
       <c r="A10" s="2"/>
       <c r="AN10" s="3"/>
       <c r="AO10" s="67"/>
-      <c r="AP10" s="59"/>
-      <c r="AQ10" s="59"/>
-      <c r="AR10" s="59"/>
-      <c r="AS10" s="59"/>
-      <c r="AT10" s="59"/>
+      <c r="AP10" s="57"/>
+      <c r="AQ10" s="57"/>
+      <c r="AR10" s="57"/>
+      <c r="AS10" s="57"/>
+      <c r="AT10" s="57"/>
       <c r="AU10" s="68"/>
       <c r="AV10" s="68"/>
       <c r="AW10" s="68"/>
@@ -3296,60 +3501,60 @@
     <row r="11" spans="1:58" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="83" t="s">
+      <c r="AO11" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="AP11" s="84"/>
-      <c r="AQ11" s="84"/>
-      <c r="AR11" s="84"/>
-      <c r="AS11" s="84"/>
-      <c r="AT11" s="84"/>
-      <c r="AU11" s="84" t="s">
+      <c r="AP11" s="71"/>
+      <c r="AQ11" s="71"/>
+      <c r="AR11" s="71"/>
+      <c r="AS11" s="71"/>
+      <c r="AT11" s="71"/>
+      <c r="AU11" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="AV11" s="84"/>
-      <c r="AW11" s="84"/>
-      <c r="AX11" s="84"/>
-      <c r="AY11" s="84"/>
-      <c r="AZ11" s="84"/>
-      <c r="BA11" s="84"/>
-      <c r="BB11" s="84"/>
-      <c r="BC11" s="84"/>
-      <c r="BD11" s="84"/>
-      <c r="BE11" s="84"/>
-      <c r="BF11" s="87"/>
+      <c r="AV11" s="71"/>
+      <c r="AW11" s="71"/>
+      <c r="AX11" s="71"/>
+      <c r="AY11" s="71"/>
+      <c r="AZ11" s="71"/>
+      <c r="BA11" s="71"/>
+      <c r="BB11" s="71"/>
+      <c r="BC11" s="71"/>
+      <c r="BD11" s="71"/>
+      <c r="BE11" s="71"/>
+      <c r="BF11" s="74"/>
     </row>
     <row r="12" spans="1:58">
       <c r="A12" s="2"/>
       <c r="AN12" s="3"/>
-      <c r="AO12" s="85"/>
-      <c r="AP12" s="86"/>
-      <c r="AQ12" s="86"/>
-      <c r="AR12" s="86"/>
-      <c r="AS12" s="86"/>
-      <c r="AT12" s="86"/>
-      <c r="AU12" s="86"/>
-      <c r="AV12" s="86"/>
-      <c r="AW12" s="86"/>
-      <c r="AX12" s="86"/>
-      <c r="AY12" s="86"/>
-      <c r="AZ12" s="86"/>
-      <c r="BA12" s="86"/>
-      <c r="BB12" s="86"/>
-      <c r="BC12" s="86"/>
-      <c r="BD12" s="86"/>
-      <c r="BE12" s="86"/>
-      <c r="BF12" s="88"/>
+      <c r="AO12" s="72"/>
+      <c r="AP12" s="73"/>
+      <c r="AQ12" s="73"/>
+      <c r="AR12" s="73"/>
+      <c r="AS12" s="73"/>
+      <c r="AT12" s="73"/>
+      <c r="AU12" s="73"/>
+      <c r="AV12" s="73"/>
+      <c r="AW12" s="73"/>
+      <c r="AX12" s="73"/>
+      <c r="AY12" s="73"/>
+      <c r="AZ12" s="73"/>
+      <c r="BA12" s="73"/>
+      <c r="BB12" s="73"/>
+      <c r="BC12" s="73"/>
+      <c r="BD12" s="73"/>
+      <c r="BE12" s="73"/>
+      <c r="BF12" s="75"/>
     </row>
     <row r="13" spans="1:58">
       <c r="A13" s="2"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="67"/>
-      <c r="AP13" s="59"/>
-      <c r="AQ13" s="59"/>
-      <c r="AR13" s="59"/>
-      <c r="AS13" s="59"/>
-      <c r="AT13" s="59"/>
+      <c r="AP13" s="57"/>
+      <c r="AQ13" s="57"/>
+      <c r="AR13" s="57"/>
+      <c r="AS13" s="57"/>
+      <c r="AT13" s="57"/>
       <c r="AU13" s="68"/>
       <c r="AV13" s="68"/>
       <c r="AW13" s="68"/>
@@ -3367,11 +3572,11 @@
       <c r="A14" s="2"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="67"/>
-      <c r="AP14" s="59"/>
-      <c r="AQ14" s="59"/>
-      <c r="AR14" s="59"/>
-      <c r="AS14" s="59"/>
-      <c r="AT14" s="59"/>
+      <c r="AP14" s="57"/>
+      <c r="AQ14" s="57"/>
+      <c r="AR14" s="57"/>
+      <c r="AS14" s="57"/>
+      <c r="AT14" s="57"/>
       <c r="AU14" s="68"/>
       <c r="AV14" s="68"/>
       <c r="AW14" s="68"/>
@@ -3389,11 +3594,11 @@
       <c r="A15" s="2"/>
       <c r="AN15" s="3"/>
       <c r="AO15" s="67"/>
-      <c r="AP15" s="59"/>
-      <c r="AQ15" s="59"/>
-      <c r="AR15" s="59"/>
-      <c r="AS15" s="59"/>
-      <c r="AT15" s="59"/>
+      <c r="AP15" s="57"/>
+      <c r="AQ15" s="57"/>
+      <c r="AR15" s="57"/>
+      <c r="AS15" s="57"/>
+      <c r="AT15" s="57"/>
       <c r="AU15" s="68"/>
       <c r="AV15" s="68"/>
       <c r="AW15" s="68"/>
@@ -3411,11 +3616,11 @@
       <c r="A16" s="2"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="67"/>
-      <c r="AP16" s="59"/>
-      <c r="AQ16" s="59"/>
-      <c r="AR16" s="59"/>
-      <c r="AS16" s="59"/>
-      <c r="AT16" s="59"/>
+      <c r="AP16" s="57"/>
+      <c r="AQ16" s="57"/>
+      <c r="AR16" s="57"/>
+      <c r="AS16" s="57"/>
+      <c r="AT16" s="57"/>
       <c r="AU16" s="68"/>
       <c r="AV16" s="68"/>
       <c r="AW16" s="68"/>
@@ -3433,11 +3638,11 @@
       <c r="A17" s="2"/>
       <c r="AN17" s="3"/>
       <c r="AO17" s="67"/>
-      <c r="AP17" s="59"/>
-      <c r="AQ17" s="59"/>
-      <c r="AR17" s="59"/>
-      <c r="AS17" s="59"/>
-      <c r="AT17" s="59"/>
+      <c r="AP17" s="57"/>
+      <c r="AQ17" s="57"/>
+      <c r="AR17" s="57"/>
+      <c r="AS17" s="57"/>
+      <c r="AT17" s="57"/>
       <c r="AU17" s="68"/>
       <c r="AV17" s="68"/>
       <c r="AW17" s="68"/>
@@ -3455,11 +3660,11 @@
       <c r="A18" s="2"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="67"/>
-      <c r="AP18" s="59"/>
-      <c r="AQ18" s="59"/>
-      <c r="AR18" s="59"/>
-      <c r="AS18" s="59"/>
-      <c r="AT18" s="59"/>
+      <c r="AP18" s="57"/>
+      <c r="AQ18" s="57"/>
+      <c r="AR18" s="57"/>
+      <c r="AS18" s="57"/>
+      <c r="AT18" s="57"/>
       <c r="AU18" s="68"/>
       <c r="AV18" s="68"/>
       <c r="AW18" s="68"/>
@@ -3477,11 +3682,11 @@
       <c r="A19" s="2"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="67"/>
-      <c r="AP19" s="59"/>
-      <c r="AQ19" s="59"/>
-      <c r="AR19" s="59"/>
-      <c r="AS19" s="59"/>
-      <c r="AT19" s="59"/>
+      <c r="AP19" s="57"/>
+      <c r="AQ19" s="57"/>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="57"/>
+      <c r="AT19" s="57"/>
       <c r="AU19" s="68"/>
       <c r="AV19" s="68"/>
       <c r="AW19" s="68"/>
@@ -3499,11 +3704,11 @@
       <c r="A20" s="2"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="67"/>
-      <c r="AP20" s="59"/>
-      <c r="AQ20" s="59"/>
-      <c r="AR20" s="59"/>
-      <c r="AS20" s="59"/>
-      <c r="AT20" s="59"/>
+      <c r="AP20" s="57"/>
+      <c r="AQ20" s="57"/>
+      <c r="AR20" s="57"/>
+      <c r="AS20" s="57"/>
+      <c r="AT20" s="57"/>
       <c r="AU20" s="68"/>
       <c r="AV20" s="68"/>
       <c r="AW20" s="68"/>
@@ -3521,11 +3726,11 @@
       <c r="A21" s="2"/>
       <c r="AN21" s="3"/>
       <c r="AO21" s="67"/>
-      <c r="AP21" s="59"/>
-      <c r="AQ21" s="59"/>
-      <c r="AR21" s="59"/>
-      <c r="AS21" s="59"/>
-      <c r="AT21" s="59"/>
+      <c r="AP21" s="57"/>
+      <c r="AQ21" s="57"/>
+      <c r="AR21" s="57"/>
+      <c r="AS21" s="57"/>
+      <c r="AT21" s="57"/>
       <c r="AU21" s="68"/>
       <c r="AV21" s="68"/>
       <c r="AW21" s="68"/>
@@ -3543,11 +3748,11 @@
       <c r="A22" s="2"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="67"/>
-      <c r="AP22" s="59"/>
-      <c r="AQ22" s="59"/>
-      <c r="AR22" s="59"/>
-      <c r="AS22" s="59"/>
-      <c r="AT22" s="59"/>
+      <c r="AP22" s="57"/>
+      <c r="AQ22" s="57"/>
+      <c r="AR22" s="57"/>
+      <c r="AS22" s="57"/>
+      <c r="AT22" s="57"/>
       <c r="AU22" s="68"/>
       <c r="AV22" s="68"/>
       <c r="AW22" s="68"/>
@@ -3571,11 +3776,11 @@
       <c r="A24" s="2"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="67"/>
-      <c r="AP24" s="59"/>
-      <c r="AQ24" s="59"/>
-      <c r="AR24" s="59"/>
-      <c r="AS24" s="59"/>
-      <c r="AT24" s="59"/>
+      <c r="AP24" s="57"/>
+      <c r="AQ24" s="57"/>
+      <c r="AR24" s="57"/>
+      <c r="AS24" s="57"/>
+      <c r="AT24" s="57"/>
       <c r="AU24" s="68"/>
       <c r="AV24" s="68"/>
       <c r="AW24" s="68"/>
@@ -3593,11 +3798,11 @@
       <c r="A25" s="2"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="67"/>
-      <c r="AP25" s="59"/>
-      <c r="AQ25" s="59"/>
-      <c r="AR25" s="59"/>
-      <c r="AS25" s="59"/>
-      <c r="AT25" s="59"/>
+      <c r="AP25" s="57"/>
+      <c r="AQ25" s="57"/>
+      <c r="AR25" s="57"/>
+      <c r="AS25" s="57"/>
+      <c r="AT25" s="57"/>
       <c r="AU25" s="68"/>
       <c r="AV25" s="68"/>
       <c r="AW25" s="68"/>
@@ -3615,11 +3820,11 @@
       <c r="A26" s="2"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="67"/>
-      <c r="AP26" s="59"/>
-      <c r="AQ26" s="59"/>
-      <c r="AR26" s="59"/>
-      <c r="AS26" s="59"/>
-      <c r="AT26" s="59"/>
+      <c r="AP26" s="57"/>
+      <c r="AQ26" s="57"/>
+      <c r="AR26" s="57"/>
+      <c r="AS26" s="57"/>
+      <c r="AT26" s="57"/>
       <c r="AU26" s="68"/>
       <c r="AV26" s="68"/>
       <c r="AW26" s="68"/>
@@ -3637,11 +3842,11 @@
       <c r="A27" s="2"/>
       <c r="AN27" s="3"/>
       <c r="AO27" s="67"/>
-      <c r="AP27" s="59"/>
-      <c r="AQ27" s="59"/>
-      <c r="AR27" s="59"/>
-      <c r="AS27" s="59"/>
-      <c r="AT27" s="59"/>
+      <c r="AP27" s="57"/>
+      <c r="AQ27" s="57"/>
+      <c r="AR27" s="57"/>
+      <c r="AS27" s="57"/>
+      <c r="AT27" s="57"/>
       <c r="AU27" s="68"/>
       <c r="AV27" s="68"/>
       <c r="AW27" s="68"/>
@@ -3659,11 +3864,11 @@
       <c r="A28" s="2"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="67"/>
-      <c r="AP28" s="59"/>
-      <c r="AQ28" s="59"/>
-      <c r="AR28" s="59"/>
-      <c r="AS28" s="59"/>
-      <c r="AT28" s="59"/>
+      <c r="AP28" s="57"/>
+      <c r="AQ28" s="57"/>
+      <c r="AR28" s="57"/>
+      <c r="AS28" s="57"/>
+      <c r="AT28" s="57"/>
       <c r="AU28" s="68"/>
       <c r="AV28" s="68"/>
       <c r="AW28" s="68"/>
@@ -3681,11 +3886,11 @@
       <c r="A29" s="2"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="67"/>
-      <c r="AP29" s="59"/>
-      <c r="AQ29" s="59"/>
-      <c r="AR29" s="59"/>
-      <c r="AS29" s="59"/>
-      <c r="AT29" s="59"/>
+      <c r="AP29" s="57"/>
+      <c r="AQ29" s="57"/>
+      <c r="AR29" s="57"/>
+      <c r="AS29" s="57"/>
+      <c r="AT29" s="57"/>
       <c r="AU29" s="68"/>
       <c r="AV29" s="68"/>
       <c r="AW29" s="68"/>
@@ -3703,11 +3908,11 @@
       <c r="A30" s="2"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="67"/>
-      <c r="AP30" s="59"/>
-      <c r="AQ30" s="59"/>
-      <c r="AR30" s="59"/>
-      <c r="AS30" s="59"/>
-      <c r="AT30" s="59"/>
+      <c r="AP30" s="57"/>
+      <c r="AQ30" s="57"/>
+      <c r="AR30" s="57"/>
+      <c r="AS30" s="57"/>
+      <c r="AT30" s="57"/>
       <c r="AU30" s="68"/>
       <c r="AV30" s="68"/>
       <c r="AW30" s="68"/>
@@ -3725,11 +3930,11 @@
       <c r="A31" s="2"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="67"/>
-      <c r="AP31" s="59"/>
-      <c r="AQ31" s="59"/>
-      <c r="AR31" s="59"/>
-      <c r="AS31" s="59"/>
-      <c r="AT31" s="59"/>
+      <c r="AP31" s="57"/>
+      <c r="AQ31" s="57"/>
+      <c r="AR31" s="57"/>
+      <c r="AS31" s="57"/>
+      <c r="AT31" s="57"/>
       <c r="AU31" s="68"/>
       <c r="AV31" s="68"/>
       <c r="AW31" s="68"/>
@@ -3747,11 +3952,11 @@
       <c r="A32" s="2"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="67"/>
-      <c r="AP32" s="59"/>
-      <c r="AQ32" s="59"/>
-      <c r="AR32" s="59"/>
-      <c r="AS32" s="59"/>
-      <c r="AT32" s="59"/>
+      <c r="AP32" s="57"/>
+      <c r="AQ32" s="57"/>
+      <c r="AR32" s="57"/>
+      <c r="AS32" s="57"/>
+      <c r="AT32" s="57"/>
       <c r="AU32" s="68"/>
       <c r="AV32" s="68"/>
       <c r="AW32" s="68"/>
@@ -3769,11 +3974,11 @@
       <c r="A33" s="2"/>
       <c r="AN33" s="3"/>
       <c r="AO33" s="67"/>
-      <c r="AP33" s="59"/>
-      <c r="AQ33" s="59"/>
-      <c r="AR33" s="59"/>
-      <c r="AS33" s="59"/>
-      <c r="AT33" s="59"/>
+      <c r="AP33" s="57"/>
+      <c r="AQ33" s="57"/>
+      <c r="AR33" s="57"/>
+      <c r="AS33" s="57"/>
+      <c r="AT33" s="57"/>
       <c r="AU33" s="68"/>
       <c r="AV33" s="68"/>
       <c r="AW33" s="68"/>
@@ -3791,11 +3996,11 @@
       <c r="A34" s="2"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="67"/>
-      <c r="AP34" s="59"/>
-      <c r="AQ34" s="59"/>
-      <c r="AR34" s="59"/>
-      <c r="AS34" s="59"/>
-      <c r="AT34" s="59"/>
+      <c r="AP34" s="57"/>
+      <c r="AQ34" s="57"/>
+      <c r="AR34" s="57"/>
+      <c r="AS34" s="57"/>
+      <c r="AT34" s="57"/>
       <c r="AU34" s="68"/>
       <c r="AV34" s="68"/>
       <c r="AW34" s="68"/>
@@ -3813,11 +4018,11 @@
       <c r="A35" s="2"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="67"/>
-      <c r="AP35" s="59"/>
-      <c r="AQ35" s="59"/>
-      <c r="AR35" s="59"/>
-      <c r="AS35" s="59"/>
-      <c r="AT35" s="59"/>
+      <c r="AP35" s="57"/>
+      <c r="AQ35" s="57"/>
+      <c r="AR35" s="57"/>
+      <c r="AS35" s="57"/>
+      <c r="AT35" s="57"/>
       <c r="AU35" s="68"/>
       <c r="AV35" s="68"/>
       <c r="AW35" s="68"/>
@@ -3835,11 +4040,11 @@
       <c r="A36" s="2"/>
       <c r="AN36" s="3"/>
       <c r="AO36" s="67"/>
-      <c r="AP36" s="59"/>
-      <c r="AQ36" s="59"/>
-      <c r="AR36" s="59"/>
-      <c r="AS36" s="59"/>
-      <c r="AT36" s="59"/>
+      <c r="AP36" s="57"/>
+      <c r="AQ36" s="57"/>
+      <c r="AR36" s="57"/>
+      <c r="AS36" s="57"/>
+      <c r="AT36" s="57"/>
       <c r="AU36" s="68"/>
       <c r="AV36" s="68"/>
       <c r="AW36" s="68"/>
@@ -3857,11 +4062,11 @@
       <c r="A37" s="2"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="67"/>
-      <c r="AP37" s="59"/>
-      <c r="AQ37" s="59"/>
-      <c r="AR37" s="59"/>
-      <c r="AS37" s="59"/>
-      <c r="AT37" s="59"/>
+      <c r="AP37" s="57"/>
+      <c r="AQ37" s="57"/>
+      <c r="AR37" s="57"/>
+      <c r="AS37" s="57"/>
+      <c r="AT37" s="57"/>
       <c r="AU37" s="68"/>
       <c r="AV37" s="68"/>
       <c r="AW37" s="68"/>
@@ -3879,11 +4084,11 @@
       <c r="A38" s="2"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="67"/>
-      <c r="AP38" s="59"/>
-      <c r="AQ38" s="59"/>
-      <c r="AR38" s="59"/>
-      <c r="AS38" s="59"/>
-      <c r="AT38" s="59"/>
+      <c r="AP38" s="57"/>
+      <c r="AQ38" s="57"/>
+      <c r="AR38" s="57"/>
+      <c r="AS38" s="57"/>
+      <c r="AT38" s="57"/>
       <c r="AU38" s="68"/>
       <c r="AV38" s="68"/>
       <c r="AW38" s="68"/>
@@ -3901,11 +4106,11 @@
       <c r="A39" s="2"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="67"/>
-      <c r="AP39" s="59"/>
-      <c r="AQ39" s="59"/>
-      <c r="AR39" s="59"/>
-      <c r="AS39" s="59"/>
-      <c r="AT39" s="59"/>
+      <c r="AP39" s="57"/>
+      <c r="AQ39" s="57"/>
+      <c r="AR39" s="57"/>
+      <c r="AS39" s="57"/>
+      <c r="AT39" s="57"/>
       <c r="AU39" s="68"/>
       <c r="AV39" s="68"/>
       <c r="AW39" s="68"/>
@@ -4033,47 +4238,782 @@
       <c r="BE49" s="5"/>
       <c r="BF49" s="6"/>
     </row>
+    <row r="50" spans="1:58">
+      <c r="AO50" s="67"/>
+      <c r="AP50" s="57"/>
+      <c r="AQ50" s="57"/>
+      <c r="AR50" s="57"/>
+      <c r="AS50" s="57"/>
+      <c r="AT50" s="57"/>
+      <c r="AU50" s="68"/>
+      <c r="AV50" s="68"/>
+      <c r="AW50" s="68"/>
+      <c r="AX50" s="68"/>
+      <c r="AY50" s="68"/>
+      <c r="AZ50" s="68"/>
+      <c r="BA50" s="68"/>
+      <c r="BB50" s="68"/>
+      <c r="BC50" s="68"/>
+      <c r="BD50" s="68"/>
+      <c r="BE50" s="68"/>
+      <c r="BF50" s="69"/>
+    </row>
+    <row r="51" spans="1:58">
+      <c r="AO51" s="67"/>
+      <c r="AP51" s="57"/>
+      <c r="AQ51" s="57"/>
+      <c r="AR51" s="57"/>
+      <c r="AS51" s="57"/>
+      <c r="AT51" s="57"/>
+      <c r="AU51" s="68"/>
+      <c r="AV51" s="68"/>
+      <c r="AW51" s="68"/>
+      <c r="AX51" s="68"/>
+      <c r="AY51" s="68"/>
+      <c r="AZ51" s="68"/>
+      <c r="BA51" s="68"/>
+      <c r="BB51" s="68"/>
+      <c r="BC51" s="68"/>
+      <c r="BD51" s="68"/>
+      <c r="BE51" s="68"/>
+      <c r="BF51" s="69"/>
+    </row>
+    <row r="52" spans="1:58">
+      <c r="AO52" s="67"/>
+      <c r="AP52" s="57"/>
+      <c r="AQ52" s="57"/>
+      <c r="AR52" s="57"/>
+      <c r="AS52" s="57"/>
+      <c r="AT52" s="57"/>
+      <c r="AU52" s="68"/>
+      <c r="AV52" s="68"/>
+      <c r="AW52" s="68"/>
+      <c r="AX52" s="68"/>
+      <c r="AY52" s="68"/>
+      <c r="AZ52" s="68"/>
+      <c r="BA52" s="68"/>
+      <c r="BB52" s="68"/>
+      <c r="BC52" s="68"/>
+      <c r="BD52" s="68"/>
+      <c r="BE52" s="68"/>
+      <c r="BF52" s="69"/>
+    </row>
+    <row r="53" spans="1:58">
+      <c r="AO53" s="67"/>
+      <c r="AP53" s="57"/>
+      <c r="AQ53" s="57"/>
+      <c r="AR53" s="57"/>
+      <c r="AS53" s="57"/>
+      <c r="AT53" s="57"/>
+      <c r="AU53" s="68"/>
+      <c r="AV53" s="68"/>
+      <c r="AW53" s="68"/>
+      <c r="AX53" s="68"/>
+      <c r="AY53" s="68"/>
+      <c r="AZ53" s="68"/>
+      <c r="BA53" s="68"/>
+      <c r="BB53" s="68"/>
+      <c r="BC53" s="68"/>
+      <c r="BD53" s="68"/>
+      <c r="BE53" s="68"/>
+      <c r="BF53" s="69"/>
+    </row>
+    <row r="54" spans="1:58">
+      <c r="AO54" s="67"/>
+      <c r="AP54" s="57"/>
+      <c r="AQ54" s="57"/>
+      <c r="AR54" s="57"/>
+      <c r="AS54" s="57"/>
+      <c r="AT54" s="57"/>
+      <c r="AU54" s="68"/>
+      <c r="AV54" s="68"/>
+      <c r="AW54" s="68"/>
+      <c r="AX54" s="68"/>
+      <c r="AY54" s="68"/>
+      <c r="AZ54" s="68"/>
+      <c r="BA54" s="68"/>
+      <c r="BB54" s="68"/>
+      <c r="BC54" s="68"/>
+      <c r="BD54" s="68"/>
+      <c r="BE54" s="68"/>
+      <c r="BF54" s="69"/>
+    </row>
+    <row r="55" spans="1:58">
+      <c r="AO55" s="67"/>
+      <c r="AP55" s="57"/>
+      <c r="AQ55" s="57"/>
+      <c r="AR55" s="57"/>
+      <c r="AS55" s="57"/>
+      <c r="AT55" s="57"/>
+      <c r="AU55" s="68"/>
+      <c r="AV55" s="68"/>
+      <c r="AW55" s="68"/>
+      <c r="AX55" s="68"/>
+      <c r="AY55" s="68"/>
+      <c r="AZ55" s="68"/>
+      <c r="BA55" s="68"/>
+      <c r="BB55" s="68"/>
+      <c r="BC55" s="68"/>
+      <c r="BD55" s="68"/>
+      <c r="BE55" s="68"/>
+      <c r="BF55" s="69"/>
+    </row>
+    <row r="56" spans="1:58">
+      <c r="AO56" s="70"/>
+      <c r="AP56" s="71"/>
+      <c r="AQ56" s="71"/>
+      <c r="AR56" s="71"/>
+      <c r="AS56" s="71"/>
+      <c r="AT56" s="71"/>
+      <c r="AU56" s="71"/>
+      <c r="AV56" s="71"/>
+      <c r="AW56" s="71"/>
+      <c r="AX56" s="71"/>
+      <c r="AY56" s="71"/>
+      <c r="AZ56" s="71"/>
+      <c r="BA56" s="71"/>
+      <c r="BB56" s="71"/>
+      <c r="BC56" s="71"/>
+      <c r="BD56" s="71"/>
+      <c r="BE56" s="71"/>
+      <c r="BF56" s="74"/>
+    </row>
+    <row r="57" spans="1:58">
+      <c r="AO57" s="72"/>
+      <c r="AP57" s="73"/>
+      <c r="AQ57" s="73"/>
+      <c r="AR57" s="73"/>
+      <c r="AS57" s="73"/>
+      <c r="AT57" s="73"/>
+      <c r="AU57" s="73"/>
+      <c r="AV57" s="73"/>
+      <c r="AW57" s="73"/>
+      <c r="AX57" s="73"/>
+      <c r="AY57" s="73"/>
+      <c r="AZ57" s="73"/>
+      <c r="BA57" s="73"/>
+      <c r="BB57" s="73"/>
+      <c r="BC57" s="73"/>
+      <c r="BD57" s="73"/>
+      <c r="BE57" s="73"/>
+      <c r="BF57" s="75"/>
+    </row>
+    <row r="58" spans="1:58">
+      <c r="AO58" s="67"/>
+      <c r="AP58" s="57"/>
+      <c r="AQ58" s="57"/>
+      <c r="AR58" s="57"/>
+      <c r="AS58" s="57"/>
+      <c r="AT58" s="57"/>
+      <c r="AU58" s="68"/>
+      <c r="AV58" s="68"/>
+      <c r="AW58" s="68"/>
+      <c r="AX58" s="68"/>
+      <c r="AY58" s="68"/>
+      <c r="AZ58" s="68"/>
+      <c r="BA58" s="68"/>
+      <c r="BB58" s="68"/>
+      <c r="BC58" s="68"/>
+      <c r="BD58" s="68"/>
+      <c r="BE58" s="68"/>
+      <c r="BF58" s="69"/>
+    </row>
+    <row r="59" spans="1:58">
+      <c r="AO59" s="67"/>
+      <c r="AP59" s="57"/>
+      <c r="AQ59" s="57"/>
+      <c r="AR59" s="57"/>
+      <c r="AS59" s="57"/>
+      <c r="AT59" s="57"/>
+      <c r="AU59" s="68"/>
+      <c r="AV59" s="68"/>
+      <c r="AW59" s="68"/>
+      <c r="AX59" s="68"/>
+      <c r="AY59" s="68"/>
+      <c r="AZ59" s="68"/>
+      <c r="BA59" s="68"/>
+      <c r="BB59" s="68"/>
+      <c r="BC59" s="68"/>
+      <c r="BD59" s="68"/>
+      <c r="BE59" s="68"/>
+      <c r="BF59" s="69"/>
+    </row>
+    <row r="60" spans="1:58">
+      <c r="AO60" s="67"/>
+      <c r="AP60" s="57"/>
+      <c r="AQ60" s="57"/>
+      <c r="AR60" s="57"/>
+      <c r="AS60" s="57"/>
+      <c r="AT60" s="57"/>
+      <c r="AU60" s="68"/>
+      <c r="AV60" s="68"/>
+      <c r="AW60" s="68"/>
+      <c r="AX60" s="68"/>
+      <c r="AY60" s="68"/>
+      <c r="AZ60" s="68"/>
+      <c r="BA60" s="68"/>
+      <c r="BB60" s="68"/>
+      <c r="BC60" s="68"/>
+      <c r="BD60" s="68"/>
+      <c r="BE60" s="68"/>
+      <c r="BF60" s="69"/>
+    </row>
+    <row r="61" spans="1:58">
+      <c r="AO61" s="67"/>
+      <c r="AP61" s="57"/>
+      <c r="AQ61" s="57"/>
+      <c r="AR61" s="57"/>
+      <c r="AS61" s="57"/>
+      <c r="AT61" s="57"/>
+      <c r="AU61" s="68"/>
+      <c r="AV61" s="68"/>
+      <c r="AW61" s="68"/>
+      <c r="AX61" s="68"/>
+      <c r="AY61" s="68"/>
+      <c r="AZ61" s="68"/>
+      <c r="BA61" s="68"/>
+      <c r="BB61" s="68"/>
+      <c r="BC61" s="68"/>
+      <c r="BD61" s="68"/>
+      <c r="BE61" s="68"/>
+      <c r="BF61" s="69"/>
+    </row>
+    <row r="62" spans="1:58">
+      <c r="AO62" s="67"/>
+      <c r="AP62" s="57"/>
+      <c r="AQ62" s="57"/>
+      <c r="AR62" s="57"/>
+      <c r="AS62" s="57"/>
+      <c r="AT62" s="57"/>
+      <c r="AU62" s="68"/>
+      <c r="AV62" s="68"/>
+      <c r="AW62" s="68"/>
+      <c r="AX62" s="68"/>
+      <c r="AY62" s="68"/>
+      <c r="AZ62" s="68"/>
+      <c r="BA62" s="68"/>
+      <c r="BB62" s="68"/>
+      <c r="BC62" s="68"/>
+      <c r="BD62" s="68"/>
+      <c r="BE62" s="68"/>
+      <c r="BF62" s="69"/>
+    </row>
+    <row r="63" spans="1:58">
+      <c r="AO63" s="67"/>
+      <c r="AP63" s="57"/>
+      <c r="AQ63" s="57"/>
+      <c r="AR63" s="57"/>
+      <c r="AS63" s="57"/>
+      <c r="AT63" s="57"/>
+      <c r="AU63" s="68"/>
+      <c r="AV63" s="68"/>
+      <c r="AW63" s="68"/>
+      <c r="AX63" s="68"/>
+      <c r="AY63" s="68"/>
+      <c r="AZ63" s="68"/>
+      <c r="BA63" s="68"/>
+      <c r="BB63" s="68"/>
+      <c r="BC63" s="68"/>
+      <c r="BD63" s="68"/>
+      <c r="BE63" s="68"/>
+      <c r="BF63" s="69"/>
+    </row>
+    <row r="64" spans="1:58">
+      <c r="AO64" s="67"/>
+      <c r="AP64" s="57"/>
+      <c r="AQ64" s="57"/>
+      <c r="AR64" s="57"/>
+      <c r="AS64" s="57"/>
+      <c r="AT64" s="57"/>
+      <c r="AU64" s="68"/>
+      <c r="AV64" s="68"/>
+      <c r="AW64" s="68"/>
+      <c r="AX64" s="68"/>
+      <c r="AY64" s="68"/>
+      <c r="AZ64" s="68"/>
+      <c r="BA64" s="68"/>
+      <c r="BB64" s="68"/>
+      <c r="BC64" s="68"/>
+      <c r="BD64" s="68"/>
+      <c r="BE64" s="68"/>
+      <c r="BF64" s="69"/>
+    </row>
+    <row r="65" spans="41:58">
+      <c r="AO65" s="67"/>
+      <c r="AP65" s="57"/>
+      <c r="AQ65" s="57"/>
+      <c r="AR65" s="57"/>
+      <c r="AS65" s="57"/>
+      <c r="AT65" s="57"/>
+      <c r="AU65" s="68"/>
+      <c r="AV65" s="68"/>
+      <c r="AW65" s="68"/>
+      <c r="AX65" s="68"/>
+      <c r="AY65" s="68"/>
+      <c r="AZ65" s="68"/>
+      <c r="BA65" s="68"/>
+      <c r="BB65" s="68"/>
+      <c r="BC65" s="68"/>
+      <c r="BD65" s="68"/>
+      <c r="BE65" s="68"/>
+      <c r="BF65" s="69"/>
+    </row>
+    <row r="66" spans="41:58">
+      <c r="AO66" s="67"/>
+      <c r="AP66" s="57"/>
+      <c r="AQ66" s="57"/>
+      <c r="AR66" s="57"/>
+      <c r="AS66" s="57"/>
+      <c r="AT66" s="57"/>
+      <c r="AU66" s="68"/>
+      <c r="AV66" s="68"/>
+      <c r="AW66" s="68"/>
+      <c r="AX66" s="68"/>
+      <c r="AY66" s="68"/>
+      <c r="AZ66" s="68"/>
+      <c r="BA66" s="68"/>
+      <c r="BB66" s="68"/>
+      <c r="BC66" s="68"/>
+      <c r="BD66" s="68"/>
+      <c r="BE66" s="68"/>
+      <c r="BF66" s="69"/>
+    </row>
+    <row r="67" spans="41:58">
+      <c r="AO67" s="67"/>
+      <c r="AP67" s="57"/>
+      <c r="AQ67" s="57"/>
+      <c r="AR67" s="57"/>
+      <c r="AS67" s="57"/>
+      <c r="AT67" s="57"/>
+      <c r="AU67" s="68"/>
+      <c r="AV67" s="68"/>
+      <c r="AW67" s="68"/>
+      <c r="AX67" s="68"/>
+      <c r="AY67" s="68"/>
+      <c r="AZ67" s="68"/>
+      <c r="BA67" s="68"/>
+      <c r="BB67" s="68"/>
+      <c r="BC67" s="68"/>
+      <c r="BD67" s="68"/>
+      <c r="BE67" s="68"/>
+      <c r="BF67" s="69"/>
+    </row>
+    <row r="68" spans="41:58">
+      <c r="AO68" s="2"/>
+      <c r="BF68" s="3"/>
+    </row>
+    <row r="69" spans="41:58">
+      <c r="AO69" s="67"/>
+      <c r="AP69" s="57"/>
+      <c r="AQ69" s="57"/>
+      <c r="AR69" s="57"/>
+      <c r="AS69" s="57"/>
+      <c r="AT69" s="57"/>
+      <c r="AU69" s="68"/>
+      <c r="AV69" s="68"/>
+      <c r="AW69" s="68"/>
+      <c r="AX69" s="68"/>
+      <c r="AY69" s="68"/>
+      <c r="AZ69" s="68"/>
+      <c r="BA69" s="68"/>
+      <c r="BB69" s="68"/>
+      <c r="BC69" s="68"/>
+      <c r="BD69" s="68"/>
+      <c r="BE69" s="68"/>
+      <c r="BF69" s="69"/>
+    </row>
+    <row r="70" spans="41:58">
+      <c r="AO70" s="67"/>
+      <c r="AP70" s="57"/>
+      <c r="AQ70" s="57"/>
+      <c r="AR70" s="57"/>
+      <c r="AS70" s="57"/>
+      <c r="AT70" s="57"/>
+      <c r="AU70" s="68"/>
+      <c r="AV70" s="68"/>
+      <c r="AW70" s="68"/>
+      <c r="AX70" s="68"/>
+      <c r="AY70" s="68"/>
+      <c r="AZ70" s="68"/>
+      <c r="BA70" s="68"/>
+      <c r="BB70" s="68"/>
+      <c r="BC70" s="68"/>
+      <c r="BD70" s="68"/>
+      <c r="BE70" s="68"/>
+      <c r="BF70" s="69"/>
+    </row>
+    <row r="71" spans="41:58">
+      <c r="AO71" s="67"/>
+      <c r="AP71" s="57"/>
+      <c r="AQ71" s="57"/>
+      <c r="AR71" s="57"/>
+      <c r="AS71" s="57"/>
+      <c r="AT71" s="57"/>
+      <c r="AU71" s="68"/>
+      <c r="AV71" s="68"/>
+      <c r="AW71" s="68"/>
+      <c r="AX71" s="68"/>
+      <c r="AY71" s="68"/>
+      <c r="AZ71" s="68"/>
+      <c r="BA71" s="68"/>
+      <c r="BB71" s="68"/>
+      <c r="BC71" s="68"/>
+      <c r="BD71" s="68"/>
+      <c r="BE71" s="68"/>
+      <c r="BF71" s="69"/>
+    </row>
+    <row r="72" spans="41:58">
+      <c r="AO72" s="67"/>
+      <c r="AP72" s="57"/>
+      <c r="AQ72" s="57"/>
+      <c r="AR72" s="57"/>
+      <c r="AS72" s="57"/>
+      <c r="AT72" s="57"/>
+      <c r="AU72" s="68"/>
+      <c r="AV72" s="68"/>
+      <c r="AW72" s="68"/>
+      <c r="AX72" s="68"/>
+      <c r="AY72" s="68"/>
+      <c r="AZ72" s="68"/>
+      <c r="BA72" s="68"/>
+      <c r="BB72" s="68"/>
+      <c r="BC72" s="68"/>
+      <c r="BD72" s="68"/>
+      <c r="BE72" s="68"/>
+      <c r="BF72" s="69"/>
+    </row>
+    <row r="73" spans="41:58">
+      <c r="AO73" s="67"/>
+      <c r="AP73" s="57"/>
+      <c r="AQ73" s="57"/>
+      <c r="AR73" s="57"/>
+      <c r="AS73" s="57"/>
+      <c r="AT73" s="57"/>
+      <c r="AU73" s="68"/>
+      <c r="AV73" s="68"/>
+      <c r="AW73" s="68"/>
+      <c r="AX73" s="68"/>
+      <c r="AY73" s="68"/>
+      <c r="AZ73" s="68"/>
+      <c r="BA73" s="68"/>
+      <c r="BB73" s="68"/>
+      <c r="BC73" s="68"/>
+      <c r="BD73" s="68"/>
+      <c r="BE73" s="68"/>
+      <c r="BF73" s="69"/>
+    </row>
+    <row r="74" spans="41:58">
+      <c r="AO74" s="67"/>
+      <c r="AP74" s="57"/>
+      <c r="AQ74" s="57"/>
+      <c r="AR74" s="57"/>
+      <c r="AS74" s="57"/>
+      <c r="AT74" s="57"/>
+      <c r="AU74" s="68"/>
+      <c r="AV74" s="68"/>
+      <c r="AW74" s="68"/>
+      <c r="AX74" s="68"/>
+      <c r="AY74" s="68"/>
+      <c r="AZ74" s="68"/>
+      <c r="BA74" s="68"/>
+      <c r="BB74" s="68"/>
+      <c r="BC74" s="68"/>
+      <c r="BD74" s="68"/>
+      <c r="BE74" s="68"/>
+      <c r="BF74" s="69"/>
+    </row>
+    <row r="75" spans="41:58">
+      <c r="AO75" s="67"/>
+      <c r="AP75" s="57"/>
+      <c r="AQ75" s="57"/>
+      <c r="AR75" s="57"/>
+      <c r="AS75" s="57"/>
+      <c r="AT75" s="57"/>
+      <c r="AU75" s="68"/>
+      <c r="AV75" s="68"/>
+      <c r="AW75" s="68"/>
+      <c r="AX75" s="68"/>
+      <c r="AY75" s="68"/>
+      <c r="AZ75" s="68"/>
+      <c r="BA75" s="68"/>
+      <c r="BB75" s="68"/>
+      <c r="BC75" s="68"/>
+      <c r="BD75" s="68"/>
+      <c r="BE75" s="68"/>
+      <c r="BF75" s="69"/>
+    </row>
+    <row r="76" spans="41:58">
+      <c r="AO76" s="67"/>
+      <c r="AP76" s="57"/>
+      <c r="AQ76" s="57"/>
+      <c r="AR76" s="57"/>
+      <c r="AS76" s="57"/>
+      <c r="AT76" s="57"/>
+      <c r="AU76" s="68"/>
+      <c r="AV76" s="68"/>
+      <c r="AW76" s="68"/>
+      <c r="AX76" s="68"/>
+      <c r="AY76" s="68"/>
+      <c r="AZ76" s="68"/>
+      <c r="BA76" s="68"/>
+      <c r="BB76" s="68"/>
+      <c r="BC76" s="68"/>
+      <c r="BD76" s="68"/>
+      <c r="BE76" s="68"/>
+      <c r="BF76" s="69"/>
+    </row>
+    <row r="77" spans="41:58">
+      <c r="AO77" s="67"/>
+      <c r="AP77" s="57"/>
+      <c r="AQ77" s="57"/>
+      <c r="AR77" s="57"/>
+      <c r="AS77" s="57"/>
+      <c r="AT77" s="57"/>
+      <c r="AU77" s="68"/>
+      <c r="AV77" s="68"/>
+      <c r="AW77" s="68"/>
+      <c r="AX77" s="68"/>
+      <c r="AY77" s="68"/>
+      <c r="AZ77" s="68"/>
+      <c r="BA77" s="68"/>
+      <c r="BB77" s="68"/>
+      <c r="BC77" s="68"/>
+      <c r="BD77" s="68"/>
+      <c r="BE77" s="68"/>
+      <c r="BF77" s="69"/>
+    </row>
+    <row r="78" spans="41:58">
+      <c r="AO78" s="67"/>
+      <c r="AP78" s="57"/>
+      <c r="AQ78" s="57"/>
+      <c r="AR78" s="57"/>
+      <c r="AS78" s="57"/>
+      <c r="AT78" s="57"/>
+      <c r="AU78" s="68"/>
+      <c r="AV78" s="68"/>
+      <c r="AW78" s="68"/>
+      <c r="AX78" s="68"/>
+      <c r="AY78" s="68"/>
+      <c r="AZ78" s="68"/>
+      <c r="BA78" s="68"/>
+      <c r="BB78" s="68"/>
+      <c r="BC78" s="68"/>
+      <c r="BD78" s="68"/>
+      <c r="BE78" s="68"/>
+      <c r="BF78" s="69"/>
+    </row>
+    <row r="79" spans="41:58">
+      <c r="AO79" s="67"/>
+      <c r="AP79" s="57"/>
+      <c r="AQ79" s="57"/>
+      <c r="AR79" s="57"/>
+      <c r="AS79" s="57"/>
+      <c r="AT79" s="57"/>
+      <c r="AU79" s="68"/>
+      <c r="AV79" s="68"/>
+      <c r="AW79" s="68"/>
+      <c r="AX79" s="68"/>
+      <c r="AY79" s="68"/>
+      <c r="AZ79" s="68"/>
+      <c r="BA79" s="68"/>
+      <c r="BB79" s="68"/>
+      <c r="BC79" s="68"/>
+      <c r="BD79" s="68"/>
+      <c r="BE79" s="68"/>
+      <c r="BF79" s="69"/>
+    </row>
+    <row r="80" spans="41:58">
+      <c r="AO80" s="67"/>
+      <c r="AP80" s="57"/>
+      <c r="AQ80" s="57"/>
+      <c r="AR80" s="57"/>
+      <c r="AS80" s="57"/>
+      <c r="AT80" s="57"/>
+      <c r="AU80" s="68"/>
+      <c r="AV80" s="68"/>
+      <c r="AW80" s="68"/>
+      <c r="AX80" s="68"/>
+      <c r="AY80" s="68"/>
+      <c r="AZ80" s="68"/>
+      <c r="BA80" s="68"/>
+      <c r="BB80" s="68"/>
+      <c r="BC80" s="68"/>
+      <c r="BD80" s="68"/>
+      <c r="BE80" s="68"/>
+      <c r="BF80" s="69"/>
+    </row>
+    <row r="81" spans="41:58">
+      <c r="AO81" s="67"/>
+      <c r="AP81" s="57"/>
+      <c r="AQ81" s="57"/>
+      <c r="AR81" s="57"/>
+      <c r="AS81" s="57"/>
+      <c r="AT81" s="57"/>
+      <c r="AU81" s="68"/>
+      <c r="AV81" s="68"/>
+      <c r="AW81" s="68"/>
+      <c r="AX81" s="68"/>
+      <c r="AY81" s="68"/>
+      <c r="AZ81" s="68"/>
+      <c r="BA81" s="68"/>
+      <c r="BB81" s="68"/>
+      <c r="BC81" s="68"/>
+      <c r="BD81" s="68"/>
+      <c r="BE81" s="68"/>
+      <c r="BF81" s="69"/>
+    </row>
+    <row r="82" spans="41:58">
+      <c r="AO82" s="67"/>
+      <c r="AP82" s="57"/>
+      <c r="AQ82" s="57"/>
+      <c r="AR82" s="57"/>
+      <c r="AS82" s="57"/>
+      <c r="AT82" s="57"/>
+      <c r="AU82" s="68"/>
+      <c r="AV82" s="68"/>
+      <c r="AW82" s="68"/>
+      <c r="AX82" s="68"/>
+      <c r="AY82" s="68"/>
+      <c r="AZ82" s="68"/>
+      <c r="BA82" s="68"/>
+      <c r="BB82" s="68"/>
+      <c r="BC82" s="68"/>
+      <c r="BD82" s="68"/>
+      <c r="BE82" s="68"/>
+      <c r="BF82" s="69"/>
+    </row>
+    <row r="83" spans="41:58">
+      <c r="AO83" s="67"/>
+      <c r="AP83" s="57"/>
+      <c r="AQ83" s="57"/>
+      <c r="AR83" s="57"/>
+      <c r="AS83" s="57"/>
+      <c r="AT83" s="57"/>
+      <c r="AU83" s="68"/>
+      <c r="AV83" s="68"/>
+      <c r="AW83" s="68"/>
+      <c r="AX83" s="68"/>
+      <c r="AY83" s="68"/>
+      <c r="AZ83" s="68"/>
+      <c r="BA83" s="68"/>
+      <c r="BB83" s="68"/>
+      <c r="BC83" s="68"/>
+      <c r="BD83" s="68"/>
+      <c r="BE83" s="68"/>
+      <c r="BF83" s="69"/>
+    </row>
+    <row r="84" spans="41:58">
+      <c r="AO84" s="67"/>
+      <c r="AP84" s="57"/>
+      <c r="AQ84" s="57"/>
+      <c r="AR84" s="57"/>
+      <c r="AS84" s="57"/>
+      <c r="AT84" s="57"/>
+      <c r="AU84" s="68"/>
+      <c r="AV84" s="68"/>
+      <c r="AW84" s="68"/>
+      <c r="AX84" s="68"/>
+      <c r="AY84" s="68"/>
+      <c r="AZ84" s="68"/>
+      <c r="BA84" s="68"/>
+      <c r="BB84" s="68"/>
+      <c r="BC84" s="68"/>
+      <c r="BD84" s="68"/>
+      <c r="BE84" s="68"/>
+      <c r="BF84" s="69"/>
+    </row>
+    <row r="85" spans="41:58">
+      <c r="AO85" s="2"/>
+      <c r="BF85" s="3"/>
+    </row>
+    <row r="86" spans="41:58">
+      <c r="AO86" s="2"/>
+      <c r="BF86" s="3"/>
+    </row>
+    <row r="87" spans="41:58">
+      <c r="AO87" s="2"/>
+      <c r="BF87" s="3"/>
+    </row>
+    <row r="88" spans="41:58">
+      <c r="AO88" s="2"/>
+      <c r="BF88" s="3"/>
+    </row>
+    <row r="89" spans="41:58">
+      <c r="AO89" s="2"/>
+      <c r="BF89" s="3"/>
+    </row>
+    <row r="90" spans="41:58">
+      <c r="AO90" s="2"/>
+      <c r="BF90" s="3"/>
+    </row>
+    <row r="91" spans="41:58">
+      <c r="AO91" s="2"/>
+      <c r="BF91" s="3"/>
+    </row>
+    <row r="92" spans="41:58">
+      <c r="AO92" s="2"/>
+      <c r="BF92" s="3"/>
+    </row>
+    <row r="93" spans="41:58">
+      <c r="AO93" s="2"/>
+      <c r="BF93" s="3"/>
+    </row>
+    <row r="94" spans="41:58">
+      <c r="AO94" s="4"/>
+      <c r="AP94" s="5"/>
+      <c r="AQ94" s="5"/>
+      <c r="AR94" s="5"/>
+      <c r="AS94" s="5"/>
+      <c r="AT94" s="5"/>
+      <c r="AU94" s="5"/>
+      <c r="AV94" s="5"/>
+      <c r="AW94" s="5"/>
+      <c r="AX94" s="5"/>
+      <c r="AY94" s="5"/>
+      <c r="AZ94" s="5"/>
+      <c r="BA94" s="5"/>
+      <c r="BB94" s="5"/>
+      <c r="BC94" s="5"/>
+      <c r="BD94" s="5"/>
+      <c r="BE94" s="5"/>
+      <c r="BF94" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="AO21:AT22"/>
-    <mergeCell ref="AU21:BF22"/>
-    <mergeCell ref="AO15:AT16"/>
-    <mergeCell ref="AU15:BF16"/>
-    <mergeCell ref="AO17:AT18"/>
-    <mergeCell ref="AU17:BF18"/>
-    <mergeCell ref="AO19:AT20"/>
-    <mergeCell ref="AU19:BF20"/>
-    <mergeCell ref="AO9:AT10"/>
-    <mergeCell ref="AU9:BF10"/>
-    <mergeCell ref="AO11:AT12"/>
-    <mergeCell ref="AU11:BF12"/>
-    <mergeCell ref="AO13:AT14"/>
-    <mergeCell ref="AU13:BF14"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AO3:BF3"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AO7:AT8"/>
-    <mergeCell ref="AU7:BF8"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="AO24:AT25"/>
-    <mergeCell ref="AU24:BF25"/>
-    <mergeCell ref="AO26:AT27"/>
-    <mergeCell ref="AU26:BF27"/>
-    <mergeCell ref="AO28:AT29"/>
-    <mergeCell ref="AU28:BF29"/>
+  <mergeCells count="83">
+    <mergeCell ref="AO81:AT82"/>
+    <mergeCell ref="AU81:BF82"/>
+    <mergeCell ref="AO83:AT84"/>
+    <mergeCell ref="AU83:BF84"/>
+    <mergeCell ref="AO75:AT76"/>
+    <mergeCell ref="AU75:BF76"/>
+    <mergeCell ref="AO77:AT78"/>
+    <mergeCell ref="AU77:BF78"/>
+    <mergeCell ref="AO79:AT80"/>
+    <mergeCell ref="AU79:BF80"/>
+    <mergeCell ref="AO69:AT70"/>
+    <mergeCell ref="AU69:BF70"/>
+    <mergeCell ref="AO71:AT72"/>
+    <mergeCell ref="AU71:BF72"/>
+    <mergeCell ref="AO73:AT74"/>
+    <mergeCell ref="AU73:BF74"/>
+    <mergeCell ref="AO62:AT63"/>
+    <mergeCell ref="AU62:BF63"/>
+    <mergeCell ref="AO64:AT65"/>
+    <mergeCell ref="AU64:BF65"/>
+    <mergeCell ref="AO66:AT67"/>
+    <mergeCell ref="AU66:BF67"/>
+    <mergeCell ref="AO56:AT57"/>
+    <mergeCell ref="AU56:BF57"/>
+    <mergeCell ref="AO58:AT59"/>
+    <mergeCell ref="AU58:BF59"/>
+    <mergeCell ref="AO60:AT61"/>
+    <mergeCell ref="AU60:BF61"/>
+    <mergeCell ref="AO50:AT51"/>
+    <mergeCell ref="AU50:BF51"/>
+    <mergeCell ref="AO52:AT53"/>
+    <mergeCell ref="AU52:BF53"/>
+    <mergeCell ref="AO54:AT55"/>
+    <mergeCell ref="AU54:BF55"/>
     <mergeCell ref="AO36:AT37"/>
     <mergeCell ref="AU36:BF37"/>
     <mergeCell ref="AO38:AT39"/>
@@ -4084,6 +5024,45 @@
     <mergeCell ref="AU32:BF33"/>
     <mergeCell ref="AO34:AT35"/>
     <mergeCell ref="AU34:BF35"/>
+    <mergeCell ref="AO24:AT25"/>
+    <mergeCell ref="AU24:BF25"/>
+    <mergeCell ref="AO26:AT27"/>
+    <mergeCell ref="AU26:BF27"/>
+    <mergeCell ref="AO28:AT29"/>
+    <mergeCell ref="AU28:BF29"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AO3:BF3"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AO7:AT8"/>
+    <mergeCell ref="AU7:BF8"/>
+    <mergeCell ref="AO9:AT10"/>
+    <mergeCell ref="AU9:BF10"/>
+    <mergeCell ref="AO11:AT12"/>
+    <mergeCell ref="AU11:BF12"/>
+    <mergeCell ref="AO13:AT14"/>
+    <mergeCell ref="AU13:BF14"/>
+    <mergeCell ref="AO21:AT22"/>
+    <mergeCell ref="AU21:BF22"/>
+    <mergeCell ref="AO15:AT16"/>
+    <mergeCell ref="AU15:BF16"/>
+    <mergeCell ref="AO17:AT18"/>
+    <mergeCell ref="AU17:BF18"/>
+    <mergeCell ref="AO19:AT20"/>
+    <mergeCell ref="AU19:BF20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4702,51 +5681,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:Q14"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="K22:Q22"/>
@@ -4763,6 +5697,51 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="K18:Q18"/>
     <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:Q5"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4878,536 +5857,529 @@
         <v>47</v>
       </c>
       <c r="B5" s="42"/>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="108"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="109"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="103"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="43"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="103"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="106"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="43"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="103"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="106"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="103"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="106"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="45"/>
       <c r="B9" s="46"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="106"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="109"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="41" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="42"/>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="109"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="103"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="103"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="106"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="43"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="103"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="106"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="45"/>
       <c r="B13" s="46"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="106"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="109"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="42"/>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="109"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="103"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="103"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="106"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="43"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="103"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="106"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="43"/>
       <c r="B17" s="44"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="103"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="106"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="43"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="102"/>
-      <c r="O18" s="102"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="103"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="106"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="102"/>
-      <c r="N19" s="102"/>
-      <c r="O19" s="102"/>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="103"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="106"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="42"/>
-      <c r="C20" s="107" t="s">
+      <c r="C20" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="109"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="103"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="43"/>
       <c r="B21" s="44"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="102"/>
-      <c r="O21" s="102"/>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="103"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="106"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="105"/>
-      <c r="O22" s="105"/>
-      <c r="P22" s="105"/>
-      <c r="Q22" s="106"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
+      <c r="Q22" s="109"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="41" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="42"/>
-      <c r="C23" s="107" t="s">
+      <c r="C23" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="108"/>
-      <c r="O23" s="108"/>
-      <c r="P23" s="108"/>
-      <c r="Q23" s="109"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="103"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="43"/>
       <c r="B24" s="44"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="102"/>
-      <c r="O24" s="102"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="103"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="106"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="43"/>
       <c r="B25" s="44"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="103"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="106"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="43"/>
       <c r="B26" s="44"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="102"/>
-      <c r="O26" s="102"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="103"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="106"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="105"/>
-      <c r="N27" s="105"/>
-      <c r="O27" s="105"/>
-      <c r="P27" s="105"/>
-      <c r="Q27" s="106"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="109"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="42"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="108"/>
-      <c r="N28" s="108"/>
-      <c r="O28" s="108"/>
-      <c r="P28" s="108"/>
-      <c r="Q28" s="109"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="103"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="43"/>
       <c r="B29" s="44"/>
-      <c r="C29" s="101" t="s">
+      <c r="C29" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="102"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="102"/>
-      <c r="O29" s="102"/>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="103"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="106"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="105"/>
-      <c r="O30" s="105"/>
-      <c r="P30" s="105"/>
-      <c r="Q30" s="106"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="108"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="108"/>
+      <c r="Q30" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C10:Q10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="C5:Q5"/>
-    <mergeCell ref="C6:Q6"/>
-    <mergeCell ref="C7:Q7"/>
-    <mergeCell ref="C8:Q8"/>
-    <mergeCell ref="C9:Q9"/>
+    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C27:Q27"/>
+    <mergeCell ref="C28:Q28"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C30:Q30"/>
+    <mergeCell ref="C26:Q26"/>
     <mergeCell ref="C24:Q24"/>
     <mergeCell ref="C11:Q11"/>
     <mergeCell ref="C12:Q12"/>
@@ -5422,15 +6394,530 @@
     <mergeCell ref="C23:Q23"/>
     <mergeCell ref="C21:Q21"/>
     <mergeCell ref="C18:Q18"/>
-    <mergeCell ref="C25:Q25"/>
-    <mergeCell ref="C27:Q27"/>
-    <mergeCell ref="C28:Q28"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C30:Q30"/>
-    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="C10:Q10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="C5:Q5"/>
+    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="C7:Q7"/>
+    <mergeCell ref="C8:Q8"/>
+    <mergeCell ref="C9:Q9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544AB957-8A51-40C2-852E-BF427FB6CD42}">
+  <dimension ref="A1:W29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="110" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="110" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="110"/>
+      <c r="B4" s="110"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="110"/>
+      <c r="B5" s="110"/>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="111" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="110"/>
+      <c r="B6" s="110"/>
+      <c r="D6" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="112" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="110"/>
+      <c r="B7" s="110"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="110"/>
+      <c r="B8" s="110"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="115" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="115" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="115" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="116" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="116" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="115" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" s="115" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="115" t="s">
+        <v>122</v>
+      </c>
+      <c r="P15" s="116" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q15" s="116" t="s">
+        <v>124</v>
+      </c>
+      <c r="R15" s="116" t="s">
+        <v>125</v>
+      </c>
+      <c r="S15" s="115" t="s">
+        <v>126</v>
+      </c>
+      <c r="T15" s="115" t="s">
+        <v>127</v>
+      </c>
+      <c r="U15" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="V15" s="110" t="s">
+        <v>129</v>
+      </c>
+      <c r="W15" s="114" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="110">
+        <v>1</v>
+      </c>
+      <c r="B16" s="113">
+        <v>1001</v>
+      </c>
+      <c r="C16" s="113" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="110">
+        <v>11</v>
+      </c>
+      <c r="E16" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="110">
+        <v>1</v>
+      </c>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110">
+        <v>0</v>
+      </c>
+      <c r="K16" s="110">
+        <v>1060</v>
+      </c>
+      <c r="L16" s="110">
+        <v>0</v>
+      </c>
+      <c r="M16" s="110">
+        <v>0</v>
+      </c>
+      <c r="N16" s="110">
+        <v>0</v>
+      </c>
+      <c r="O16" s="110">
+        <v>0</v>
+      </c>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="110">
+        <v>0</v>
+      </c>
+      <c r="T16" s="110"/>
+      <c r="U16" s="110"/>
+      <c r="V16" s="110"/>
+      <c r="W16" s="110"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="110">
+        <v>1</v>
+      </c>
+      <c r="B17" s="113">
+        <v>1001</v>
+      </c>
+      <c r="C17" s="113" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="110">
+        <v>12</v>
+      </c>
+      <c r="E17" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="110">
+        <v>1</v>
+      </c>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110">
+        <v>0</v>
+      </c>
+      <c r="K17" s="110">
+        <v>830</v>
+      </c>
+      <c r="L17" s="110">
+        <v>0</v>
+      </c>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="110"/>
+      <c r="U17" s="110"/>
+      <c r="V17" s="110"/>
+      <c r="W17" s="110"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="110">
+        <v>1</v>
+      </c>
+      <c r="B18" s="113">
+        <v>1001</v>
+      </c>
+      <c r="C18" s="113" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="110">
+        <v>13</v>
+      </c>
+      <c r="E18" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="110">
+        <v>1</v>
+      </c>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110">
+        <v>0</v>
+      </c>
+      <c r="K18" s="110">
+        <v>1290</v>
+      </c>
+      <c r="L18" s="110">
+        <v>0</v>
+      </c>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="110"/>
+      <c r="T18" s="110"/>
+      <c r="U18" s="110"/>
+      <c r="V18" s="110"/>
+      <c r="W18" s="110"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="110">
+        <v>1</v>
+      </c>
+      <c r="B19" s="113">
+        <v>1001</v>
+      </c>
+      <c r="C19" s="113" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="110">
+        <v>14</v>
+      </c>
+      <c r="E19" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="110">
+        <v>1</v>
+      </c>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110">
+        <v>0</v>
+      </c>
+      <c r="K19" s="110">
+        <v>770</v>
+      </c>
+      <c r="L19" s="110">
+        <v>0</v>
+      </c>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="110"/>
+      <c r="S19" s="110"/>
+      <c r="T19" s="110"/>
+      <c r="U19" s="110"/>
+      <c r="V19" s="110"/>
+      <c r="W19" s="110"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="110">
+        <v>1</v>
+      </c>
+      <c r="B20" s="113">
+        <v>1001</v>
+      </c>
+      <c r="C20" s="113" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="110">
+        <v>51</v>
+      </c>
+      <c r="E20" s="110" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="110">
+        <v>1</v>
+      </c>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110">
+        <v>0</v>
+      </c>
+      <c r="K20" s="110">
+        <v>980</v>
+      </c>
+      <c r="L20" s="110">
+        <v>0</v>
+      </c>
+      <c r="M20" s="110"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="110"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="110"/>
+      <c r="W20" s="110"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="110">
+        <v>1</v>
+      </c>
+      <c r="B21" s="113">
+        <v>1001</v>
+      </c>
+      <c r="C21" s="113" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="110">
+        <v>52</v>
+      </c>
+      <c r="E21" s="110" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="110">
+        <v>1</v>
+      </c>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110">
+        <v>0</v>
+      </c>
+      <c r="K21" s="110">
+        <v>980</v>
+      </c>
+      <c r="L21" s="110">
+        <v>0</v>
+      </c>
+      <c r="M21" s="110"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="110"/>
+      <c r="V21" s="110"/>
+      <c r="W21" s="110"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="110">
+        <v>1</v>
+      </c>
+      <c r="B22" s="113">
+        <v>1001</v>
+      </c>
+      <c r="C22" s="113" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="110">
+        <v>71</v>
+      </c>
+      <c r="E22" s="110" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="110">
+        <v>1</v>
+      </c>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110">
+        <v>0</v>
+      </c>
+      <c r="K22" s="110">
+        <v>200</v>
+      </c>
+      <c r="L22" s="110">
+        <v>0</v>
+      </c>
+      <c r="M22" s="110"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="110"/>
+      <c r="S22" s="110"/>
+      <c r="T22" s="110"/>
+      <c r="U22" s="110"/>
+      <c r="V22" s="110"/>
+      <c r="W22" s="110"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="110">
+        <v>1</v>
+      </c>
+      <c r="B23" s="113">
+        <v>1001</v>
+      </c>
+      <c r="C23" s="113" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="110">
+        <v>72</v>
+      </c>
+      <c r="E23" s="110" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="110">
+        <v>1</v>
+      </c>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110">
+        <v>0</v>
+      </c>
+      <c r="K23" s="110">
+        <v>260</v>
+      </c>
+      <c r="L23" s="110">
+        <v>0</v>
+      </c>
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="110"/>
+      <c r="S23" s="110"/>
+      <c r="T23" s="110"/>
+      <c r="U23" s="110"/>
+      <c r="V23" s="110"/>
+      <c r="W23" s="110"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="D29" s="112" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/市場_2025改修/詳細設計_2025/25_詳細設計書(調整入力) .xlsx
+++ b/市場_2025改修/詳細設計_2025/25_詳細設計書(調整入力) .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\詳細設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CC82E3-5B54-4ED7-9A3B-7023450E624B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F744DA8-156A-4EBF-9C8A-25C6DE981065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="調整入力" sheetId="173" r:id="rId3"/>
     <sheet name="項目説明" sheetId="171" r:id="rId4"/>
     <sheet name="プログラム機能" sheetId="172" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="174" r:id="rId6"/>
+    <sheet name="出力ファイル" sheetId="174" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="範囲１" localSheetId="4">#REF!</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="142">
   <si>
     <t>作成者</t>
   </si>
@@ -999,6 +999,16 @@
   </si>
   <si>
     <t>seikyu_sisetu_yyyy.xlsx</t>
+  </si>
+  <si>
+    <t>テナント１行目に追加</t>
+    <rPh sb="5" eb="7">
+      <t>ギョウメ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1633,12 +1643,40 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1654,45 +1692,36 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1720,6 +1749,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1728,36 +1787,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1793,6 +1822,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1801,43 +1848,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2320,50 +2330,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="53"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="63"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -2382,23 +2392,23 @@
     </row>
     <row r="10" spans="3:16" ht="22.5" customHeight="1" thickTop="1"/>
     <row r="12" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
     <row r="13" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
@@ -2408,46 +2418,46 @@
       <c r="N13" s="18"/>
     </row>
     <row r="14" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="54" t="s">
+      <c r="G15" s="55"/>
+      <c r="H15" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="56"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="58"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="56"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="58"/>
       <c r="N17" s="7" t="s">
         <v>54</v>
       </c>
@@ -2477,6 +2487,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -2485,12 +2501,6 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2519,52 +2529,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="66" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
       <c r="P1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
       <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="25"/>
@@ -2590,441 +2600,441 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64" t="s">
+      <c r="E4" s="65"/>
+      <c r="F4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64" t="s">
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="69">
         <v>44762</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61" t="s">
+      <c r="C5" s="69"/>
+      <c r="D5" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61" t="s">
+      <c r="E5" s="70"/>
+      <c r="F5" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="71">
         <v>45848</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59" t="s">
+      <c r="C6" s="71"/>
+      <c r="D6" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
+      <c r="E6" s="72"/>
+      <c r="F6" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="57" t="s">
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="28">
         <v>11</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="28">
         <v>14</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="28">
         <v>15</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="28">
         <v>16</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="28">
         <v>17</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -3035,30 +3045,46 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="I20:R20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I11:R11"/>
     <mergeCell ref="I12:R12"/>
     <mergeCell ref="B9:C9"/>
@@ -3075,46 +3101,30 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -3140,213 +3150,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="30" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="80" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="86" t="str">
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="84" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="88"/>
-      <c r="AJ1" s="84" t="s">
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="86"/>
+      <c r="AJ1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="84"/>
-      <c r="AM1" s="84"/>
-      <c r="AN1" s="84"/>
-      <c r="AO1" s="79" t="s">
+      <c r="AK1" s="87"/>
+      <c r="AL1" s="87"/>
+      <c r="AM1" s="87"/>
+      <c r="AN1" s="87"/>
+      <c r="AO1" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="84" t="s">
+      <c r="AP1" s="88"/>
+      <c r="AQ1" s="88"/>
+      <c r="AR1" s="88"/>
+      <c r="AS1" s="88"/>
+      <c r="AT1" s="88"/>
+      <c r="AU1" s="88"/>
+      <c r="AV1" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="84"/>
-      <c r="AX1" s="84"/>
-      <c r="AY1" s="84"/>
-      <c r="AZ1" s="84"/>
-      <c r="BA1" s="79"/>
-      <c r="BB1" s="79"/>
-      <c r="BC1" s="79"/>
-      <c r="BD1" s="79"/>
-      <c r="BE1" s="79"/>
-      <c r="BF1" s="79"/>
+      <c r="AW1" s="87"/>
+      <c r="AX1" s="87"/>
+      <c r="AY1" s="87"/>
+      <c r="AZ1" s="87"/>
+      <c r="BA1" s="88"/>
+      <c r="BB1" s="88"/>
+      <c r="BC1" s="88"/>
+      <c r="BD1" s="88"/>
+      <c r="BE1" s="88"/>
+      <c r="BF1" s="88"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="80" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="81" t="str">
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="89" t="str">
         <f>表紙!H15</f>
         <v>調整入力</v>
       </c>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="84" t="s">
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="85">
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="92">
         <v>44752</v>
       </c>
-      <c r="AP2" s="79"/>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="79"/>
-      <c r="AS2" s="79"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="84" t="s">
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="88"/>
+      <c r="AR2" s="88"/>
+      <c r="AS2" s="88"/>
+      <c r="AT2" s="88"/>
+      <c r="AU2" s="88"/>
+      <c r="AV2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="79"/>
-      <c r="BB2" s="79"/>
-      <c r="BC2" s="79"/>
-      <c r="BD2" s="79"/>
-      <c r="BE2" s="79"/>
-      <c r="BF2" s="79"/>
+      <c r="AW2" s="87"/>
+      <c r="AX2" s="87"/>
+      <c r="AY2" s="87"/>
+      <c r="AZ2" s="87"/>
+      <c r="BA2" s="88"/>
+      <c r="BB2" s="88"/>
+      <c r="BC2" s="88"/>
+      <c r="BD2" s="88"/>
+      <c r="BE2" s="88"/>
+      <c r="BF2" s="88"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="77"/>
-      <c r="AK3" s="77"/>
-      <c r="AL3" s="77"/>
-      <c r="AM3" s="77"/>
-      <c r="AN3" s="78"/>
-      <c r="AO3" s="76" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="94"/>
+      <c r="AL3" s="94"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="95"/>
+      <c r="AO3" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="77"/>
-      <c r="AQ3" s="77"/>
-      <c r="AR3" s="77"/>
-      <c r="AS3" s="77"/>
-      <c r="AT3" s="77"/>
-      <c r="AU3" s="77"/>
-      <c r="AV3" s="77"/>
-      <c r="AW3" s="77"/>
-      <c r="AX3" s="77"/>
-      <c r="AY3" s="77"/>
-      <c r="AZ3" s="77"/>
-      <c r="BA3" s="77"/>
-      <c r="BB3" s="77"/>
-      <c r="BC3" s="77"/>
-      <c r="BD3" s="77"/>
-      <c r="BE3" s="77"/>
-      <c r="BF3" s="78"/>
+      <c r="AP3" s="94"/>
+      <c r="AQ3" s="94"/>
+      <c r="AR3" s="94"/>
+      <c r="AS3" s="94"/>
+      <c r="AT3" s="94"/>
+      <c r="AU3" s="94"/>
+      <c r="AV3" s="94"/>
+      <c r="AW3" s="94"/>
+      <c r="AX3" s="94"/>
+      <c r="AY3" s="94"/>
+      <c r="AZ3" s="94"/>
+      <c r="BA3" s="94"/>
+      <c r="BB3" s="94"/>
+      <c r="BC3" s="94"/>
+      <c r="BD3" s="94"/>
+      <c r="BE3" s="94"/>
+      <c r="BF3" s="95"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="2"/>
@@ -3357,414 +3367,414 @@
     <row r="5" spans="1:58" ht="11.25" customHeight="1">
       <c r="A5" s="2"/>
       <c r="AN5" s="3"/>
-      <c r="AO5" s="67" t="s">
+      <c r="AO5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="57"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="57"/>
-      <c r="AT5" s="57"/>
-      <c r="AU5" s="68" t="s">
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="66"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="AV5" s="68"/>
-      <c r="AW5" s="68"/>
-      <c r="AX5" s="68"/>
-      <c r="AY5" s="68"/>
-      <c r="AZ5" s="68"/>
-      <c r="BA5" s="68"/>
-      <c r="BB5" s="68"/>
-      <c r="BC5" s="68"/>
-      <c r="BD5" s="68"/>
-      <c r="BE5" s="68"/>
-      <c r="BF5" s="69"/>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="75"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="75"/>
+      <c r="BB5" s="75"/>
+      <c r="BC5" s="75"/>
+      <c r="BD5" s="75"/>
+      <c r="BE5" s="75"/>
+      <c r="BF5" s="76"/>
     </row>
     <row r="6" spans="1:58">
       <c r="A6" s="2"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="67"/>
-      <c r="AP6" s="57"/>
-      <c r="AQ6" s="57"/>
-      <c r="AR6" s="57"/>
-      <c r="AS6" s="57"/>
-      <c r="AT6" s="57"/>
-      <c r="AU6" s="68"/>
-      <c r="AV6" s="68"/>
-      <c r="AW6" s="68"/>
-      <c r="AX6" s="68"/>
-      <c r="AY6" s="68"/>
-      <c r="AZ6" s="68"/>
-      <c r="BA6" s="68"/>
-      <c r="BB6" s="68"/>
-      <c r="BC6" s="68"/>
-      <c r="BD6" s="68"/>
-      <c r="BE6" s="68"/>
-      <c r="BF6" s="69"/>
+      <c r="AO6" s="74"/>
+      <c r="AP6" s="66"/>
+      <c r="AQ6" s="66"/>
+      <c r="AR6" s="66"/>
+      <c r="AS6" s="66"/>
+      <c r="AT6" s="66"/>
+      <c r="AU6" s="75"/>
+      <c r="AV6" s="75"/>
+      <c r="AW6" s="75"/>
+      <c r="AX6" s="75"/>
+      <c r="AY6" s="75"/>
+      <c r="AZ6" s="75"/>
+      <c r="BA6" s="75"/>
+      <c r="BB6" s="75"/>
+      <c r="BC6" s="75"/>
+      <c r="BD6" s="75"/>
+      <c r="BE6" s="75"/>
+      <c r="BF6" s="76"/>
     </row>
     <row r="7" spans="1:58" ht="11.25" customHeight="1">
       <c r="A7" s="2"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="67" t="s">
+      <c r="AO7" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="68" t="s">
+      <c r="AP7" s="66"/>
+      <c r="AQ7" s="66"/>
+      <c r="AR7" s="66"/>
+      <c r="AS7" s="66"/>
+      <c r="AT7" s="66"/>
+      <c r="AU7" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="AV7" s="68"/>
-      <c r="AW7" s="68"/>
-      <c r="AX7" s="68"/>
-      <c r="AY7" s="68"/>
-      <c r="AZ7" s="68"/>
-      <c r="BA7" s="68"/>
-      <c r="BB7" s="68"/>
-      <c r="BC7" s="68"/>
-      <c r="BD7" s="68"/>
-      <c r="BE7" s="68"/>
-      <c r="BF7" s="69"/>
+      <c r="AV7" s="75"/>
+      <c r="AW7" s="75"/>
+      <c r="AX7" s="75"/>
+      <c r="AY7" s="75"/>
+      <c r="AZ7" s="75"/>
+      <c r="BA7" s="75"/>
+      <c r="BB7" s="75"/>
+      <c r="BC7" s="75"/>
+      <c r="BD7" s="75"/>
+      <c r="BE7" s="75"/>
+      <c r="BF7" s="76"/>
     </row>
     <row r="8" spans="1:58">
       <c r="A8" s="2"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="67"/>
-      <c r="AP8" s="57"/>
-      <c r="AQ8" s="57"/>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="68"/>
-      <c r="AV8" s="68"/>
-      <c r="AW8" s="68"/>
-      <c r="AX8" s="68"/>
-      <c r="AY8" s="68"/>
-      <c r="AZ8" s="68"/>
-      <c r="BA8" s="68"/>
-      <c r="BB8" s="68"/>
-      <c r="BC8" s="68"/>
-      <c r="BD8" s="68"/>
-      <c r="BE8" s="68"/>
-      <c r="BF8" s="69"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="66"/>
+      <c r="AQ8" s="66"/>
+      <c r="AR8" s="66"/>
+      <c r="AS8" s="66"/>
+      <c r="AT8" s="66"/>
+      <c r="AU8" s="75"/>
+      <c r="AV8" s="75"/>
+      <c r="AW8" s="75"/>
+      <c r="AX8" s="75"/>
+      <c r="AY8" s="75"/>
+      <c r="AZ8" s="75"/>
+      <c r="BA8" s="75"/>
+      <c r="BB8" s="75"/>
+      <c r="BC8" s="75"/>
+      <c r="BD8" s="75"/>
+      <c r="BE8" s="75"/>
+      <c r="BF8" s="76"/>
     </row>
     <row r="9" spans="1:58" ht="11.25" customHeight="1">
       <c r="A9" s="2"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="67" t="s">
+      <c r="AO9" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="AP9" s="57"/>
-      <c r="AQ9" s="57"/>
-      <c r="AR9" s="57"/>
-      <c r="AS9" s="57"/>
-      <c r="AT9" s="57"/>
-      <c r="AU9" s="68" t="s">
+      <c r="AP9" s="66"/>
+      <c r="AQ9" s="66"/>
+      <c r="AR9" s="66"/>
+      <c r="AS9" s="66"/>
+      <c r="AT9" s="66"/>
+      <c r="AU9" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="AV9" s="68"/>
-      <c r="AW9" s="68"/>
-      <c r="AX9" s="68"/>
-      <c r="AY9" s="68"/>
-      <c r="AZ9" s="68"/>
-      <c r="BA9" s="68"/>
-      <c r="BB9" s="68"/>
-      <c r="BC9" s="68"/>
-      <c r="BD9" s="68"/>
-      <c r="BE9" s="68"/>
-      <c r="BF9" s="69"/>
+      <c r="AV9" s="75"/>
+      <c r="AW9" s="75"/>
+      <c r="AX9" s="75"/>
+      <c r="AY9" s="75"/>
+      <c r="AZ9" s="75"/>
+      <c r="BA9" s="75"/>
+      <c r="BB9" s="75"/>
+      <c r="BC9" s="75"/>
+      <c r="BD9" s="75"/>
+      <c r="BE9" s="75"/>
+      <c r="BF9" s="76"/>
     </row>
     <row r="10" spans="1:58">
       <c r="A10" s="2"/>
       <c r="AN10" s="3"/>
-      <c r="AO10" s="67"/>
-      <c r="AP10" s="57"/>
-      <c r="AQ10" s="57"/>
-      <c r="AR10" s="57"/>
-      <c r="AS10" s="57"/>
-      <c r="AT10" s="57"/>
-      <c r="AU10" s="68"/>
-      <c r="AV10" s="68"/>
-      <c r="AW10" s="68"/>
-      <c r="AX10" s="68"/>
-      <c r="AY10" s="68"/>
-      <c r="AZ10" s="68"/>
-      <c r="BA10" s="68"/>
-      <c r="BB10" s="68"/>
-      <c r="BC10" s="68"/>
-      <c r="BD10" s="68"/>
-      <c r="BE10" s="68"/>
-      <c r="BF10" s="69"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="66"/>
+      <c r="AQ10" s="66"/>
+      <c r="AR10" s="66"/>
+      <c r="AS10" s="66"/>
+      <c r="AT10" s="66"/>
+      <c r="AU10" s="75"/>
+      <c r="AV10" s="75"/>
+      <c r="AW10" s="75"/>
+      <c r="AX10" s="75"/>
+      <c r="AY10" s="75"/>
+      <c r="AZ10" s="75"/>
+      <c r="BA10" s="75"/>
+      <c r="BB10" s="75"/>
+      <c r="BC10" s="75"/>
+      <c r="BD10" s="75"/>
+      <c r="BE10" s="75"/>
+      <c r="BF10" s="76"/>
     </row>
     <row r="11" spans="1:58" ht="16.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="70" t="s">
+      <c r="AO11" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="AP11" s="71"/>
-      <c r="AQ11" s="71"/>
-      <c r="AR11" s="71"/>
-      <c r="AS11" s="71"/>
-      <c r="AT11" s="71"/>
-      <c r="AU11" s="71" t="s">
+      <c r="AP11" s="78"/>
+      <c r="AQ11" s="78"/>
+      <c r="AR11" s="78"/>
+      <c r="AS11" s="78"/>
+      <c r="AT11" s="78"/>
+      <c r="AU11" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="AV11" s="71"/>
-      <c r="AW11" s="71"/>
-      <c r="AX11" s="71"/>
-      <c r="AY11" s="71"/>
-      <c r="AZ11" s="71"/>
-      <c r="BA11" s="71"/>
-      <c r="BB11" s="71"/>
-      <c r="BC11" s="71"/>
-      <c r="BD11" s="71"/>
-      <c r="BE11" s="71"/>
-      <c r="BF11" s="74"/>
+      <c r="AV11" s="78"/>
+      <c r="AW11" s="78"/>
+      <c r="AX11" s="78"/>
+      <c r="AY11" s="78"/>
+      <c r="AZ11" s="78"/>
+      <c r="BA11" s="78"/>
+      <c r="BB11" s="78"/>
+      <c r="BC11" s="78"/>
+      <c r="BD11" s="78"/>
+      <c r="BE11" s="78"/>
+      <c r="BF11" s="81"/>
     </row>
     <row r="12" spans="1:58">
       <c r="A12" s="2"/>
       <c r="AN12" s="3"/>
-      <c r="AO12" s="72"/>
-      <c r="AP12" s="73"/>
-      <c r="AQ12" s="73"/>
-      <c r="AR12" s="73"/>
-      <c r="AS12" s="73"/>
-      <c r="AT12" s="73"/>
-      <c r="AU12" s="73"/>
-      <c r="AV12" s="73"/>
-      <c r="AW12" s="73"/>
-      <c r="AX12" s="73"/>
-      <c r="AY12" s="73"/>
-      <c r="AZ12" s="73"/>
-      <c r="BA12" s="73"/>
-      <c r="BB12" s="73"/>
-      <c r="BC12" s="73"/>
-      <c r="BD12" s="73"/>
-      <c r="BE12" s="73"/>
-      <c r="BF12" s="75"/>
+      <c r="AO12" s="79"/>
+      <c r="AP12" s="80"/>
+      <c r="AQ12" s="80"/>
+      <c r="AR12" s="80"/>
+      <c r="AS12" s="80"/>
+      <c r="AT12" s="80"/>
+      <c r="AU12" s="80"/>
+      <c r="AV12" s="80"/>
+      <c r="AW12" s="80"/>
+      <c r="AX12" s="80"/>
+      <c r="AY12" s="80"/>
+      <c r="AZ12" s="80"/>
+      <c r="BA12" s="80"/>
+      <c r="BB12" s="80"/>
+      <c r="BC12" s="80"/>
+      <c r="BD12" s="80"/>
+      <c r="BE12" s="80"/>
+      <c r="BF12" s="82"/>
     </row>
     <row r="13" spans="1:58">
       <c r="A13" s="2"/>
       <c r="AN13" s="3"/>
-      <c r="AO13" s="67"/>
-      <c r="AP13" s="57"/>
-      <c r="AQ13" s="57"/>
-      <c r="AR13" s="57"/>
-      <c r="AS13" s="57"/>
-      <c r="AT13" s="57"/>
-      <c r="AU13" s="68"/>
-      <c r="AV13" s="68"/>
-      <c r="AW13" s="68"/>
-      <c r="AX13" s="68"/>
-      <c r="AY13" s="68"/>
-      <c r="AZ13" s="68"/>
-      <c r="BA13" s="68"/>
-      <c r="BB13" s="68"/>
-      <c r="BC13" s="68"/>
-      <c r="BD13" s="68"/>
-      <c r="BE13" s="68"/>
-      <c r="BF13" s="69"/>
+      <c r="AO13" s="74"/>
+      <c r="AP13" s="66"/>
+      <c r="AQ13" s="66"/>
+      <c r="AR13" s="66"/>
+      <c r="AS13" s="66"/>
+      <c r="AT13" s="66"/>
+      <c r="AU13" s="75"/>
+      <c r="AV13" s="75"/>
+      <c r="AW13" s="75"/>
+      <c r="AX13" s="75"/>
+      <c r="AY13" s="75"/>
+      <c r="AZ13" s="75"/>
+      <c r="BA13" s="75"/>
+      <c r="BB13" s="75"/>
+      <c r="BC13" s="75"/>
+      <c r="BD13" s="75"/>
+      <c r="BE13" s="75"/>
+      <c r="BF13" s="76"/>
     </row>
     <row r="14" spans="1:58">
       <c r="A14" s="2"/>
       <c r="AN14" s="3"/>
-      <c r="AO14" s="67"/>
-      <c r="AP14" s="57"/>
-      <c r="AQ14" s="57"/>
-      <c r="AR14" s="57"/>
-      <c r="AS14" s="57"/>
-      <c r="AT14" s="57"/>
-      <c r="AU14" s="68"/>
-      <c r="AV14" s="68"/>
-      <c r="AW14" s="68"/>
-      <c r="AX14" s="68"/>
-      <c r="AY14" s="68"/>
-      <c r="AZ14" s="68"/>
-      <c r="BA14" s="68"/>
-      <c r="BB14" s="68"/>
-      <c r="BC14" s="68"/>
-      <c r="BD14" s="68"/>
-      <c r="BE14" s="68"/>
-      <c r="BF14" s="69"/>
+      <c r="AO14" s="74"/>
+      <c r="AP14" s="66"/>
+      <c r="AQ14" s="66"/>
+      <c r="AR14" s="66"/>
+      <c r="AS14" s="66"/>
+      <c r="AT14" s="66"/>
+      <c r="AU14" s="75"/>
+      <c r="AV14" s="75"/>
+      <c r="AW14" s="75"/>
+      <c r="AX14" s="75"/>
+      <c r="AY14" s="75"/>
+      <c r="AZ14" s="75"/>
+      <c r="BA14" s="75"/>
+      <c r="BB14" s="75"/>
+      <c r="BC14" s="75"/>
+      <c r="BD14" s="75"/>
+      <c r="BE14" s="75"/>
+      <c r="BF14" s="76"/>
     </row>
     <row r="15" spans="1:58">
       <c r="A15" s="2"/>
       <c r="AN15" s="3"/>
-      <c r="AO15" s="67"/>
-      <c r="AP15" s="57"/>
-      <c r="AQ15" s="57"/>
-      <c r="AR15" s="57"/>
-      <c r="AS15" s="57"/>
-      <c r="AT15" s="57"/>
-      <c r="AU15" s="68"/>
-      <c r="AV15" s="68"/>
-      <c r="AW15" s="68"/>
-      <c r="AX15" s="68"/>
-      <c r="AY15" s="68"/>
-      <c r="AZ15" s="68"/>
-      <c r="BA15" s="68"/>
-      <c r="BB15" s="68"/>
-      <c r="BC15" s="68"/>
-      <c r="BD15" s="68"/>
-      <c r="BE15" s="68"/>
-      <c r="BF15" s="69"/>
+      <c r="AO15" s="74"/>
+      <c r="AP15" s="66"/>
+      <c r="AQ15" s="66"/>
+      <c r="AR15" s="66"/>
+      <c r="AS15" s="66"/>
+      <c r="AT15" s="66"/>
+      <c r="AU15" s="75"/>
+      <c r="AV15" s="75"/>
+      <c r="AW15" s="75"/>
+      <c r="AX15" s="75"/>
+      <c r="AY15" s="75"/>
+      <c r="AZ15" s="75"/>
+      <c r="BA15" s="75"/>
+      <c r="BB15" s="75"/>
+      <c r="BC15" s="75"/>
+      <c r="BD15" s="75"/>
+      <c r="BE15" s="75"/>
+      <c r="BF15" s="76"/>
     </row>
     <row r="16" spans="1:58">
       <c r="A16" s="2"/>
       <c r="AN16" s="3"/>
-      <c r="AO16" s="67"/>
-      <c r="AP16" s="57"/>
-      <c r="AQ16" s="57"/>
-      <c r="AR16" s="57"/>
-      <c r="AS16" s="57"/>
-      <c r="AT16" s="57"/>
-      <c r="AU16" s="68"/>
-      <c r="AV16" s="68"/>
-      <c r="AW16" s="68"/>
-      <c r="AX16" s="68"/>
-      <c r="AY16" s="68"/>
-      <c r="AZ16" s="68"/>
-      <c r="BA16" s="68"/>
-      <c r="BB16" s="68"/>
-      <c r="BC16" s="68"/>
-      <c r="BD16" s="68"/>
-      <c r="BE16" s="68"/>
-      <c r="BF16" s="69"/>
+      <c r="AO16" s="74"/>
+      <c r="AP16" s="66"/>
+      <c r="AQ16" s="66"/>
+      <c r="AR16" s="66"/>
+      <c r="AS16" s="66"/>
+      <c r="AT16" s="66"/>
+      <c r="AU16" s="75"/>
+      <c r="AV16" s="75"/>
+      <c r="AW16" s="75"/>
+      <c r="AX16" s="75"/>
+      <c r="AY16" s="75"/>
+      <c r="AZ16" s="75"/>
+      <c r="BA16" s="75"/>
+      <c r="BB16" s="75"/>
+      <c r="BC16" s="75"/>
+      <c r="BD16" s="75"/>
+      <c r="BE16" s="75"/>
+      <c r="BF16" s="76"/>
     </row>
     <row r="17" spans="1:58">
       <c r="A17" s="2"/>
       <c r="AN17" s="3"/>
-      <c r="AO17" s="67"/>
-      <c r="AP17" s="57"/>
-      <c r="AQ17" s="57"/>
-      <c r="AR17" s="57"/>
-      <c r="AS17" s="57"/>
-      <c r="AT17" s="57"/>
-      <c r="AU17" s="68"/>
-      <c r="AV17" s="68"/>
-      <c r="AW17" s="68"/>
-      <c r="AX17" s="68"/>
-      <c r="AY17" s="68"/>
-      <c r="AZ17" s="68"/>
-      <c r="BA17" s="68"/>
-      <c r="BB17" s="68"/>
-      <c r="BC17" s="68"/>
-      <c r="BD17" s="68"/>
-      <c r="BE17" s="68"/>
-      <c r="BF17" s="69"/>
+      <c r="AO17" s="74"/>
+      <c r="AP17" s="66"/>
+      <c r="AQ17" s="66"/>
+      <c r="AR17" s="66"/>
+      <c r="AS17" s="66"/>
+      <c r="AT17" s="66"/>
+      <c r="AU17" s="75"/>
+      <c r="AV17" s="75"/>
+      <c r="AW17" s="75"/>
+      <c r="AX17" s="75"/>
+      <c r="AY17" s="75"/>
+      <c r="AZ17" s="75"/>
+      <c r="BA17" s="75"/>
+      <c r="BB17" s="75"/>
+      <c r="BC17" s="75"/>
+      <c r="BD17" s="75"/>
+      <c r="BE17" s="75"/>
+      <c r="BF17" s="76"/>
     </row>
     <row r="18" spans="1:58">
       <c r="A18" s="2"/>
       <c r="AN18" s="3"/>
-      <c r="AO18" s="67"/>
-      <c r="AP18" s="57"/>
-      <c r="AQ18" s="57"/>
-      <c r="AR18" s="57"/>
-      <c r="AS18" s="57"/>
-      <c r="AT18" s="57"/>
-      <c r="AU18" s="68"/>
-      <c r="AV18" s="68"/>
-      <c r="AW18" s="68"/>
-      <c r="AX18" s="68"/>
-      <c r="AY18" s="68"/>
-      <c r="AZ18" s="68"/>
-      <c r="BA18" s="68"/>
-      <c r="BB18" s="68"/>
-      <c r="BC18" s="68"/>
-      <c r="BD18" s="68"/>
-      <c r="BE18" s="68"/>
-      <c r="BF18" s="69"/>
+      <c r="AO18" s="74"/>
+      <c r="AP18" s="66"/>
+      <c r="AQ18" s="66"/>
+      <c r="AR18" s="66"/>
+      <c r="AS18" s="66"/>
+      <c r="AT18" s="66"/>
+      <c r="AU18" s="75"/>
+      <c r="AV18" s="75"/>
+      <c r="AW18" s="75"/>
+      <c r="AX18" s="75"/>
+      <c r="AY18" s="75"/>
+      <c r="AZ18" s="75"/>
+      <c r="BA18" s="75"/>
+      <c r="BB18" s="75"/>
+      <c r="BC18" s="75"/>
+      <c r="BD18" s="75"/>
+      <c r="BE18" s="75"/>
+      <c r="BF18" s="76"/>
     </row>
     <row r="19" spans="1:58" ht="11.25" customHeight="1">
       <c r="A19" s="2"/>
       <c r="AN19" s="3"/>
-      <c r="AO19" s="67"/>
-      <c r="AP19" s="57"/>
-      <c r="AQ19" s="57"/>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="57"/>
-      <c r="AT19" s="57"/>
-      <c r="AU19" s="68"/>
-      <c r="AV19" s="68"/>
-      <c r="AW19" s="68"/>
-      <c r="AX19" s="68"/>
-      <c r="AY19" s="68"/>
-      <c r="AZ19" s="68"/>
-      <c r="BA19" s="68"/>
-      <c r="BB19" s="68"/>
-      <c r="BC19" s="68"/>
-      <c r="BD19" s="68"/>
-      <c r="BE19" s="68"/>
-      <c r="BF19" s="69"/>
+      <c r="AO19" s="74"/>
+      <c r="AP19" s="66"/>
+      <c r="AQ19" s="66"/>
+      <c r="AR19" s="66"/>
+      <c r="AS19" s="66"/>
+      <c r="AT19" s="66"/>
+      <c r="AU19" s="75"/>
+      <c r="AV19" s="75"/>
+      <c r="AW19" s="75"/>
+      <c r="AX19" s="75"/>
+      <c r="AY19" s="75"/>
+      <c r="AZ19" s="75"/>
+      <c r="BA19" s="75"/>
+      <c r="BB19" s="75"/>
+      <c r="BC19" s="75"/>
+      <c r="BD19" s="75"/>
+      <c r="BE19" s="75"/>
+      <c r="BF19" s="76"/>
     </row>
     <row r="20" spans="1:58">
       <c r="A20" s="2"/>
       <c r="AN20" s="3"/>
-      <c r="AO20" s="67"/>
-      <c r="AP20" s="57"/>
-      <c r="AQ20" s="57"/>
-      <c r="AR20" s="57"/>
-      <c r="AS20" s="57"/>
-      <c r="AT20" s="57"/>
-      <c r="AU20" s="68"/>
-      <c r="AV20" s="68"/>
-      <c r="AW20" s="68"/>
-      <c r="AX20" s="68"/>
-      <c r="AY20" s="68"/>
-      <c r="AZ20" s="68"/>
-      <c r="BA20" s="68"/>
-      <c r="BB20" s="68"/>
-      <c r="BC20" s="68"/>
-      <c r="BD20" s="68"/>
-      <c r="BE20" s="68"/>
-      <c r="BF20" s="69"/>
+      <c r="AO20" s="74"/>
+      <c r="AP20" s="66"/>
+      <c r="AQ20" s="66"/>
+      <c r="AR20" s="66"/>
+      <c r="AS20" s="66"/>
+      <c r="AT20" s="66"/>
+      <c r="AU20" s="75"/>
+      <c r="AV20" s="75"/>
+      <c r="AW20" s="75"/>
+      <c r="AX20" s="75"/>
+      <c r="AY20" s="75"/>
+      <c r="AZ20" s="75"/>
+      <c r="BA20" s="75"/>
+      <c r="BB20" s="75"/>
+      <c r="BC20" s="75"/>
+      <c r="BD20" s="75"/>
+      <c r="BE20" s="75"/>
+      <c r="BF20" s="76"/>
     </row>
     <row r="21" spans="1:58">
       <c r="A21" s="2"/>
       <c r="AN21" s="3"/>
-      <c r="AO21" s="67"/>
-      <c r="AP21" s="57"/>
-      <c r="AQ21" s="57"/>
-      <c r="AR21" s="57"/>
-      <c r="AS21" s="57"/>
-      <c r="AT21" s="57"/>
-      <c r="AU21" s="68"/>
-      <c r="AV21" s="68"/>
-      <c r="AW21" s="68"/>
-      <c r="AX21" s="68"/>
-      <c r="AY21" s="68"/>
-      <c r="AZ21" s="68"/>
-      <c r="BA21" s="68"/>
-      <c r="BB21" s="68"/>
-      <c r="BC21" s="68"/>
-      <c r="BD21" s="68"/>
-      <c r="BE21" s="68"/>
-      <c r="BF21" s="69"/>
+      <c r="AO21" s="74"/>
+      <c r="AP21" s="66"/>
+      <c r="AQ21" s="66"/>
+      <c r="AR21" s="66"/>
+      <c r="AS21" s="66"/>
+      <c r="AT21" s="66"/>
+      <c r="AU21" s="75"/>
+      <c r="AV21" s="75"/>
+      <c r="AW21" s="75"/>
+      <c r="AX21" s="75"/>
+      <c r="AY21" s="75"/>
+      <c r="AZ21" s="75"/>
+      <c r="BA21" s="75"/>
+      <c r="BB21" s="75"/>
+      <c r="BC21" s="75"/>
+      <c r="BD21" s="75"/>
+      <c r="BE21" s="75"/>
+      <c r="BF21" s="76"/>
     </row>
     <row r="22" spans="1:58">
       <c r="A22" s="2"/>
       <c r="AN22" s="3"/>
-      <c r="AO22" s="67"/>
-      <c r="AP22" s="57"/>
-      <c r="AQ22" s="57"/>
-      <c r="AR22" s="57"/>
-      <c r="AS22" s="57"/>
-      <c r="AT22" s="57"/>
-      <c r="AU22" s="68"/>
-      <c r="AV22" s="68"/>
-      <c r="AW22" s="68"/>
-      <c r="AX22" s="68"/>
-      <c r="AY22" s="68"/>
-      <c r="AZ22" s="68"/>
-      <c r="BA22" s="68"/>
-      <c r="BB22" s="68"/>
-      <c r="BC22" s="68"/>
-      <c r="BD22" s="68"/>
-      <c r="BE22" s="68"/>
-      <c r="BF22" s="69"/>
+      <c r="AO22" s="74"/>
+      <c r="AP22" s="66"/>
+      <c r="AQ22" s="66"/>
+      <c r="AR22" s="66"/>
+      <c r="AS22" s="66"/>
+      <c r="AT22" s="66"/>
+      <c r="AU22" s="75"/>
+      <c r="AV22" s="75"/>
+      <c r="AW22" s="75"/>
+      <c r="AX22" s="75"/>
+      <c r="AY22" s="75"/>
+      <c r="AZ22" s="75"/>
+      <c r="BA22" s="75"/>
+      <c r="BB22" s="75"/>
+      <c r="BC22" s="75"/>
+      <c r="BD22" s="75"/>
+      <c r="BE22" s="75"/>
+      <c r="BF22" s="76"/>
     </row>
     <row r="23" spans="1:58">
       <c r="A23" s="2"/>
@@ -3775,354 +3785,354 @@
     <row r="24" spans="1:58">
       <c r="A24" s="2"/>
       <c r="AN24" s="3"/>
-      <c r="AO24" s="67"/>
-      <c r="AP24" s="57"/>
-      <c r="AQ24" s="57"/>
-      <c r="AR24" s="57"/>
-      <c r="AS24" s="57"/>
-      <c r="AT24" s="57"/>
-      <c r="AU24" s="68"/>
-      <c r="AV24" s="68"/>
-      <c r="AW24" s="68"/>
-      <c r="AX24" s="68"/>
-      <c r="AY24" s="68"/>
-      <c r="AZ24" s="68"/>
-      <c r="BA24" s="68"/>
-      <c r="BB24" s="68"/>
-      <c r="BC24" s="68"/>
-      <c r="BD24" s="68"/>
-      <c r="BE24" s="68"/>
-      <c r="BF24" s="69"/>
+      <c r="AO24" s="74"/>
+      <c r="AP24" s="66"/>
+      <c r="AQ24" s="66"/>
+      <c r="AR24" s="66"/>
+      <c r="AS24" s="66"/>
+      <c r="AT24" s="66"/>
+      <c r="AU24" s="75"/>
+      <c r="AV24" s="75"/>
+      <c r="AW24" s="75"/>
+      <c r="AX24" s="75"/>
+      <c r="AY24" s="75"/>
+      <c r="AZ24" s="75"/>
+      <c r="BA24" s="75"/>
+      <c r="BB24" s="75"/>
+      <c r="BC24" s="75"/>
+      <c r="BD24" s="75"/>
+      <c r="BE24" s="75"/>
+      <c r="BF24" s="76"/>
     </row>
     <row r="25" spans="1:58">
       <c r="A25" s="2"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="67"/>
-      <c r="AP25" s="57"/>
-      <c r="AQ25" s="57"/>
-      <c r="AR25" s="57"/>
-      <c r="AS25" s="57"/>
-      <c r="AT25" s="57"/>
-      <c r="AU25" s="68"/>
-      <c r="AV25" s="68"/>
-      <c r="AW25" s="68"/>
-      <c r="AX25" s="68"/>
-      <c r="AY25" s="68"/>
-      <c r="AZ25" s="68"/>
-      <c r="BA25" s="68"/>
-      <c r="BB25" s="68"/>
-      <c r="BC25" s="68"/>
-      <c r="BD25" s="68"/>
-      <c r="BE25" s="68"/>
-      <c r="BF25" s="69"/>
+      <c r="AO25" s="74"/>
+      <c r="AP25" s="66"/>
+      <c r="AQ25" s="66"/>
+      <c r="AR25" s="66"/>
+      <c r="AS25" s="66"/>
+      <c r="AT25" s="66"/>
+      <c r="AU25" s="75"/>
+      <c r="AV25" s="75"/>
+      <c r="AW25" s="75"/>
+      <c r="AX25" s="75"/>
+      <c r="AY25" s="75"/>
+      <c r="AZ25" s="75"/>
+      <c r="BA25" s="75"/>
+      <c r="BB25" s="75"/>
+      <c r="BC25" s="75"/>
+      <c r="BD25" s="75"/>
+      <c r="BE25" s="75"/>
+      <c r="BF25" s="76"/>
     </row>
     <row r="26" spans="1:58">
       <c r="A26" s="2"/>
       <c r="AN26" s="3"/>
-      <c r="AO26" s="67"/>
-      <c r="AP26" s="57"/>
-      <c r="AQ26" s="57"/>
-      <c r="AR26" s="57"/>
-      <c r="AS26" s="57"/>
-      <c r="AT26" s="57"/>
-      <c r="AU26" s="68"/>
-      <c r="AV26" s="68"/>
-      <c r="AW26" s="68"/>
-      <c r="AX26" s="68"/>
-      <c r="AY26" s="68"/>
-      <c r="AZ26" s="68"/>
-      <c r="BA26" s="68"/>
-      <c r="BB26" s="68"/>
-      <c r="BC26" s="68"/>
-      <c r="BD26" s="68"/>
-      <c r="BE26" s="68"/>
-      <c r="BF26" s="69"/>
+      <c r="AO26" s="74"/>
+      <c r="AP26" s="66"/>
+      <c r="AQ26" s="66"/>
+      <c r="AR26" s="66"/>
+      <c r="AS26" s="66"/>
+      <c r="AT26" s="66"/>
+      <c r="AU26" s="75"/>
+      <c r="AV26" s="75"/>
+      <c r="AW26" s="75"/>
+      <c r="AX26" s="75"/>
+      <c r="AY26" s="75"/>
+      <c r="AZ26" s="75"/>
+      <c r="BA26" s="75"/>
+      <c r="BB26" s="75"/>
+      <c r="BC26" s="75"/>
+      <c r="BD26" s="75"/>
+      <c r="BE26" s="75"/>
+      <c r="BF26" s="76"/>
     </row>
     <row r="27" spans="1:58">
       <c r="A27" s="2"/>
       <c r="AN27" s="3"/>
-      <c r="AO27" s="67"/>
-      <c r="AP27" s="57"/>
-      <c r="AQ27" s="57"/>
-      <c r="AR27" s="57"/>
-      <c r="AS27" s="57"/>
-      <c r="AT27" s="57"/>
-      <c r="AU27" s="68"/>
-      <c r="AV27" s="68"/>
-      <c r="AW27" s="68"/>
-      <c r="AX27" s="68"/>
-      <c r="AY27" s="68"/>
-      <c r="AZ27" s="68"/>
-      <c r="BA27" s="68"/>
-      <c r="BB27" s="68"/>
-      <c r="BC27" s="68"/>
-      <c r="BD27" s="68"/>
-      <c r="BE27" s="68"/>
-      <c r="BF27" s="69"/>
+      <c r="AO27" s="74"/>
+      <c r="AP27" s="66"/>
+      <c r="AQ27" s="66"/>
+      <c r="AR27" s="66"/>
+      <c r="AS27" s="66"/>
+      <c r="AT27" s="66"/>
+      <c r="AU27" s="75"/>
+      <c r="AV27" s="75"/>
+      <c r="AW27" s="75"/>
+      <c r="AX27" s="75"/>
+      <c r="AY27" s="75"/>
+      <c r="AZ27" s="75"/>
+      <c r="BA27" s="75"/>
+      <c r="BB27" s="75"/>
+      <c r="BC27" s="75"/>
+      <c r="BD27" s="75"/>
+      <c r="BE27" s="75"/>
+      <c r="BF27" s="76"/>
     </row>
     <row r="28" spans="1:58">
       <c r="A28" s="2"/>
       <c r="AN28" s="3"/>
-      <c r="AO28" s="67"/>
-      <c r="AP28" s="57"/>
-      <c r="AQ28" s="57"/>
-      <c r="AR28" s="57"/>
-      <c r="AS28" s="57"/>
-      <c r="AT28" s="57"/>
-      <c r="AU28" s="68"/>
-      <c r="AV28" s="68"/>
-      <c r="AW28" s="68"/>
-      <c r="AX28" s="68"/>
-      <c r="AY28" s="68"/>
-      <c r="AZ28" s="68"/>
-      <c r="BA28" s="68"/>
-      <c r="BB28" s="68"/>
-      <c r="BC28" s="68"/>
-      <c r="BD28" s="68"/>
-      <c r="BE28" s="68"/>
-      <c r="BF28" s="69"/>
+      <c r="AO28" s="74"/>
+      <c r="AP28" s="66"/>
+      <c r="AQ28" s="66"/>
+      <c r="AR28" s="66"/>
+      <c r="AS28" s="66"/>
+      <c r="AT28" s="66"/>
+      <c r="AU28" s="75"/>
+      <c r="AV28" s="75"/>
+      <c r="AW28" s="75"/>
+      <c r="AX28" s="75"/>
+      <c r="AY28" s="75"/>
+      <c r="AZ28" s="75"/>
+      <c r="BA28" s="75"/>
+      <c r="BB28" s="75"/>
+      <c r="BC28" s="75"/>
+      <c r="BD28" s="75"/>
+      <c r="BE28" s="75"/>
+      <c r="BF28" s="76"/>
     </row>
     <row r="29" spans="1:58">
       <c r="A29" s="2"/>
       <c r="AN29" s="3"/>
-      <c r="AO29" s="67"/>
-      <c r="AP29" s="57"/>
-      <c r="AQ29" s="57"/>
-      <c r="AR29" s="57"/>
-      <c r="AS29" s="57"/>
-      <c r="AT29" s="57"/>
-      <c r="AU29" s="68"/>
-      <c r="AV29" s="68"/>
-      <c r="AW29" s="68"/>
-      <c r="AX29" s="68"/>
-      <c r="AY29" s="68"/>
-      <c r="AZ29" s="68"/>
-      <c r="BA29" s="68"/>
-      <c r="BB29" s="68"/>
-      <c r="BC29" s="68"/>
-      <c r="BD29" s="68"/>
-      <c r="BE29" s="68"/>
-      <c r="BF29" s="69"/>
+      <c r="AO29" s="74"/>
+      <c r="AP29" s="66"/>
+      <c r="AQ29" s="66"/>
+      <c r="AR29" s="66"/>
+      <c r="AS29" s="66"/>
+      <c r="AT29" s="66"/>
+      <c r="AU29" s="75"/>
+      <c r="AV29" s="75"/>
+      <c r="AW29" s="75"/>
+      <c r="AX29" s="75"/>
+      <c r="AY29" s="75"/>
+      <c r="AZ29" s="75"/>
+      <c r="BA29" s="75"/>
+      <c r="BB29" s="75"/>
+      <c r="BC29" s="75"/>
+      <c r="BD29" s="75"/>
+      <c r="BE29" s="75"/>
+      <c r="BF29" s="76"/>
     </row>
     <row r="30" spans="1:58">
       <c r="A30" s="2"/>
       <c r="AN30" s="3"/>
-      <c r="AO30" s="67"/>
-      <c r="AP30" s="57"/>
-      <c r="AQ30" s="57"/>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="57"/>
-      <c r="AT30" s="57"/>
-      <c r="AU30" s="68"/>
-      <c r="AV30" s="68"/>
-      <c r="AW30" s="68"/>
-      <c r="AX30" s="68"/>
-      <c r="AY30" s="68"/>
-      <c r="AZ30" s="68"/>
-      <c r="BA30" s="68"/>
-      <c r="BB30" s="68"/>
-      <c r="BC30" s="68"/>
-      <c r="BD30" s="68"/>
-      <c r="BE30" s="68"/>
-      <c r="BF30" s="69"/>
+      <c r="AO30" s="74"/>
+      <c r="AP30" s="66"/>
+      <c r="AQ30" s="66"/>
+      <c r="AR30" s="66"/>
+      <c r="AS30" s="66"/>
+      <c r="AT30" s="66"/>
+      <c r="AU30" s="75"/>
+      <c r="AV30" s="75"/>
+      <c r="AW30" s="75"/>
+      <c r="AX30" s="75"/>
+      <c r="AY30" s="75"/>
+      <c r="AZ30" s="75"/>
+      <c r="BA30" s="75"/>
+      <c r="BB30" s="75"/>
+      <c r="BC30" s="75"/>
+      <c r="BD30" s="75"/>
+      <c r="BE30" s="75"/>
+      <c r="BF30" s="76"/>
     </row>
     <row r="31" spans="1:58">
       <c r="A31" s="2"/>
       <c r="AN31" s="3"/>
-      <c r="AO31" s="67"/>
-      <c r="AP31" s="57"/>
-      <c r="AQ31" s="57"/>
-      <c r="AR31" s="57"/>
-      <c r="AS31" s="57"/>
-      <c r="AT31" s="57"/>
-      <c r="AU31" s="68"/>
-      <c r="AV31" s="68"/>
-      <c r="AW31" s="68"/>
-      <c r="AX31" s="68"/>
-      <c r="AY31" s="68"/>
-      <c r="AZ31" s="68"/>
-      <c r="BA31" s="68"/>
-      <c r="BB31" s="68"/>
-      <c r="BC31" s="68"/>
-      <c r="BD31" s="68"/>
-      <c r="BE31" s="68"/>
-      <c r="BF31" s="69"/>
+      <c r="AO31" s="74"/>
+      <c r="AP31" s="66"/>
+      <c r="AQ31" s="66"/>
+      <c r="AR31" s="66"/>
+      <c r="AS31" s="66"/>
+      <c r="AT31" s="66"/>
+      <c r="AU31" s="75"/>
+      <c r="AV31" s="75"/>
+      <c r="AW31" s="75"/>
+      <c r="AX31" s="75"/>
+      <c r="AY31" s="75"/>
+      <c r="AZ31" s="75"/>
+      <c r="BA31" s="75"/>
+      <c r="BB31" s="75"/>
+      <c r="BC31" s="75"/>
+      <c r="BD31" s="75"/>
+      <c r="BE31" s="75"/>
+      <c r="BF31" s="76"/>
     </row>
     <row r="32" spans="1:58">
       <c r="A32" s="2"/>
       <c r="AN32" s="3"/>
-      <c r="AO32" s="67"/>
-      <c r="AP32" s="57"/>
-      <c r="AQ32" s="57"/>
-      <c r="AR32" s="57"/>
-      <c r="AS32" s="57"/>
-      <c r="AT32" s="57"/>
-      <c r="AU32" s="68"/>
-      <c r="AV32" s="68"/>
-      <c r="AW32" s="68"/>
-      <c r="AX32" s="68"/>
-      <c r="AY32" s="68"/>
-      <c r="AZ32" s="68"/>
-      <c r="BA32" s="68"/>
-      <c r="BB32" s="68"/>
-      <c r="BC32" s="68"/>
-      <c r="BD32" s="68"/>
-      <c r="BE32" s="68"/>
-      <c r="BF32" s="69"/>
+      <c r="AO32" s="74"/>
+      <c r="AP32" s="66"/>
+      <c r="AQ32" s="66"/>
+      <c r="AR32" s="66"/>
+      <c r="AS32" s="66"/>
+      <c r="AT32" s="66"/>
+      <c r="AU32" s="75"/>
+      <c r="AV32" s="75"/>
+      <c r="AW32" s="75"/>
+      <c r="AX32" s="75"/>
+      <c r="AY32" s="75"/>
+      <c r="AZ32" s="75"/>
+      <c r="BA32" s="75"/>
+      <c r="BB32" s="75"/>
+      <c r="BC32" s="75"/>
+      <c r="BD32" s="75"/>
+      <c r="BE32" s="75"/>
+      <c r="BF32" s="76"/>
     </row>
     <row r="33" spans="1:58">
       <c r="A33" s="2"/>
       <c r="AN33" s="3"/>
-      <c r="AO33" s="67"/>
-      <c r="AP33" s="57"/>
-      <c r="AQ33" s="57"/>
-      <c r="AR33" s="57"/>
-      <c r="AS33" s="57"/>
-      <c r="AT33" s="57"/>
-      <c r="AU33" s="68"/>
-      <c r="AV33" s="68"/>
-      <c r="AW33" s="68"/>
-      <c r="AX33" s="68"/>
-      <c r="AY33" s="68"/>
-      <c r="AZ33" s="68"/>
-      <c r="BA33" s="68"/>
-      <c r="BB33" s="68"/>
-      <c r="BC33" s="68"/>
-      <c r="BD33" s="68"/>
-      <c r="BE33" s="68"/>
-      <c r="BF33" s="69"/>
+      <c r="AO33" s="74"/>
+      <c r="AP33" s="66"/>
+      <c r="AQ33" s="66"/>
+      <c r="AR33" s="66"/>
+      <c r="AS33" s="66"/>
+      <c r="AT33" s="66"/>
+      <c r="AU33" s="75"/>
+      <c r="AV33" s="75"/>
+      <c r="AW33" s="75"/>
+      <c r="AX33" s="75"/>
+      <c r="AY33" s="75"/>
+      <c r="AZ33" s="75"/>
+      <c r="BA33" s="75"/>
+      <c r="BB33" s="75"/>
+      <c r="BC33" s="75"/>
+      <c r="BD33" s="75"/>
+      <c r="BE33" s="75"/>
+      <c r="BF33" s="76"/>
     </row>
     <row r="34" spans="1:58">
       <c r="A34" s="2"/>
       <c r="AN34" s="3"/>
-      <c r="AO34" s="67"/>
-      <c r="AP34" s="57"/>
-      <c r="AQ34" s="57"/>
-      <c r="AR34" s="57"/>
-      <c r="AS34" s="57"/>
-      <c r="AT34" s="57"/>
-      <c r="AU34" s="68"/>
-      <c r="AV34" s="68"/>
-      <c r="AW34" s="68"/>
-      <c r="AX34" s="68"/>
-      <c r="AY34" s="68"/>
-      <c r="AZ34" s="68"/>
-      <c r="BA34" s="68"/>
-      <c r="BB34" s="68"/>
-      <c r="BC34" s="68"/>
-      <c r="BD34" s="68"/>
-      <c r="BE34" s="68"/>
-      <c r="BF34" s="69"/>
+      <c r="AO34" s="74"/>
+      <c r="AP34" s="66"/>
+      <c r="AQ34" s="66"/>
+      <c r="AR34" s="66"/>
+      <c r="AS34" s="66"/>
+      <c r="AT34" s="66"/>
+      <c r="AU34" s="75"/>
+      <c r="AV34" s="75"/>
+      <c r="AW34" s="75"/>
+      <c r="AX34" s="75"/>
+      <c r="AY34" s="75"/>
+      <c r="AZ34" s="75"/>
+      <c r="BA34" s="75"/>
+      <c r="BB34" s="75"/>
+      <c r="BC34" s="75"/>
+      <c r="BD34" s="75"/>
+      <c r="BE34" s="75"/>
+      <c r="BF34" s="76"/>
     </row>
     <row r="35" spans="1:58">
       <c r="A35" s="2"/>
       <c r="AN35" s="3"/>
-      <c r="AO35" s="67"/>
-      <c r="AP35" s="57"/>
-      <c r="AQ35" s="57"/>
-      <c r="AR35" s="57"/>
-      <c r="AS35" s="57"/>
-      <c r="AT35" s="57"/>
-      <c r="AU35" s="68"/>
-      <c r="AV35" s="68"/>
-      <c r="AW35" s="68"/>
-      <c r="AX35" s="68"/>
-      <c r="AY35" s="68"/>
-      <c r="AZ35" s="68"/>
-      <c r="BA35" s="68"/>
-      <c r="BB35" s="68"/>
-      <c r="BC35" s="68"/>
-      <c r="BD35" s="68"/>
-      <c r="BE35" s="68"/>
-      <c r="BF35" s="69"/>
+      <c r="AO35" s="74"/>
+      <c r="AP35" s="66"/>
+      <c r="AQ35" s="66"/>
+      <c r="AR35" s="66"/>
+      <c r="AS35" s="66"/>
+      <c r="AT35" s="66"/>
+      <c r="AU35" s="75"/>
+      <c r="AV35" s="75"/>
+      <c r="AW35" s="75"/>
+      <c r="AX35" s="75"/>
+      <c r="AY35" s="75"/>
+      <c r="AZ35" s="75"/>
+      <c r="BA35" s="75"/>
+      <c r="BB35" s="75"/>
+      <c r="BC35" s="75"/>
+      <c r="BD35" s="75"/>
+      <c r="BE35" s="75"/>
+      <c r="BF35" s="76"/>
     </row>
     <row r="36" spans="1:58">
       <c r="A36" s="2"/>
       <c r="AN36" s="3"/>
-      <c r="AO36" s="67"/>
-      <c r="AP36" s="57"/>
-      <c r="AQ36" s="57"/>
-      <c r="AR36" s="57"/>
-      <c r="AS36" s="57"/>
-      <c r="AT36" s="57"/>
-      <c r="AU36" s="68"/>
-      <c r="AV36" s="68"/>
-      <c r="AW36" s="68"/>
-      <c r="AX36" s="68"/>
-      <c r="AY36" s="68"/>
-      <c r="AZ36" s="68"/>
-      <c r="BA36" s="68"/>
-      <c r="BB36" s="68"/>
-      <c r="BC36" s="68"/>
-      <c r="BD36" s="68"/>
-      <c r="BE36" s="68"/>
-      <c r="BF36" s="69"/>
+      <c r="AO36" s="74"/>
+      <c r="AP36" s="66"/>
+      <c r="AQ36" s="66"/>
+      <c r="AR36" s="66"/>
+      <c r="AS36" s="66"/>
+      <c r="AT36" s="66"/>
+      <c r="AU36" s="75"/>
+      <c r="AV36" s="75"/>
+      <c r="AW36" s="75"/>
+      <c r="AX36" s="75"/>
+      <c r="AY36" s="75"/>
+      <c r="AZ36" s="75"/>
+      <c r="BA36" s="75"/>
+      <c r="BB36" s="75"/>
+      <c r="BC36" s="75"/>
+      <c r="BD36" s="75"/>
+      <c r="BE36" s="75"/>
+      <c r="BF36" s="76"/>
     </row>
     <row r="37" spans="1:58">
       <c r="A37" s="2"/>
       <c r="AN37" s="3"/>
-      <c r="AO37" s="67"/>
-      <c r="AP37" s="57"/>
-      <c r="AQ37" s="57"/>
-      <c r="AR37" s="57"/>
-      <c r="AS37" s="57"/>
-      <c r="AT37" s="57"/>
-      <c r="AU37" s="68"/>
-      <c r="AV37" s="68"/>
-      <c r="AW37" s="68"/>
-      <c r="AX37" s="68"/>
-      <c r="AY37" s="68"/>
-      <c r="AZ37" s="68"/>
-      <c r="BA37" s="68"/>
-      <c r="BB37" s="68"/>
-      <c r="BC37" s="68"/>
-      <c r="BD37" s="68"/>
-      <c r="BE37" s="68"/>
-      <c r="BF37" s="69"/>
+      <c r="AO37" s="74"/>
+      <c r="AP37" s="66"/>
+      <c r="AQ37" s="66"/>
+      <c r="AR37" s="66"/>
+      <c r="AS37" s="66"/>
+      <c r="AT37" s="66"/>
+      <c r="AU37" s="75"/>
+      <c r="AV37" s="75"/>
+      <c r="AW37" s="75"/>
+      <c r="AX37" s="75"/>
+      <c r="AY37" s="75"/>
+      <c r="AZ37" s="75"/>
+      <c r="BA37" s="75"/>
+      <c r="BB37" s="75"/>
+      <c r="BC37" s="75"/>
+      <c r="BD37" s="75"/>
+      <c r="BE37" s="75"/>
+      <c r="BF37" s="76"/>
     </row>
     <row r="38" spans="1:58">
       <c r="A38" s="2"/>
       <c r="AN38" s="3"/>
-      <c r="AO38" s="67"/>
-      <c r="AP38" s="57"/>
-      <c r="AQ38" s="57"/>
-      <c r="AR38" s="57"/>
-      <c r="AS38" s="57"/>
-      <c r="AT38" s="57"/>
-      <c r="AU38" s="68"/>
-      <c r="AV38" s="68"/>
-      <c r="AW38" s="68"/>
-      <c r="AX38" s="68"/>
-      <c r="AY38" s="68"/>
-      <c r="AZ38" s="68"/>
-      <c r="BA38" s="68"/>
-      <c r="BB38" s="68"/>
-      <c r="BC38" s="68"/>
-      <c r="BD38" s="68"/>
-      <c r="BE38" s="68"/>
-      <c r="BF38" s="69"/>
+      <c r="AO38" s="74"/>
+      <c r="AP38" s="66"/>
+      <c r="AQ38" s="66"/>
+      <c r="AR38" s="66"/>
+      <c r="AS38" s="66"/>
+      <c r="AT38" s="66"/>
+      <c r="AU38" s="75"/>
+      <c r="AV38" s="75"/>
+      <c r="AW38" s="75"/>
+      <c r="AX38" s="75"/>
+      <c r="AY38" s="75"/>
+      <c r="AZ38" s="75"/>
+      <c r="BA38" s="75"/>
+      <c r="BB38" s="75"/>
+      <c r="BC38" s="75"/>
+      <c r="BD38" s="75"/>
+      <c r="BE38" s="75"/>
+      <c r="BF38" s="76"/>
     </row>
     <row r="39" spans="1:58">
       <c r="A39" s="2"/>
       <c r="AN39" s="3"/>
-      <c r="AO39" s="67"/>
-      <c r="AP39" s="57"/>
-      <c r="AQ39" s="57"/>
-      <c r="AR39" s="57"/>
-      <c r="AS39" s="57"/>
-      <c r="AT39" s="57"/>
-      <c r="AU39" s="68"/>
-      <c r="AV39" s="68"/>
-      <c r="AW39" s="68"/>
-      <c r="AX39" s="68"/>
-      <c r="AY39" s="68"/>
-      <c r="AZ39" s="68"/>
-      <c r="BA39" s="68"/>
-      <c r="BB39" s="68"/>
-      <c r="BC39" s="68"/>
-      <c r="BD39" s="68"/>
-      <c r="BE39" s="68"/>
-      <c r="BF39" s="69"/>
+      <c r="AO39" s="74"/>
+      <c r="AP39" s="66"/>
+      <c r="AQ39" s="66"/>
+      <c r="AR39" s="66"/>
+      <c r="AS39" s="66"/>
+      <c r="AT39" s="66"/>
+      <c r="AU39" s="75"/>
+      <c r="AV39" s="75"/>
+      <c r="AW39" s="75"/>
+      <c r="AX39" s="75"/>
+      <c r="AY39" s="75"/>
+      <c r="AZ39" s="75"/>
+      <c r="BA39" s="75"/>
+      <c r="BB39" s="75"/>
+      <c r="BC39" s="75"/>
+      <c r="BD39" s="75"/>
+      <c r="BE39" s="75"/>
+      <c r="BF39" s="76"/>
     </row>
     <row r="40" spans="1:58">
       <c r="A40" s="2"/>
@@ -4239,688 +4249,688 @@
       <c r="BF49" s="6"/>
     </row>
     <row r="50" spans="1:58">
-      <c r="AO50" s="67"/>
-      <c r="AP50" s="57"/>
-      <c r="AQ50" s="57"/>
-      <c r="AR50" s="57"/>
-      <c r="AS50" s="57"/>
-      <c r="AT50" s="57"/>
-      <c r="AU50" s="68"/>
-      <c r="AV50" s="68"/>
-      <c r="AW50" s="68"/>
-      <c r="AX50" s="68"/>
-      <c r="AY50" s="68"/>
-      <c r="AZ50" s="68"/>
-      <c r="BA50" s="68"/>
-      <c r="BB50" s="68"/>
-      <c r="BC50" s="68"/>
-      <c r="BD50" s="68"/>
-      <c r="BE50" s="68"/>
-      <c r="BF50" s="69"/>
+      <c r="AO50" s="74"/>
+      <c r="AP50" s="66"/>
+      <c r="AQ50" s="66"/>
+      <c r="AR50" s="66"/>
+      <c r="AS50" s="66"/>
+      <c r="AT50" s="66"/>
+      <c r="AU50" s="75"/>
+      <c r="AV50" s="75"/>
+      <c r="AW50" s="75"/>
+      <c r="AX50" s="75"/>
+      <c r="AY50" s="75"/>
+      <c r="AZ50" s="75"/>
+      <c r="BA50" s="75"/>
+      <c r="BB50" s="75"/>
+      <c r="BC50" s="75"/>
+      <c r="BD50" s="75"/>
+      <c r="BE50" s="75"/>
+      <c r="BF50" s="76"/>
     </row>
     <row r="51" spans="1:58">
-      <c r="AO51" s="67"/>
-      <c r="AP51" s="57"/>
-      <c r="AQ51" s="57"/>
-      <c r="AR51" s="57"/>
-      <c r="AS51" s="57"/>
-      <c r="AT51" s="57"/>
-      <c r="AU51" s="68"/>
-      <c r="AV51" s="68"/>
-      <c r="AW51" s="68"/>
-      <c r="AX51" s="68"/>
-      <c r="AY51" s="68"/>
-      <c r="AZ51" s="68"/>
-      <c r="BA51" s="68"/>
-      <c r="BB51" s="68"/>
-      <c r="BC51" s="68"/>
-      <c r="BD51" s="68"/>
-      <c r="BE51" s="68"/>
-      <c r="BF51" s="69"/>
+      <c r="AO51" s="74"/>
+      <c r="AP51" s="66"/>
+      <c r="AQ51" s="66"/>
+      <c r="AR51" s="66"/>
+      <c r="AS51" s="66"/>
+      <c r="AT51" s="66"/>
+      <c r="AU51" s="75"/>
+      <c r="AV51" s="75"/>
+      <c r="AW51" s="75"/>
+      <c r="AX51" s="75"/>
+      <c r="AY51" s="75"/>
+      <c r="AZ51" s="75"/>
+      <c r="BA51" s="75"/>
+      <c r="BB51" s="75"/>
+      <c r="BC51" s="75"/>
+      <c r="BD51" s="75"/>
+      <c r="BE51" s="75"/>
+      <c r="BF51" s="76"/>
     </row>
     <row r="52" spans="1:58">
-      <c r="AO52" s="67"/>
-      <c r="AP52" s="57"/>
-      <c r="AQ52" s="57"/>
-      <c r="AR52" s="57"/>
-      <c r="AS52" s="57"/>
-      <c r="AT52" s="57"/>
-      <c r="AU52" s="68"/>
-      <c r="AV52" s="68"/>
-      <c r="AW52" s="68"/>
-      <c r="AX52" s="68"/>
-      <c r="AY52" s="68"/>
-      <c r="AZ52" s="68"/>
-      <c r="BA52" s="68"/>
-      <c r="BB52" s="68"/>
-      <c r="BC52" s="68"/>
-      <c r="BD52" s="68"/>
-      <c r="BE52" s="68"/>
-      <c r="BF52" s="69"/>
+      <c r="AO52" s="74"/>
+      <c r="AP52" s="66"/>
+      <c r="AQ52" s="66"/>
+      <c r="AR52" s="66"/>
+      <c r="AS52" s="66"/>
+      <c r="AT52" s="66"/>
+      <c r="AU52" s="75"/>
+      <c r="AV52" s="75"/>
+      <c r="AW52" s="75"/>
+      <c r="AX52" s="75"/>
+      <c r="AY52" s="75"/>
+      <c r="AZ52" s="75"/>
+      <c r="BA52" s="75"/>
+      <c r="BB52" s="75"/>
+      <c r="BC52" s="75"/>
+      <c r="BD52" s="75"/>
+      <c r="BE52" s="75"/>
+      <c r="BF52" s="76"/>
     </row>
     <row r="53" spans="1:58">
-      <c r="AO53" s="67"/>
-      <c r="AP53" s="57"/>
-      <c r="AQ53" s="57"/>
-      <c r="AR53" s="57"/>
-      <c r="AS53" s="57"/>
-      <c r="AT53" s="57"/>
-      <c r="AU53" s="68"/>
-      <c r="AV53" s="68"/>
-      <c r="AW53" s="68"/>
-      <c r="AX53" s="68"/>
-      <c r="AY53" s="68"/>
-      <c r="AZ53" s="68"/>
-      <c r="BA53" s="68"/>
-      <c r="BB53" s="68"/>
-      <c r="BC53" s="68"/>
-      <c r="BD53" s="68"/>
-      <c r="BE53" s="68"/>
-      <c r="BF53" s="69"/>
+      <c r="AO53" s="74"/>
+      <c r="AP53" s="66"/>
+      <c r="AQ53" s="66"/>
+      <c r="AR53" s="66"/>
+      <c r="AS53" s="66"/>
+      <c r="AT53" s="66"/>
+      <c r="AU53" s="75"/>
+      <c r="AV53" s="75"/>
+      <c r="AW53" s="75"/>
+      <c r="AX53" s="75"/>
+      <c r="AY53" s="75"/>
+      <c r="AZ53" s="75"/>
+      <c r="BA53" s="75"/>
+      <c r="BB53" s="75"/>
+      <c r="BC53" s="75"/>
+      <c r="BD53" s="75"/>
+      <c r="BE53" s="75"/>
+      <c r="BF53" s="76"/>
     </row>
     <row r="54" spans="1:58">
-      <c r="AO54" s="67"/>
-      <c r="AP54" s="57"/>
-      <c r="AQ54" s="57"/>
-      <c r="AR54" s="57"/>
-      <c r="AS54" s="57"/>
-      <c r="AT54" s="57"/>
-      <c r="AU54" s="68"/>
-      <c r="AV54" s="68"/>
-      <c r="AW54" s="68"/>
-      <c r="AX54" s="68"/>
-      <c r="AY54" s="68"/>
-      <c r="AZ54" s="68"/>
-      <c r="BA54" s="68"/>
-      <c r="BB54" s="68"/>
-      <c r="BC54" s="68"/>
-      <c r="BD54" s="68"/>
-      <c r="BE54" s="68"/>
-      <c r="BF54" s="69"/>
+      <c r="AO54" s="74"/>
+      <c r="AP54" s="66"/>
+      <c r="AQ54" s="66"/>
+      <c r="AR54" s="66"/>
+      <c r="AS54" s="66"/>
+      <c r="AT54" s="66"/>
+      <c r="AU54" s="75"/>
+      <c r="AV54" s="75"/>
+      <c r="AW54" s="75"/>
+      <c r="AX54" s="75"/>
+      <c r="AY54" s="75"/>
+      <c r="AZ54" s="75"/>
+      <c r="BA54" s="75"/>
+      <c r="BB54" s="75"/>
+      <c r="BC54" s="75"/>
+      <c r="BD54" s="75"/>
+      <c r="BE54" s="75"/>
+      <c r="BF54" s="76"/>
     </row>
     <row r="55" spans="1:58">
-      <c r="AO55" s="67"/>
-      <c r="AP55" s="57"/>
-      <c r="AQ55" s="57"/>
-      <c r="AR55" s="57"/>
-      <c r="AS55" s="57"/>
-      <c r="AT55" s="57"/>
-      <c r="AU55" s="68"/>
-      <c r="AV55" s="68"/>
-      <c r="AW55" s="68"/>
-      <c r="AX55" s="68"/>
-      <c r="AY55" s="68"/>
-      <c r="AZ55" s="68"/>
-      <c r="BA55" s="68"/>
-      <c r="BB55" s="68"/>
-      <c r="BC55" s="68"/>
-      <c r="BD55" s="68"/>
-      <c r="BE55" s="68"/>
-      <c r="BF55" s="69"/>
+      <c r="AO55" s="74"/>
+      <c r="AP55" s="66"/>
+      <c r="AQ55" s="66"/>
+      <c r="AR55" s="66"/>
+      <c r="AS55" s="66"/>
+      <c r="AT55" s="66"/>
+      <c r="AU55" s="75"/>
+      <c r="AV55" s="75"/>
+      <c r="AW55" s="75"/>
+      <c r="AX55" s="75"/>
+      <c r="AY55" s="75"/>
+      <c r="AZ55" s="75"/>
+      <c r="BA55" s="75"/>
+      <c r="BB55" s="75"/>
+      <c r="BC55" s="75"/>
+      <c r="BD55" s="75"/>
+      <c r="BE55" s="75"/>
+      <c r="BF55" s="76"/>
     </row>
     <row r="56" spans="1:58">
-      <c r="AO56" s="70"/>
-      <c r="AP56" s="71"/>
-      <c r="AQ56" s="71"/>
-      <c r="AR56" s="71"/>
-      <c r="AS56" s="71"/>
-      <c r="AT56" s="71"/>
-      <c r="AU56" s="71"/>
-      <c r="AV56" s="71"/>
-      <c r="AW56" s="71"/>
-      <c r="AX56" s="71"/>
-      <c r="AY56" s="71"/>
-      <c r="AZ56" s="71"/>
-      <c r="BA56" s="71"/>
-      <c r="BB56" s="71"/>
-      <c r="BC56" s="71"/>
-      <c r="BD56" s="71"/>
-      <c r="BE56" s="71"/>
-      <c r="BF56" s="74"/>
+      <c r="AO56" s="77"/>
+      <c r="AP56" s="78"/>
+      <c r="AQ56" s="78"/>
+      <c r="AR56" s="78"/>
+      <c r="AS56" s="78"/>
+      <c r="AT56" s="78"/>
+      <c r="AU56" s="78"/>
+      <c r="AV56" s="78"/>
+      <c r="AW56" s="78"/>
+      <c r="AX56" s="78"/>
+      <c r="AY56" s="78"/>
+      <c r="AZ56" s="78"/>
+      <c r="BA56" s="78"/>
+      <c r="BB56" s="78"/>
+      <c r="BC56" s="78"/>
+      <c r="BD56" s="78"/>
+      <c r="BE56" s="78"/>
+      <c r="BF56" s="81"/>
     </row>
     <row r="57" spans="1:58">
-      <c r="AO57" s="72"/>
-      <c r="AP57" s="73"/>
-      <c r="AQ57" s="73"/>
-      <c r="AR57" s="73"/>
-      <c r="AS57" s="73"/>
-      <c r="AT57" s="73"/>
-      <c r="AU57" s="73"/>
-      <c r="AV57" s="73"/>
-      <c r="AW57" s="73"/>
-      <c r="AX57" s="73"/>
-      <c r="AY57" s="73"/>
-      <c r="AZ57" s="73"/>
-      <c r="BA57" s="73"/>
-      <c r="BB57" s="73"/>
-      <c r="BC57" s="73"/>
-      <c r="BD57" s="73"/>
-      <c r="BE57" s="73"/>
-      <c r="BF57" s="75"/>
+      <c r="AO57" s="79"/>
+      <c r="AP57" s="80"/>
+      <c r="AQ57" s="80"/>
+      <c r="AR57" s="80"/>
+      <c r="AS57" s="80"/>
+      <c r="AT57" s="80"/>
+      <c r="AU57" s="80"/>
+      <c r="AV57" s="80"/>
+      <c r="AW57" s="80"/>
+      <c r="AX57" s="80"/>
+      <c r="AY57" s="80"/>
+      <c r="AZ57" s="80"/>
+      <c r="BA57" s="80"/>
+      <c r="BB57" s="80"/>
+      <c r="BC57" s="80"/>
+      <c r="BD57" s="80"/>
+      <c r="BE57" s="80"/>
+      <c r="BF57" s="82"/>
     </row>
     <row r="58" spans="1:58">
-      <c r="AO58" s="67"/>
-      <c r="AP58" s="57"/>
-      <c r="AQ58" s="57"/>
-      <c r="AR58" s="57"/>
-      <c r="AS58" s="57"/>
-      <c r="AT58" s="57"/>
-      <c r="AU58" s="68"/>
-      <c r="AV58" s="68"/>
-      <c r="AW58" s="68"/>
-      <c r="AX58" s="68"/>
-      <c r="AY58" s="68"/>
-      <c r="AZ58" s="68"/>
-      <c r="BA58" s="68"/>
-      <c r="BB58" s="68"/>
-      <c r="BC58" s="68"/>
-      <c r="BD58" s="68"/>
-      <c r="BE58" s="68"/>
-      <c r="BF58" s="69"/>
+      <c r="AO58" s="74"/>
+      <c r="AP58" s="66"/>
+      <c r="AQ58" s="66"/>
+      <c r="AR58" s="66"/>
+      <c r="AS58" s="66"/>
+      <c r="AT58" s="66"/>
+      <c r="AU58" s="75"/>
+      <c r="AV58" s="75"/>
+      <c r="AW58" s="75"/>
+      <c r="AX58" s="75"/>
+      <c r="AY58" s="75"/>
+      <c r="AZ58" s="75"/>
+      <c r="BA58" s="75"/>
+      <c r="BB58" s="75"/>
+      <c r="BC58" s="75"/>
+      <c r="BD58" s="75"/>
+      <c r="BE58" s="75"/>
+      <c r="BF58" s="76"/>
     </row>
     <row r="59" spans="1:58">
-      <c r="AO59" s="67"/>
-      <c r="AP59" s="57"/>
-      <c r="AQ59" s="57"/>
-      <c r="AR59" s="57"/>
-      <c r="AS59" s="57"/>
-      <c r="AT59" s="57"/>
-      <c r="AU59" s="68"/>
-      <c r="AV59" s="68"/>
-      <c r="AW59" s="68"/>
-      <c r="AX59" s="68"/>
-      <c r="AY59" s="68"/>
-      <c r="AZ59" s="68"/>
-      <c r="BA59" s="68"/>
-      <c r="BB59" s="68"/>
-      <c r="BC59" s="68"/>
-      <c r="BD59" s="68"/>
-      <c r="BE59" s="68"/>
-      <c r="BF59" s="69"/>
+      <c r="AO59" s="74"/>
+      <c r="AP59" s="66"/>
+      <c r="AQ59" s="66"/>
+      <c r="AR59" s="66"/>
+      <c r="AS59" s="66"/>
+      <c r="AT59" s="66"/>
+      <c r="AU59" s="75"/>
+      <c r="AV59" s="75"/>
+      <c r="AW59" s="75"/>
+      <c r="AX59" s="75"/>
+      <c r="AY59" s="75"/>
+      <c r="AZ59" s="75"/>
+      <c r="BA59" s="75"/>
+      <c r="BB59" s="75"/>
+      <c r="BC59" s="75"/>
+      <c r="BD59" s="75"/>
+      <c r="BE59" s="75"/>
+      <c r="BF59" s="76"/>
     </row>
     <row r="60" spans="1:58">
-      <c r="AO60" s="67"/>
-      <c r="AP60" s="57"/>
-      <c r="AQ60" s="57"/>
-      <c r="AR60" s="57"/>
-      <c r="AS60" s="57"/>
-      <c r="AT60" s="57"/>
-      <c r="AU60" s="68"/>
-      <c r="AV60" s="68"/>
-      <c r="AW60" s="68"/>
-      <c r="AX60" s="68"/>
-      <c r="AY60" s="68"/>
-      <c r="AZ60" s="68"/>
-      <c r="BA60" s="68"/>
-      <c r="BB60" s="68"/>
-      <c r="BC60" s="68"/>
-      <c r="BD60" s="68"/>
-      <c r="BE60" s="68"/>
-      <c r="BF60" s="69"/>
+      <c r="AO60" s="74"/>
+      <c r="AP60" s="66"/>
+      <c r="AQ60" s="66"/>
+      <c r="AR60" s="66"/>
+      <c r="AS60" s="66"/>
+      <c r="AT60" s="66"/>
+      <c r="AU60" s="75"/>
+      <c r="AV60" s="75"/>
+      <c r="AW60" s="75"/>
+      <c r="AX60" s="75"/>
+      <c r="AY60" s="75"/>
+      <c r="AZ60" s="75"/>
+      <c r="BA60" s="75"/>
+      <c r="BB60" s="75"/>
+      <c r="BC60" s="75"/>
+      <c r="BD60" s="75"/>
+      <c r="BE60" s="75"/>
+      <c r="BF60" s="76"/>
     </row>
     <row r="61" spans="1:58">
-      <c r="AO61" s="67"/>
-      <c r="AP61" s="57"/>
-      <c r="AQ61" s="57"/>
-      <c r="AR61" s="57"/>
-      <c r="AS61" s="57"/>
-      <c r="AT61" s="57"/>
-      <c r="AU61" s="68"/>
-      <c r="AV61" s="68"/>
-      <c r="AW61" s="68"/>
-      <c r="AX61" s="68"/>
-      <c r="AY61" s="68"/>
-      <c r="AZ61" s="68"/>
-      <c r="BA61" s="68"/>
-      <c r="BB61" s="68"/>
-      <c r="BC61" s="68"/>
-      <c r="BD61" s="68"/>
-      <c r="BE61" s="68"/>
-      <c r="BF61" s="69"/>
+      <c r="AO61" s="74"/>
+      <c r="AP61" s="66"/>
+      <c r="AQ61" s="66"/>
+      <c r="AR61" s="66"/>
+      <c r="AS61" s="66"/>
+      <c r="AT61" s="66"/>
+      <c r="AU61" s="75"/>
+      <c r="AV61" s="75"/>
+      <c r="AW61" s="75"/>
+      <c r="AX61" s="75"/>
+      <c r="AY61" s="75"/>
+      <c r="AZ61" s="75"/>
+      <c r="BA61" s="75"/>
+      <c r="BB61" s="75"/>
+      <c r="BC61" s="75"/>
+      <c r="BD61" s="75"/>
+      <c r="BE61" s="75"/>
+      <c r="BF61" s="76"/>
     </row>
     <row r="62" spans="1:58">
-      <c r="AO62" s="67"/>
-      <c r="AP62" s="57"/>
-      <c r="AQ62" s="57"/>
-      <c r="AR62" s="57"/>
-      <c r="AS62" s="57"/>
-      <c r="AT62" s="57"/>
-      <c r="AU62" s="68"/>
-      <c r="AV62" s="68"/>
-      <c r="AW62" s="68"/>
-      <c r="AX62" s="68"/>
-      <c r="AY62" s="68"/>
-      <c r="AZ62" s="68"/>
-      <c r="BA62" s="68"/>
-      <c r="BB62" s="68"/>
-      <c r="BC62" s="68"/>
-      <c r="BD62" s="68"/>
-      <c r="BE62" s="68"/>
-      <c r="BF62" s="69"/>
+      <c r="AO62" s="74"/>
+      <c r="AP62" s="66"/>
+      <c r="AQ62" s="66"/>
+      <c r="AR62" s="66"/>
+      <c r="AS62" s="66"/>
+      <c r="AT62" s="66"/>
+      <c r="AU62" s="75"/>
+      <c r="AV62" s="75"/>
+      <c r="AW62" s="75"/>
+      <c r="AX62" s="75"/>
+      <c r="AY62" s="75"/>
+      <c r="AZ62" s="75"/>
+      <c r="BA62" s="75"/>
+      <c r="BB62" s="75"/>
+      <c r="BC62" s="75"/>
+      <c r="BD62" s="75"/>
+      <c r="BE62" s="75"/>
+      <c r="BF62" s="76"/>
     </row>
     <row r="63" spans="1:58">
-      <c r="AO63" s="67"/>
-      <c r="AP63" s="57"/>
-      <c r="AQ63" s="57"/>
-      <c r="AR63" s="57"/>
-      <c r="AS63" s="57"/>
-      <c r="AT63" s="57"/>
-      <c r="AU63" s="68"/>
-      <c r="AV63" s="68"/>
-      <c r="AW63" s="68"/>
-      <c r="AX63" s="68"/>
-      <c r="AY63" s="68"/>
-      <c r="AZ63" s="68"/>
-      <c r="BA63" s="68"/>
-      <c r="BB63" s="68"/>
-      <c r="BC63" s="68"/>
-      <c r="BD63" s="68"/>
-      <c r="BE63" s="68"/>
-      <c r="BF63" s="69"/>
+      <c r="AO63" s="74"/>
+      <c r="AP63" s="66"/>
+      <c r="AQ63" s="66"/>
+      <c r="AR63" s="66"/>
+      <c r="AS63" s="66"/>
+      <c r="AT63" s="66"/>
+      <c r="AU63" s="75"/>
+      <c r="AV63" s="75"/>
+      <c r="AW63" s="75"/>
+      <c r="AX63" s="75"/>
+      <c r="AY63" s="75"/>
+      <c r="AZ63" s="75"/>
+      <c r="BA63" s="75"/>
+      <c r="BB63" s="75"/>
+      <c r="BC63" s="75"/>
+      <c r="BD63" s="75"/>
+      <c r="BE63" s="75"/>
+      <c r="BF63" s="76"/>
     </row>
     <row r="64" spans="1:58">
-      <c r="AO64" s="67"/>
-      <c r="AP64" s="57"/>
-      <c r="AQ64" s="57"/>
-      <c r="AR64" s="57"/>
-      <c r="AS64" s="57"/>
-      <c r="AT64" s="57"/>
-      <c r="AU64" s="68"/>
-      <c r="AV64" s="68"/>
-      <c r="AW64" s="68"/>
-      <c r="AX64" s="68"/>
-      <c r="AY64" s="68"/>
-      <c r="AZ64" s="68"/>
-      <c r="BA64" s="68"/>
-      <c r="BB64" s="68"/>
-      <c r="BC64" s="68"/>
-      <c r="BD64" s="68"/>
-      <c r="BE64" s="68"/>
-      <c r="BF64" s="69"/>
+      <c r="AO64" s="74"/>
+      <c r="AP64" s="66"/>
+      <c r="AQ64" s="66"/>
+      <c r="AR64" s="66"/>
+      <c r="AS64" s="66"/>
+      <c r="AT64" s="66"/>
+      <c r="AU64" s="75"/>
+      <c r="AV64" s="75"/>
+      <c r="AW64" s="75"/>
+      <c r="AX64" s="75"/>
+      <c r="AY64" s="75"/>
+      <c r="AZ64" s="75"/>
+      <c r="BA64" s="75"/>
+      <c r="BB64" s="75"/>
+      <c r="BC64" s="75"/>
+      <c r="BD64" s="75"/>
+      <c r="BE64" s="75"/>
+      <c r="BF64" s="76"/>
     </row>
     <row r="65" spans="41:58">
-      <c r="AO65" s="67"/>
-      <c r="AP65" s="57"/>
-      <c r="AQ65" s="57"/>
-      <c r="AR65" s="57"/>
-      <c r="AS65" s="57"/>
-      <c r="AT65" s="57"/>
-      <c r="AU65" s="68"/>
-      <c r="AV65" s="68"/>
-      <c r="AW65" s="68"/>
-      <c r="AX65" s="68"/>
-      <c r="AY65" s="68"/>
-      <c r="AZ65" s="68"/>
-      <c r="BA65" s="68"/>
-      <c r="BB65" s="68"/>
-      <c r="BC65" s="68"/>
-      <c r="BD65" s="68"/>
-      <c r="BE65" s="68"/>
-      <c r="BF65" s="69"/>
+      <c r="AO65" s="74"/>
+      <c r="AP65" s="66"/>
+      <c r="AQ65" s="66"/>
+      <c r="AR65" s="66"/>
+      <c r="AS65" s="66"/>
+      <c r="AT65" s="66"/>
+      <c r="AU65" s="75"/>
+      <c r="AV65" s="75"/>
+      <c r="AW65" s="75"/>
+      <c r="AX65" s="75"/>
+      <c r="AY65" s="75"/>
+      <c r="AZ65" s="75"/>
+      <c r="BA65" s="75"/>
+      <c r="BB65" s="75"/>
+      <c r="BC65" s="75"/>
+      <c r="BD65" s="75"/>
+      <c r="BE65" s="75"/>
+      <c r="BF65" s="76"/>
     </row>
     <row r="66" spans="41:58">
-      <c r="AO66" s="67"/>
-      <c r="AP66" s="57"/>
-      <c r="AQ66" s="57"/>
-      <c r="AR66" s="57"/>
-      <c r="AS66" s="57"/>
-      <c r="AT66" s="57"/>
-      <c r="AU66" s="68"/>
-      <c r="AV66" s="68"/>
-      <c r="AW66" s="68"/>
-      <c r="AX66" s="68"/>
-      <c r="AY66" s="68"/>
-      <c r="AZ66" s="68"/>
-      <c r="BA66" s="68"/>
-      <c r="BB66" s="68"/>
-      <c r="BC66" s="68"/>
-      <c r="BD66" s="68"/>
-      <c r="BE66" s="68"/>
-      <c r="BF66" s="69"/>
+      <c r="AO66" s="74"/>
+      <c r="AP66" s="66"/>
+      <c r="AQ66" s="66"/>
+      <c r="AR66" s="66"/>
+      <c r="AS66" s="66"/>
+      <c r="AT66" s="66"/>
+      <c r="AU66" s="75"/>
+      <c r="AV66" s="75"/>
+      <c r="AW66" s="75"/>
+      <c r="AX66" s="75"/>
+      <c r="AY66" s="75"/>
+      <c r="AZ66" s="75"/>
+      <c r="BA66" s="75"/>
+      <c r="BB66" s="75"/>
+      <c r="BC66" s="75"/>
+      <c r="BD66" s="75"/>
+      <c r="BE66" s="75"/>
+      <c r="BF66" s="76"/>
     </row>
     <row r="67" spans="41:58">
-      <c r="AO67" s="67"/>
-      <c r="AP67" s="57"/>
-      <c r="AQ67" s="57"/>
-      <c r="AR67" s="57"/>
-      <c r="AS67" s="57"/>
-      <c r="AT67" s="57"/>
-      <c r="AU67" s="68"/>
-      <c r="AV67" s="68"/>
-      <c r="AW67" s="68"/>
-      <c r="AX67" s="68"/>
-      <c r="AY67" s="68"/>
-      <c r="AZ67" s="68"/>
-      <c r="BA67" s="68"/>
-      <c r="BB67" s="68"/>
-      <c r="BC67" s="68"/>
-      <c r="BD67" s="68"/>
-      <c r="BE67" s="68"/>
-      <c r="BF67" s="69"/>
+      <c r="AO67" s="74"/>
+      <c r="AP67" s="66"/>
+      <c r="AQ67" s="66"/>
+      <c r="AR67" s="66"/>
+      <c r="AS67" s="66"/>
+      <c r="AT67" s="66"/>
+      <c r="AU67" s="75"/>
+      <c r="AV67" s="75"/>
+      <c r="AW67" s="75"/>
+      <c r="AX67" s="75"/>
+      <c r="AY67" s="75"/>
+      <c r="AZ67" s="75"/>
+      <c r="BA67" s="75"/>
+      <c r="BB67" s="75"/>
+      <c r="BC67" s="75"/>
+      <c r="BD67" s="75"/>
+      <c r="BE67" s="75"/>
+      <c r="BF67" s="76"/>
     </row>
     <row r="68" spans="41:58">
       <c r="AO68" s="2"/>
       <c r="BF68" s="3"/>
     </row>
     <row r="69" spans="41:58">
-      <c r="AO69" s="67"/>
-      <c r="AP69" s="57"/>
-      <c r="AQ69" s="57"/>
-      <c r="AR69" s="57"/>
-      <c r="AS69" s="57"/>
-      <c r="AT69" s="57"/>
-      <c r="AU69" s="68"/>
-      <c r="AV69" s="68"/>
-      <c r="AW69" s="68"/>
-      <c r="AX69" s="68"/>
-      <c r="AY69" s="68"/>
-      <c r="AZ69" s="68"/>
-      <c r="BA69" s="68"/>
-      <c r="BB69" s="68"/>
-      <c r="BC69" s="68"/>
-      <c r="BD69" s="68"/>
-      <c r="BE69" s="68"/>
-      <c r="BF69" s="69"/>
+      <c r="AO69" s="74"/>
+      <c r="AP69" s="66"/>
+      <c r="AQ69" s="66"/>
+      <c r="AR69" s="66"/>
+      <c r="AS69" s="66"/>
+      <c r="AT69" s="66"/>
+      <c r="AU69" s="75"/>
+      <c r="AV69" s="75"/>
+      <c r="AW69" s="75"/>
+      <c r="AX69" s="75"/>
+      <c r="AY69" s="75"/>
+      <c r="AZ69" s="75"/>
+      <c r="BA69" s="75"/>
+      <c r="BB69" s="75"/>
+      <c r="BC69" s="75"/>
+      <c r="BD69" s="75"/>
+      <c r="BE69" s="75"/>
+      <c r="BF69" s="76"/>
     </row>
     <row r="70" spans="41:58">
-      <c r="AO70" s="67"/>
-      <c r="AP70" s="57"/>
-      <c r="AQ70" s="57"/>
-      <c r="AR70" s="57"/>
-      <c r="AS70" s="57"/>
-      <c r="AT70" s="57"/>
-      <c r="AU70" s="68"/>
-      <c r="AV70" s="68"/>
-      <c r="AW70" s="68"/>
-      <c r="AX70" s="68"/>
-      <c r="AY70" s="68"/>
-      <c r="AZ70" s="68"/>
-      <c r="BA70" s="68"/>
-      <c r="BB70" s="68"/>
-      <c r="BC70" s="68"/>
-      <c r="BD70" s="68"/>
-      <c r="BE70" s="68"/>
-      <c r="BF70" s="69"/>
+      <c r="AO70" s="74"/>
+      <c r="AP70" s="66"/>
+      <c r="AQ70" s="66"/>
+      <c r="AR70" s="66"/>
+      <c r="AS70" s="66"/>
+      <c r="AT70" s="66"/>
+      <c r="AU70" s="75"/>
+      <c r="AV70" s="75"/>
+      <c r="AW70" s="75"/>
+      <c r="AX70" s="75"/>
+      <c r="AY70" s="75"/>
+      <c r="AZ70" s="75"/>
+      <c r="BA70" s="75"/>
+      <c r="BB70" s="75"/>
+      <c r="BC70" s="75"/>
+      <c r="BD70" s="75"/>
+      <c r="BE70" s="75"/>
+      <c r="BF70" s="76"/>
     </row>
     <row r="71" spans="41:58">
-      <c r="AO71" s="67"/>
-      <c r="AP71" s="57"/>
-      <c r="AQ71" s="57"/>
-      <c r="AR71" s="57"/>
-      <c r="AS71" s="57"/>
-      <c r="AT71" s="57"/>
-      <c r="AU71" s="68"/>
-      <c r="AV71" s="68"/>
-      <c r="AW71" s="68"/>
-      <c r="AX71" s="68"/>
-      <c r="AY71" s="68"/>
-      <c r="AZ71" s="68"/>
-      <c r="BA71" s="68"/>
-      <c r="BB71" s="68"/>
-      <c r="BC71" s="68"/>
-      <c r="BD71" s="68"/>
-      <c r="BE71" s="68"/>
-      <c r="BF71" s="69"/>
+      <c r="AO71" s="74"/>
+      <c r="AP71" s="66"/>
+      <c r="AQ71" s="66"/>
+      <c r="AR71" s="66"/>
+      <c r="AS71" s="66"/>
+      <c r="AT71" s="66"/>
+      <c r="AU71" s="75"/>
+      <c r="AV71" s="75"/>
+      <c r="AW71" s="75"/>
+      <c r="AX71" s="75"/>
+      <c r="AY71" s="75"/>
+      <c r="AZ71" s="75"/>
+      <c r="BA71" s="75"/>
+      <c r="BB71" s="75"/>
+      <c r="BC71" s="75"/>
+      <c r="BD71" s="75"/>
+      <c r="BE71" s="75"/>
+      <c r="BF71" s="76"/>
     </row>
     <row r="72" spans="41:58">
-      <c r="AO72" s="67"/>
-      <c r="AP72" s="57"/>
-      <c r="AQ72" s="57"/>
-      <c r="AR72" s="57"/>
-      <c r="AS72" s="57"/>
-      <c r="AT72" s="57"/>
-      <c r="AU72" s="68"/>
-      <c r="AV72" s="68"/>
-      <c r="AW72" s="68"/>
-      <c r="AX72" s="68"/>
-      <c r="AY72" s="68"/>
-      <c r="AZ72" s="68"/>
-      <c r="BA72" s="68"/>
-      <c r="BB72" s="68"/>
-      <c r="BC72" s="68"/>
-      <c r="BD72" s="68"/>
-      <c r="BE72" s="68"/>
-      <c r="BF72" s="69"/>
+      <c r="AO72" s="74"/>
+      <c r="AP72" s="66"/>
+      <c r="AQ72" s="66"/>
+      <c r="AR72" s="66"/>
+      <c r="AS72" s="66"/>
+      <c r="AT72" s="66"/>
+      <c r="AU72" s="75"/>
+      <c r="AV72" s="75"/>
+      <c r="AW72" s="75"/>
+      <c r="AX72" s="75"/>
+      <c r="AY72" s="75"/>
+      <c r="AZ72" s="75"/>
+      <c r="BA72" s="75"/>
+      <c r="BB72" s="75"/>
+      <c r="BC72" s="75"/>
+      <c r="BD72" s="75"/>
+      <c r="BE72" s="75"/>
+      <c r="BF72" s="76"/>
     </row>
     <row r="73" spans="41:58">
-      <c r="AO73" s="67"/>
-      <c r="AP73" s="57"/>
-      <c r="AQ73" s="57"/>
-      <c r="AR73" s="57"/>
-      <c r="AS73" s="57"/>
-      <c r="AT73" s="57"/>
-      <c r="AU73" s="68"/>
-      <c r="AV73" s="68"/>
-      <c r="AW73" s="68"/>
-      <c r="AX73" s="68"/>
-      <c r="AY73" s="68"/>
-      <c r="AZ73" s="68"/>
-      <c r="BA73" s="68"/>
-      <c r="BB73" s="68"/>
-      <c r="BC73" s="68"/>
-      <c r="BD73" s="68"/>
-      <c r="BE73" s="68"/>
-      <c r="BF73" s="69"/>
+      <c r="AO73" s="74"/>
+      <c r="AP73" s="66"/>
+      <c r="AQ73" s="66"/>
+      <c r="AR73" s="66"/>
+      <c r="AS73" s="66"/>
+      <c r="AT73" s="66"/>
+      <c r="AU73" s="75"/>
+      <c r="AV73" s="75"/>
+      <c r="AW73" s="75"/>
+      <c r="AX73" s="75"/>
+      <c r="AY73" s="75"/>
+      <c r="AZ73" s="75"/>
+      <c r="BA73" s="75"/>
+      <c r="BB73" s="75"/>
+      <c r="BC73" s="75"/>
+      <c r="BD73" s="75"/>
+      <c r="BE73" s="75"/>
+      <c r="BF73" s="76"/>
     </row>
     <row r="74" spans="41:58">
-      <c r="AO74" s="67"/>
-      <c r="AP74" s="57"/>
-      <c r="AQ74" s="57"/>
-      <c r="AR74" s="57"/>
-      <c r="AS74" s="57"/>
-      <c r="AT74" s="57"/>
-      <c r="AU74" s="68"/>
-      <c r="AV74" s="68"/>
-      <c r="AW74" s="68"/>
-      <c r="AX74" s="68"/>
-      <c r="AY74" s="68"/>
-      <c r="AZ74" s="68"/>
-      <c r="BA74" s="68"/>
-      <c r="BB74" s="68"/>
-      <c r="BC74" s="68"/>
-      <c r="BD74" s="68"/>
-      <c r="BE74" s="68"/>
-      <c r="BF74" s="69"/>
+      <c r="AO74" s="74"/>
+      <c r="AP74" s="66"/>
+      <c r="AQ74" s="66"/>
+      <c r="AR74" s="66"/>
+      <c r="AS74" s="66"/>
+      <c r="AT74" s="66"/>
+      <c r="AU74" s="75"/>
+      <c r="AV74" s="75"/>
+      <c r="AW74" s="75"/>
+      <c r="AX74" s="75"/>
+      <c r="AY74" s="75"/>
+      <c r="AZ74" s="75"/>
+      <c r="BA74" s="75"/>
+      <c r="BB74" s="75"/>
+      <c r="BC74" s="75"/>
+      <c r="BD74" s="75"/>
+      <c r="BE74" s="75"/>
+      <c r="BF74" s="76"/>
     </row>
     <row r="75" spans="41:58">
-      <c r="AO75" s="67"/>
-      <c r="AP75" s="57"/>
-      <c r="AQ75" s="57"/>
-      <c r="AR75" s="57"/>
-      <c r="AS75" s="57"/>
-      <c r="AT75" s="57"/>
-      <c r="AU75" s="68"/>
-      <c r="AV75" s="68"/>
-      <c r="AW75" s="68"/>
-      <c r="AX75" s="68"/>
-      <c r="AY75" s="68"/>
-      <c r="AZ75" s="68"/>
-      <c r="BA75" s="68"/>
-      <c r="BB75" s="68"/>
-      <c r="BC75" s="68"/>
-      <c r="BD75" s="68"/>
-      <c r="BE75" s="68"/>
-      <c r="BF75" s="69"/>
+      <c r="AO75" s="74"/>
+      <c r="AP75" s="66"/>
+      <c r="AQ75" s="66"/>
+      <c r="AR75" s="66"/>
+      <c r="AS75" s="66"/>
+      <c r="AT75" s="66"/>
+      <c r="AU75" s="75"/>
+      <c r="AV75" s="75"/>
+      <c r="AW75" s="75"/>
+      <c r="AX75" s="75"/>
+      <c r="AY75" s="75"/>
+      <c r="AZ75" s="75"/>
+      <c r="BA75" s="75"/>
+      <c r="BB75" s="75"/>
+      <c r="BC75" s="75"/>
+      <c r="BD75" s="75"/>
+      <c r="BE75" s="75"/>
+      <c r="BF75" s="76"/>
     </row>
     <row r="76" spans="41:58">
-      <c r="AO76" s="67"/>
-      <c r="AP76" s="57"/>
-      <c r="AQ76" s="57"/>
-      <c r="AR76" s="57"/>
-      <c r="AS76" s="57"/>
-      <c r="AT76" s="57"/>
-      <c r="AU76" s="68"/>
-      <c r="AV76" s="68"/>
-      <c r="AW76" s="68"/>
-      <c r="AX76" s="68"/>
-      <c r="AY76" s="68"/>
-      <c r="AZ76" s="68"/>
-      <c r="BA76" s="68"/>
-      <c r="BB76" s="68"/>
-      <c r="BC76" s="68"/>
-      <c r="BD76" s="68"/>
-      <c r="BE76" s="68"/>
-      <c r="BF76" s="69"/>
+      <c r="AO76" s="74"/>
+      <c r="AP76" s="66"/>
+      <c r="AQ76" s="66"/>
+      <c r="AR76" s="66"/>
+      <c r="AS76" s="66"/>
+      <c r="AT76" s="66"/>
+      <c r="AU76" s="75"/>
+      <c r="AV76" s="75"/>
+      <c r="AW76" s="75"/>
+      <c r="AX76" s="75"/>
+      <c r="AY76" s="75"/>
+      <c r="AZ76" s="75"/>
+      <c r="BA76" s="75"/>
+      <c r="BB76" s="75"/>
+      <c r="BC76" s="75"/>
+      <c r="BD76" s="75"/>
+      <c r="BE76" s="75"/>
+      <c r="BF76" s="76"/>
     </row>
     <row r="77" spans="41:58">
-      <c r="AO77" s="67"/>
-      <c r="AP77" s="57"/>
-      <c r="AQ77" s="57"/>
-      <c r="AR77" s="57"/>
-      <c r="AS77" s="57"/>
-      <c r="AT77" s="57"/>
-      <c r="AU77" s="68"/>
-      <c r="AV77" s="68"/>
-      <c r="AW77" s="68"/>
-      <c r="AX77" s="68"/>
-      <c r="AY77" s="68"/>
-      <c r="AZ77" s="68"/>
-      <c r="BA77" s="68"/>
-      <c r="BB77" s="68"/>
-      <c r="BC77" s="68"/>
-      <c r="BD77" s="68"/>
-      <c r="BE77" s="68"/>
-      <c r="BF77" s="69"/>
+      <c r="AO77" s="74"/>
+      <c r="AP77" s="66"/>
+      <c r="AQ77" s="66"/>
+      <c r="AR77" s="66"/>
+      <c r="AS77" s="66"/>
+      <c r="AT77" s="66"/>
+      <c r="AU77" s="75"/>
+      <c r="AV77" s="75"/>
+      <c r="AW77" s="75"/>
+      <c r="AX77" s="75"/>
+      <c r="AY77" s="75"/>
+      <c r="AZ77" s="75"/>
+      <c r="BA77" s="75"/>
+      <c r="BB77" s="75"/>
+      <c r="BC77" s="75"/>
+      <c r="BD77" s="75"/>
+      <c r="BE77" s="75"/>
+      <c r="BF77" s="76"/>
     </row>
     <row r="78" spans="41:58">
-      <c r="AO78" s="67"/>
-      <c r="AP78" s="57"/>
-      <c r="AQ78" s="57"/>
-      <c r="AR78" s="57"/>
-      <c r="AS78" s="57"/>
-      <c r="AT78" s="57"/>
-      <c r="AU78" s="68"/>
-      <c r="AV78" s="68"/>
-      <c r="AW78" s="68"/>
-      <c r="AX78" s="68"/>
-      <c r="AY78" s="68"/>
-      <c r="AZ78" s="68"/>
-      <c r="BA78" s="68"/>
-      <c r="BB78" s="68"/>
-      <c r="BC78" s="68"/>
-      <c r="BD78" s="68"/>
-      <c r="BE78" s="68"/>
-      <c r="BF78" s="69"/>
+      <c r="AO78" s="74"/>
+      <c r="AP78" s="66"/>
+      <c r="AQ78" s="66"/>
+      <c r="AR78" s="66"/>
+      <c r="AS78" s="66"/>
+      <c r="AT78" s="66"/>
+      <c r="AU78" s="75"/>
+      <c r="AV78" s="75"/>
+      <c r="AW78" s="75"/>
+      <c r="AX78" s="75"/>
+      <c r="AY78" s="75"/>
+      <c r="AZ78" s="75"/>
+      <c r="BA78" s="75"/>
+      <c r="BB78" s="75"/>
+      <c r="BC78" s="75"/>
+      <c r="BD78" s="75"/>
+      <c r="BE78" s="75"/>
+      <c r="BF78" s="76"/>
     </row>
     <row r="79" spans="41:58">
-      <c r="AO79" s="67"/>
-      <c r="AP79" s="57"/>
-      <c r="AQ79" s="57"/>
-      <c r="AR79" s="57"/>
-      <c r="AS79" s="57"/>
-      <c r="AT79" s="57"/>
-      <c r="AU79" s="68"/>
-      <c r="AV79" s="68"/>
-      <c r="AW79" s="68"/>
-      <c r="AX79" s="68"/>
-      <c r="AY79" s="68"/>
-      <c r="AZ79" s="68"/>
-      <c r="BA79" s="68"/>
-      <c r="BB79" s="68"/>
-      <c r="BC79" s="68"/>
-      <c r="BD79" s="68"/>
-      <c r="BE79" s="68"/>
-      <c r="BF79" s="69"/>
+      <c r="AO79" s="74"/>
+      <c r="AP79" s="66"/>
+      <c r="AQ79" s="66"/>
+      <c r="AR79" s="66"/>
+      <c r="AS79" s="66"/>
+      <c r="AT79" s="66"/>
+      <c r="AU79" s="75"/>
+      <c r="AV79" s="75"/>
+      <c r="AW79" s="75"/>
+      <c r="AX79" s="75"/>
+      <c r="AY79" s="75"/>
+      <c r="AZ79" s="75"/>
+      <c r="BA79" s="75"/>
+      <c r="BB79" s="75"/>
+      <c r="BC79" s="75"/>
+      <c r="BD79" s="75"/>
+      <c r="BE79" s="75"/>
+      <c r="BF79" s="76"/>
     </row>
     <row r="80" spans="41:58">
-      <c r="AO80" s="67"/>
-      <c r="AP80" s="57"/>
-      <c r="AQ80" s="57"/>
-      <c r="AR80" s="57"/>
-      <c r="AS80" s="57"/>
-      <c r="AT80" s="57"/>
-      <c r="AU80" s="68"/>
-      <c r="AV80" s="68"/>
-      <c r="AW80" s="68"/>
-      <c r="AX80" s="68"/>
-      <c r="AY80" s="68"/>
-      <c r="AZ80" s="68"/>
-      <c r="BA80" s="68"/>
-      <c r="BB80" s="68"/>
-      <c r="BC80" s="68"/>
-      <c r="BD80" s="68"/>
-      <c r="BE80" s="68"/>
-      <c r="BF80" s="69"/>
+      <c r="AO80" s="74"/>
+      <c r="AP80" s="66"/>
+      <c r="AQ80" s="66"/>
+      <c r="AR80" s="66"/>
+      <c r="AS80" s="66"/>
+      <c r="AT80" s="66"/>
+      <c r="AU80" s="75"/>
+      <c r="AV80" s="75"/>
+      <c r="AW80" s="75"/>
+      <c r="AX80" s="75"/>
+      <c r="AY80" s="75"/>
+      <c r="AZ80" s="75"/>
+      <c r="BA80" s="75"/>
+      <c r="BB80" s="75"/>
+      <c r="BC80" s="75"/>
+      <c r="BD80" s="75"/>
+      <c r="BE80" s="75"/>
+      <c r="BF80" s="76"/>
     </row>
     <row r="81" spans="41:58">
-      <c r="AO81" s="67"/>
-      <c r="AP81" s="57"/>
-      <c r="AQ81" s="57"/>
-      <c r="AR81" s="57"/>
-      <c r="AS81" s="57"/>
-      <c r="AT81" s="57"/>
-      <c r="AU81" s="68"/>
-      <c r="AV81" s="68"/>
-      <c r="AW81" s="68"/>
-      <c r="AX81" s="68"/>
-      <c r="AY81" s="68"/>
-      <c r="AZ81" s="68"/>
-      <c r="BA81" s="68"/>
-      <c r="BB81" s="68"/>
-      <c r="BC81" s="68"/>
-      <c r="BD81" s="68"/>
-      <c r="BE81" s="68"/>
-      <c r="BF81" s="69"/>
+      <c r="AO81" s="74"/>
+      <c r="AP81" s="66"/>
+      <c r="AQ81" s="66"/>
+      <c r="AR81" s="66"/>
+      <c r="AS81" s="66"/>
+      <c r="AT81" s="66"/>
+      <c r="AU81" s="75"/>
+      <c r="AV81" s="75"/>
+      <c r="AW81" s="75"/>
+      <c r="AX81" s="75"/>
+      <c r="AY81" s="75"/>
+      <c r="AZ81" s="75"/>
+      <c r="BA81" s="75"/>
+      <c r="BB81" s="75"/>
+      <c r="BC81" s="75"/>
+      <c r="BD81" s="75"/>
+      <c r="BE81" s="75"/>
+      <c r="BF81" s="76"/>
     </row>
     <row r="82" spans="41:58">
-      <c r="AO82" s="67"/>
-      <c r="AP82" s="57"/>
-      <c r="AQ82" s="57"/>
-      <c r="AR82" s="57"/>
-      <c r="AS82" s="57"/>
-      <c r="AT82" s="57"/>
-      <c r="AU82" s="68"/>
-      <c r="AV82" s="68"/>
-      <c r="AW82" s="68"/>
-      <c r="AX82" s="68"/>
-      <c r="AY82" s="68"/>
-      <c r="AZ82" s="68"/>
-      <c r="BA82" s="68"/>
-      <c r="BB82" s="68"/>
-      <c r="BC82" s="68"/>
-      <c r="BD82" s="68"/>
-      <c r="BE82" s="68"/>
-      <c r="BF82" s="69"/>
+      <c r="AO82" s="74"/>
+      <c r="AP82" s="66"/>
+      <c r="AQ82" s="66"/>
+      <c r="AR82" s="66"/>
+      <c r="AS82" s="66"/>
+      <c r="AT82" s="66"/>
+      <c r="AU82" s="75"/>
+      <c r="AV82" s="75"/>
+      <c r="AW82" s="75"/>
+      <c r="AX82" s="75"/>
+      <c r="AY82" s="75"/>
+      <c r="AZ82" s="75"/>
+      <c r="BA82" s="75"/>
+      <c r="BB82" s="75"/>
+      <c r="BC82" s="75"/>
+      <c r="BD82" s="75"/>
+      <c r="BE82" s="75"/>
+      <c r="BF82" s="76"/>
     </row>
     <row r="83" spans="41:58">
-      <c r="AO83" s="67"/>
-      <c r="AP83" s="57"/>
-      <c r="AQ83" s="57"/>
-      <c r="AR83" s="57"/>
-      <c r="AS83" s="57"/>
-      <c r="AT83" s="57"/>
-      <c r="AU83" s="68"/>
-      <c r="AV83" s="68"/>
-      <c r="AW83" s="68"/>
-      <c r="AX83" s="68"/>
-      <c r="AY83" s="68"/>
-      <c r="AZ83" s="68"/>
-      <c r="BA83" s="68"/>
-      <c r="BB83" s="68"/>
-      <c r="BC83" s="68"/>
-      <c r="BD83" s="68"/>
-      <c r="BE83" s="68"/>
-      <c r="BF83" s="69"/>
+      <c r="AO83" s="74"/>
+      <c r="AP83" s="66"/>
+      <c r="AQ83" s="66"/>
+      <c r="AR83" s="66"/>
+      <c r="AS83" s="66"/>
+      <c r="AT83" s="66"/>
+      <c r="AU83" s="75"/>
+      <c r="AV83" s="75"/>
+      <c r="AW83" s="75"/>
+      <c r="AX83" s="75"/>
+      <c r="AY83" s="75"/>
+      <c r="AZ83" s="75"/>
+      <c r="BA83" s="75"/>
+      <c r="BB83" s="75"/>
+      <c r="BC83" s="75"/>
+      <c r="BD83" s="75"/>
+      <c r="BE83" s="75"/>
+      <c r="BF83" s="76"/>
     </row>
     <row r="84" spans="41:58">
-      <c r="AO84" s="67"/>
-      <c r="AP84" s="57"/>
-      <c r="AQ84" s="57"/>
-      <c r="AR84" s="57"/>
-      <c r="AS84" s="57"/>
-      <c r="AT84" s="57"/>
-      <c r="AU84" s="68"/>
-      <c r="AV84" s="68"/>
-      <c r="AW84" s="68"/>
-      <c r="AX84" s="68"/>
-      <c r="AY84" s="68"/>
-      <c r="AZ84" s="68"/>
-      <c r="BA84" s="68"/>
-      <c r="BB84" s="68"/>
-      <c r="BC84" s="68"/>
-      <c r="BD84" s="68"/>
-      <c r="BE84" s="68"/>
-      <c r="BF84" s="69"/>
+      <c r="AO84" s="74"/>
+      <c r="AP84" s="66"/>
+      <c r="AQ84" s="66"/>
+      <c r="AR84" s="66"/>
+      <c r="AS84" s="66"/>
+      <c r="AT84" s="66"/>
+      <c r="AU84" s="75"/>
+      <c r="AV84" s="75"/>
+      <c r="AW84" s="75"/>
+      <c r="AX84" s="75"/>
+      <c r="AY84" s="75"/>
+      <c r="AZ84" s="75"/>
+      <c r="BA84" s="75"/>
+      <c r="BB84" s="75"/>
+      <c r="BC84" s="75"/>
+      <c r="BD84" s="75"/>
+      <c r="BE84" s="75"/>
+      <c r="BF84" s="76"/>
     </row>
     <row r="85" spans="41:58">
       <c r="AO85" s="2"/>
@@ -4980,6 +4990,79 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="AO21:AT22"/>
+    <mergeCell ref="AU21:BF22"/>
+    <mergeCell ref="AO15:AT16"/>
+    <mergeCell ref="AU15:BF16"/>
+    <mergeCell ref="AO17:AT18"/>
+    <mergeCell ref="AU17:BF18"/>
+    <mergeCell ref="AO19:AT20"/>
+    <mergeCell ref="AU19:BF20"/>
+    <mergeCell ref="AO9:AT10"/>
+    <mergeCell ref="AU9:BF10"/>
+    <mergeCell ref="AO11:AT12"/>
+    <mergeCell ref="AU11:BF12"/>
+    <mergeCell ref="AO13:AT14"/>
+    <mergeCell ref="AU13:BF14"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AO3:BF3"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AO7:AT8"/>
+    <mergeCell ref="AU7:BF8"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="AO24:AT25"/>
+    <mergeCell ref="AU24:BF25"/>
+    <mergeCell ref="AO26:AT27"/>
+    <mergeCell ref="AU26:BF27"/>
+    <mergeCell ref="AO28:AT29"/>
+    <mergeCell ref="AU28:BF29"/>
+    <mergeCell ref="AO36:AT37"/>
+    <mergeCell ref="AU36:BF37"/>
+    <mergeCell ref="AO38:AT39"/>
+    <mergeCell ref="AU38:BF39"/>
+    <mergeCell ref="AO30:AT31"/>
+    <mergeCell ref="AU30:BF31"/>
+    <mergeCell ref="AO32:AT33"/>
+    <mergeCell ref="AU32:BF33"/>
+    <mergeCell ref="AO34:AT35"/>
+    <mergeCell ref="AU34:BF35"/>
+    <mergeCell ref="AO50:AT51"/>
+    <mergeCell ref="AU50:BF51"/>
+    <mergeCell ref="AO52:AT53"/>
+    <mergeCell ref="AU52:BF53"/>
+    <mergeCell ref="AO54:AT55"/>
+    <mergeCell ref="AU54:BF55"/>
+    <mergeCell ref="AO56:AT57"/>
+    <mergeCell ref="AU56:BF57"/>
+    <mergeCell ref="AO58:AT59"/>
+    <mergeCell ref="AU58:BF59"/>
+    <mergeCell ref="AO60:AT61"/>
+    <mergeCell ref="AU60:BF61"/>
+    <mergeCell ref="AO62:AT63"/>
+    <mergeCell ref="AU62:BF63"/>
+    <mergeCell ref="AO64:AT65"/>
+    <mergeCell ref="AU64:BF65"/>
+    <mergeCell ref="AO66:AT67"/>
+    <mergeCell ref="AU66:BF67"/>
+    <mergeCell ref="AO69:AT70"/>
+    <mergeCell ref="AU69:BF70"/>
+    <mergeCell ref="AO71:AT72"/>
+    <mergeCell ref="AU71:BF72"/>
+    <mergeCell ref="AO73:AT74"/>
+    <mergeCell ref="AU73:BF74"/>
     <mergeCell ref="AO81:AT82"/>
     <mergeCell ref="AU81:BF82"/>
     <mergeCell ref="AO83:AT84"/>
@@ -4990,79 +5073,6 @@
     <mergeCell ref="AU77:BF78"/>
     <mergeCell ref="AO79:AT80"/>
     <mergeCell ref="AU79:BF80"/>
-    <mergeCell ref="AO69:AT70"/>
-    <mergeCell ref="AU69:BF70"/>
-    <mergeCell ref="AO71:AT72"/>
-    <mergeCell ref="AU71:BF72"/>
-    <mergeCell ref="AO73:AT74"/>
-    <mergeCell ref="AU73:BF74"/>
-    <mergeCell ref="AO62:AT63"/>
-    <mergeCell ref="AU62:BF63"/>
-    <mergeCell ref="AO64:AT65"/>
-    <mergeCell ref="AU64:BF65"/>
-    <mergeCell ref="AO66:AT67"/>
-    <mergeCell ref="AU66:BF67"/>
-    <mergeCell ref="AO56:AT57"/>
-    <mergeCell ref="AU56:BF57"/>
-    <mergeCell ref="AO58:AT59"/>
-    <mergeCell ref="AU58:BF59"/>
-    <mergeCell ref="AO60:AT61"/>
-    <mergeCell ref="AU60:BF61"/>
-    <mergeCell ref="AO50:AT51"/>
-    <mergeCell ref="AU50:BF51"/>
-    <mergeCell ref="AO52:AT53"/>
-    <mergeCell ref="AU52:BF53"/>
-    <mergeCell ref="AO54:AT55"/>
-    <mergeCell ref="AU54:BF55"/>
-    <mergeCell ref="AO36:AT37"/>
-    <mergeCell ref="AU36:BF37"/>
-    <mergeCell ref="AO38:AT39"/>
-    <mergeCell ref="AU38:BF39"/>
-    <mergeCell ref="AO30:AT31"/>
-    <mergeCell ref="AU30:BF31"/>
-    <mergeCell ref="AO32:AT33"/>
-    <mergeCell ref="AU32:BF33"/>
-    <mergeCell ref="AO34:AT35"/>
-    <mergeCell ref="AU34:BF35"/>
-    <mergeCell ref="AO24:AT25"/>
-    <mergeCell ref="AU24:BF25"/>
-    <mergeCell ref="AO26:AT27"/>
-    <mergeCell ref="AU26:BF27"/>
-    <mergeCell ref="AO28:AT29"/>
-    <mergeCell ref="AU28:BF29"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AO3:BF3"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AO7:AT8"/>
-    <mergeCell ref="AU7:BF8"/>
-    <mergeCell ref="AO9:AT10"/>
-    <mergeCell ref="AU9:BF10"/>
-    <mergeCell ref="AO11:AT12"/>
-    <mergeCell ref="AU11:BF12"/>
-    <mergeCell ref="AO13:AT14"/>
-    <mergeCell ref="AU13:BF14"/>
-    <mergeCell ref="AO21:AT22"/>
-    <mergeCell ref="AU21:BF22"/>
-    <mergeCell ref="AO15:AT16"/>
-    <mergeCell ref="AU15:BF16"/>
-    <mergeCell ref="AO17:AT18"/>
-    <mergeCell ref="AU17:BF18"/>
-    <mergeCell ref="AO19:AT20"/>
-    <mergeCell ref="AU19:BF20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5078,8 +5088,8 @@
   </sheetPr>
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5088,27 +5098,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95" t="str">
+      <c r="D1" s="100"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="102" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="97"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
@@ -5123,24 +5133,24 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="92" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="98" t="str">
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="105" t="str">
         <f>表紙!H15</f>
         <v>調整入力</v>
       </c>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
@@ -5153,42 +5163,42 @@
       <c r="Q2" s="35"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89" t="s">
+      <c r="B4" s="96"/>
+      <c r="C4" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89" t="s">
+      <c r="D4" s="96"/>
+      <c r="E4" s="96" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89" t="s">
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="89"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
       <c r="F5" s="38" t="s">
         <v>36</v>
       </c>
@@ -5204,23 +5214,23 @@
       <c r="J5" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89" t="s">
+      <c r="B6" s="96"/>
+      <c r="C6" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="89"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="40" t="s">
         <v>42</v>
       </c>
@@ -5229,25 +5239,25 @@
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
-      <c r="K6" s="90" t="s">
+      <c r="K6" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89" t="s">
+      <c r="B7" s="96"/>
+      <c r="C7" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="89"/>
+      <c r="D7" s="96"/>
       <c r="E7" s="40" t="s">
         <v>42</v>
       </c>
@@ -5256,25 +5266,25 @@
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
-      <c r="K7" s="90" t="s">
+      <c r="K7" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89" t="s">
+      <c r="B8" s="96"/>
+      <c r="C8" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="89"/>
+      <c r="D8" s="96"/>
       <c r="E8" s="40" t="s">
         <v>42</v>
       </c>
@@ -5283,25 +5293,25 @@
       <c r="H8" s="38"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
-      <c r="K8" s="90" t="s">
+      <c r="K8" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89" t="s">
+      <c r="B9" s="96"/>
+      <c r="C9" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="89"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="40" t="s">
         <v>42</v>
       </c>
@@ -5310,44 +5320,44 @@
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
-      <c r="K9" s="90" t="s">
+      <c r="K9" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="40"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="97"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89" t="s">
+      <c r="B11" s="96"/>
+      <c r="C11" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="89"/>
+      <c r="D11" s="96"/>
       <c r="E11" s="40" t="s">
         <v>79</v>
       </c>
@@ -5358,25 +5368,25 @@
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
-      <c r="K11" s="90" t="s">
+      <c r="K11" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89" t="s">
+      <c r="B12" s="96"/>
+      <c r="C12" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="89"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="40" t="s">
         <v>80</v>
       </c>
@@ -5385,25 +5395,25 @@
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
-      <c r="K12" s="90" t="s">
+      <c r="K12" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89" t="s">
+      <c r="B13" s="96"/>
+      <c r="C13" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="89"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="40" t="s">
         <v>80</v>
       </c>
@@ -5412,25 +5422,25 @@
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
-      <c r="K13" s="90" t="s">
+      <c r="K13" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89" t="s">
+      <c r="B14" s="96"/>
+      <c r="C14" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="89"/>
+      <c r="D14" s="96"/>
       <c r="E14" s="40" t="s">
         <v>42</v>
       </c>
@@ -5439,25 +5449,25 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
-      <c r="K14" s="90" t="s">
+      <c r="K14" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89" t="s">
+      <c r="B15" s="96"/>
+      <c r="C15" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="89"/>
+      <c r="D15" s="96"/>
       <c r="E15" s="40" t="s">
         <v>79</v>
       </c>
@@ -5468,25 +5478,25 @@
       </c>
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
-      <c r="K15" s="90" t="s">
+      <c r="K15" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="97"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89" t="s">
+      <c r="B16" s="96"/>
+      <c r="C16" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="89"/>
+      <c r="D16" s="96"/>
       <c r="E16" s="40" t="s">
         <v>42</v>
       </c>
@@ -5495,25 +5505,25 @@
       <c r="H16" s="38"/>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
-      <c r="K16" s="90" t="s">
+      <c r="K16" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="89" t="s">
+      <c r="B17" s="96"/>
+      <c r="C17" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="89"/>
+      <c r="D17" s="96"/>
       <c r="E17" s="40" t="s">
         <v>79</v>
       </c>
@@ -5524,25 +5534,25 @@
       </c>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
-      <c r="K17" s="90" t="s">
+      <c r="K17" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="97"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89" t="s">
+      <c r="B18" s="96"/>
+      <c r="C18" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="89"/>
+      <c r="D18" s="96"/>
       <c r="E18" s="40" t="s">
         <v>32</v>
       </c>
@@ -5553,25 +5563,25 @@
       </c>
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
-      <c r="K18" s="90" t="s">
+      <c r="K18" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="97"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89" t="s">
+      <c r="B19" s="96"/>
+      <c r="C19" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="89"/>
+      <c r="D19" s="96"/>
       <c r="E19" s="40" t="s">
         <v>32</v>
       </c>
@@ -5582,25 +5592,25 @@
       </c>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
-      <c r="K19" s="90" t="s">
+      <c r="K19" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="97"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89" t="s">
+      <c r="B20" s="96"/>
+      <c r="C20" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="89"/>
+      <c r="D20" s="96"/>
       <c r="E20" s="40" t="s">
         <v>32</v>
       </c>
@@ -5611,25 +5621,25 @@
       </c>
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
-      <c r="K20" s="90" t="s">
+      <c r="K20" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89" t="s">
+      <c r="B21" s="96"/>
+      <c r="C21" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="89"/>
+      <c r="D21" s="96"/>
       <c r="E21" s="40" t="s">
         <v>32</v>
       </c>
@@ -5640,25 +5650,25 @@
       </c>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
-      <c r="K21" s="90" t="s">
+      <c r="K21" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="90"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89" t="s">
+      <c r="B22" s="96"/>
+      <c r="C22" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="89"/>
+      <c r="D22" s="96"/>
       <c r="E22" s="40" t="s">
         <v>32</v>
       </c>
@@ -5669,18 +5679,63 @@
       </c>
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
-      <c r="K22" s="90" t="s">
+      <c r="K22" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:Q5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:Q14"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="K22:Q22"/>
@@ -5697,51 +5752,6 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="K18:Q18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q5"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5767,27 +5777,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="34" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="92" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95" t="str">
+      <c r="D1" s="100"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="102" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="97"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="104"/>
       <c r="N1" s="23" t="s">
         <v>0</v>
       </c>
@@ -5800,24 +5810,24 @@
       <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="1:17" s="34" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="92" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="98" t="str">
+      <c r="D2" s="100"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="105" t="str">
         <f>表紙!H15</f>
         <v>調整入力</v>
       </c>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="100"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
       <c r="N2" s="23" t="s">
         <v>4</v>
       </c>
@@ -5830,556 +5840,563 @@
       <c r="Q2" s="37"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89" t="s">
+      <c r="B4" s="96"/>
+      <c r="C4" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="41" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="42"/>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="103"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="116"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="43"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="106"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="110"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="43"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="106"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="110"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="106"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="110"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="45"/>
       <c r="B9" s="46"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="109"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="112"/>
+      <c r="Q9" s="113"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="41" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="42"/>
-      <c r="C10" s="101" t="s">
+      <c r="C10" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="103"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="116"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="106"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="110"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="43"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="105"/>
-      <c r="N12" s="105"/>
-      <c r="O12" s="105"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="106"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="110"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="45"/>
       <c r="B13" s="46"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="109"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="113"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="42"/>
-      <c r="C14" s="101" t="s">
+      <c r="C14" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="102"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="103"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="116"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="106"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="110"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="43"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="105"/>
-      <c r="Q16" s="106"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="110"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="43"/>
       <c r="B17" s="44"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="105"/>
-      <c r="N17" s="105"/>
-      <c r="O17" s="105"/>
-      <c r="P17" s="105"/>
-      <c r="Q17" s="106"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="110"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="43"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="105"/>
-      <c r="O18" s="105"/>
-      <c r="P18" s="105"/>
-      <c r="Q18" s="106"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="109"/>
+      <c r="P18" s="109"/>
+      <c r="Q18" s="110"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
-      <c r="O19" s="105"/>
-      <c r="P19" s="105"/>
-      <c r="Q19" s="106"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="109"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="109"/>
+      <c r="P19" s="109"/>
+      <c r="Q19" s="110"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="42"/>
-      <c r="C20" s="101" t="s">
+      <c r="C20" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="102"/>
-      <c r="O20" s="102"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="103"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="116"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="43"/>
       <c r="B21" s="44"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="105"/>
-      <c r="O21" s="105"/>
-      <c r="P21" s="105"/>
-      <c r="Q21" s="106"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="109"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="109"/>
+      <c r="N21" s="109"/>
+      <c r="O21" s="109"/>
+      <c r="P21" s="109"/>
+      <c r="Q21" s="110"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="109"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="113"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="41" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="42"/>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="103"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="115"/>
+      <c r="Q23" s="116"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="43"/>
       <c r="B24" s="44"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="105"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="105"/>
-      <c r="Q24" s="106"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="109"/>
+      <c r="L24" s="109"/>
+      <c r="M24" s="109"/>
+      <c r="N24" s="109"/>
+      <c r="O24" s="109"/>
+      <c r="P24" s="109"/>
+      <c r="Q24" s="110"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="43"/>
       <c r="B25" s="44"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="105"/>
-      <c r="O25" s="105"/>
-      <c r="P25" s="105"/>
-      <c r="Q25" s="106"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="109"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="109"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="110"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="43"/>
       <c r="B26" s="44"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="105"/>
-      <c r="O26" s="105"/>
-      <c r="P26" s="105"/>
-      <c r="Q26" s="106"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="109"/>
+      <c r="M26" s="109"/>
+      <c r="N26" s="109"/>
+      <c r="O26" s="109"/>
+      <c r="P26" s="109"/>
+      <c r="Q26" s="110"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="108"/>
-      <c r="N27" s="108"/>
-      <c r="O27" s="108"/>
-      <c r="P27" s="108"/>
-      <c r="Q27" s="109"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="113"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="42"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="102"/>
-      <c r="O28" s="102"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="103"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="115"/>
+      <c r="O28" s="115"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="116"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="43"/>
       <c r="B29" s="44"/>
-      <c r="C29" s="104" t="s">
+      <c r="C29" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="105"/>
-      <c r="N29" s="105"/>
-      <c r="O29" s="105"/>
-      <c r="P29" s="105"/>
-      <c r="Q29" s="106"/>
+      <c r="D29" s="109"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="110"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
-      <c r="N30" s="108"/>
-      <c r="O30" s="108"/>
-      <c r="P30" s="108"/>
-      <c r="Q30" s="109"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="112"/>
+      <c r="K30" s="112"/>
+      <c r="L30" s="112"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="112"/>
+      <c r="Q30" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C25:Q25"/>
-    <mergeCell ref="C27:Q27"/>
-    <mergeCell ref="C28:Q28"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C30:Q30"/>
-    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="C10:Q10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="C5:Q5"/>
+    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="C7:Q7"/>
+    <mergeCell ref="C8:Q8"/>
+    <mergeCell ref="C9:Q9"/>
     <mergeCell ref="C24:Q24"/>
     <mergeCell ref="C11:Q11"/>
     <mergeCell ref="C12:Q12"/>
@@ -6394,19 +6411,12 @@
     <mergeCell ref="C23:Q23"/>
     <mergeCell ref="C21:Q21"/>
     <mergeCell ref="C18:Q18"/>
-    <mergeCell ref="C10:Q10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="C5:Q5"/>
-    <mergeCell ref="C6:Q6"/>
-    <mergeCell ref="C7:Q7"/>
-    <mergeCell ref="C8:Q8"/>
-    <mergeCell ref="C9:Q9"/>
+    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C27:Q27"/>
+    <mergeCell ref="C28:Q28"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C30:Q30"/>
+    <mergeCell ref="C26:Q26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6416,492 +6426,496 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544AB957-8A51-40C2-852E-BF427FB6CD42}">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="110" t="s">
+    <row r="3" spans="1:24">
+      <c r="A3" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="47" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="110"/>
-      <c r="B5" s="110"/>
+    <row r="4" spans="1:24">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
       <c r="D5" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="48" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="110"/>
-      <c r="B6" s="110"/>
-      <c r="D6" s="112" t="s">
+    <row r="6" spans="1:24">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="D6" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="112" t="s">
+      <c r="E6" s="49" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="110"/>
-      <c r="B7" s="110"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="110"/>
-      <c r="B8" s="110"/>
-    </row>
-    <row r="13" spans="1:23">
+    <row r="7" spans="1:24">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="115" t="s">
+    <row r="15" spans="1:24">
+      <c r="A15" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="115" t="s">
+      <c r="D15" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="115" t="s">
+      <c r="E15" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="115" t="s">
+      <c r="F15" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="116" t="s">
+      <c r="G15" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="116" t="s">
+      <c r="H15" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="I15" s="116" t="s">
+      <c r="I15" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="J15" s="115" t="s">
+      <c r="J15" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="K15" s="115" t="s">
+      <c r="K15" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="L15" s="115" t="s">
+      <c r="L15" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="M15" s="115" t="s">
+      <c r="M15" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="N15" s="115" t="s">
+      <c r="N15" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="O15" s="115" t="s">
+      <c r="O15" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="P15" s="116" t="s">
+      <c r="P15" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="Q15" s="116" t="s">
+      <c r="Q15" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="R15" s="116" t="s">
+      <c r="R15" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="S15" s="115" t="s">
+      <c r="S15" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="T15" s="115" t="s">
+      <c r="T15" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="U15" s="110" t="s">
+      <c r="U15" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="V15" s="110" t="s">
+      <c r="V15" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="W15" s="114" t="s">
+      <c r="W15" s="51" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="110">
+    <row r="16" spans="1:24">
+      <c r="A16" s="47">
         <v>1</v>
       </c>
-      <c r="B16" s="113">
+      <c r="B16" s="50">
         <v>1001</v>
       </c>
-      <c r="C16" s="113" t="s">
+      <c r="C16" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D16" s="110">
+      <c r="D16" s="47">
         <v>11</v>
       </c>
-      <c r="E16" s="110" t="s">
+      <c r="E16" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="F16" s="110">
+      <c r="F16" s="47">
         <v>1</v>
       </c>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110">
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47">
         <v>0</v>
       </c>
-      <c r="K16" s="110">
+      <c r="K16" s="47">
         <v>1060</v>
       </c>
-      <c r="L16" s="110">
+      <c r="L16" s="47">
         <v>0</v>
       </c>
-      <c r="M16" s="110">
+      <c r="M16" s="47">
         <v>0</v>
       </c>
-      <c r="N16" s="110">
+      <c r="N16" s="47">
         <v>0</v>
       </c>
-      <c r="O16" s="110">
+      <c r="O16" s="47">
         <v>0</v>
       </c>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="110">
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47">
         <v>0</v>
       </c>
-      <c r="T16" s="110"/>
-      <c r="U16" s="110"/>
-      <c r="V16" s="110"/>
-      <c r="W16" s="110"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="51"/>
+      <c r="X16" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="110">
+      <c r="A17" s="47">
         <v>1</v>
       </c>
-      <c r="B17" s="113">
+      <c r="B17" s="50">
         <v>1001</v>
       </c>
-      <c r="C17" s="113" t="s">
+      <c r="C17" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="110">
+      <c r="D17" s="47">
         <v>12</v>
       </c>
-      <c r="E17" s="110" t="s">
+      <c r="E17" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="110">
+      <c r="F17" s="47">
         <v>1</v>
       </c>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110">
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47">
         <v>0</v>
       </c>
-      <c r="K17" s="110">
+      <c r="K17" s="47">
         <v>830</v>
       </c>
-      <c r="L17" s="110">
+      <c r="L17" s="47">
         <v>0</v>
       </c>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="110"/>
-      <c r="U17" s="110"/>
-      <c r="V17" s="110"/>
-      <c r="W17" s="110"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="110">
+      <c r="A18" s="47">
         <v>1</v>
       </c>
-      <c r="B18" s="113">
+      <c r="B18" s="50">
         <v>1001</v>
       </c>
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="110">
+      <c r="D18" s="47">
         <v>13</v>
       </c>
-      <c r="E18" s="110" t="s">
+      <c r="E18" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="110">
+      <c r="F18" s="47">
         <v>1</v>
       </c>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110">
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47">
         <v>0</v>
       </c>
-      <c r="K18" s="110">
+      <c r="K18" s="47">
         <v>1290</v>
       </c>
-      <c r="L18" s="110">
+      <c r="L18" s="47">
         <v>0</v>
       </c>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="110"/>
-      <c r="V18" s="110"/>
-      <c r="W18" s="110"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="110">
+      <c r="A19" s="47">
         <v>1</v>
       </c>
-      <c r="B19" s="113">
+      <c r="B19" s="50">
         <v>1001</v>
       </c>
-      <c r="C19" s="113" t="s">
+      <c r="C19" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="110">
+      <c r="D19" s="47">
         <v>14</v>
       </c>
-      <c r="E19" s="110" t="s">
+      <c r="E19" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="110">
+      <c r="F19" s="47">
         <v>1</v>
       </c>
-      <c r="G19" s="110"/>
-      <c r="H19" s="110"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="110">
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47">
         <v>0</v>
       </c>
-      <c r="K19" s="110">
+      <c r="K19" s="47">
         <v>770</v>
       </c>
-      <c r="L19" s="110">
+      <c r="L19" s="47">
         <v>0</v>
       </c>
-      <c r="M19" s="110"/>
-      <c r="N19" s="110"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="110"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="110"/>
-      <c r="U19" s="110"/>
-      <c r="V19" s="110"/>
-      <c r="W19" s="110"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="110">
+      <c r="A20" s="47">
         <v>1</v>
       </c>
-      <c r="B20" s="113">
+      <c r="B20" s="50">
         <v>1001</v>
       </c>
-      <c r="C20" s="113" t="s">
+      <c r="C20" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="110">
+      <c r="D20" s="47">
         <v>51</v>
       </c>
-      <c r="E20" s="110" t="s">
+      <c r="E20" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="110">
+      <c r="F20" s="47">
         <v>1</v>
       </c>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110">
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47">
         <v>0</v>
       </c>
-      <c r="K20" s="110">
+      <c r="K20" s="47">
         <v>980</v>
       </c>
-      <c r="L20" s="110">
+      <c r="L20" s="47">
         <v>0</v>
       </c>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="110"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="110"/>
-      <c r="U20" s="110"/>
-      <c r="V20" s="110"/>
-      <c r="W20" s="110"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="110">
+      <c r="A21" s="47">
         <v>1</v>
       </c>
-      <c r="B21" s="113">
+      <c r="B21" s="50">
         <v>1001</v>
       </c>
-      <c r="C21" s="113" t="s">
+      <c r="C21" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="110">
+      <c r="D21" s="47">
         <v>52</v>
       </c>
-      <c r="E21" s="110" t="s">
+      <c r="E21" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="110">
+      <c r="F21" s="47">
         <v>1</v>
       </c>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110">
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47">
         <v>0</v>
       </c>
-      <c r="K21" s="110">
+      <c r="K21" s="47">
         <v>980</v>
       </c>
-      <c r="L21" s="110">
+      <c r="L21" s="47">
         <v>0</v>
       </c>
-      <c r="M21" s="110"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="110"/>
-      <c r="Q21" s="110"/>
-      <c r="R21" s="110"/>
-      <c r="S21" s="110"/>
-      <c r="T21" s="110"/>
-      <c r="U21" s="110"/>
-      <c r="V21" s="110"/>
-      <c r="W21" s="110"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="110">
+      <c r="A22" s="47">
         <v>1</v>
       </c>
-      <c r="B22" s="113">
+      <c r="B22" s="50">
         <v>1001</v>
       </c>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="110">
+      <c r="D22" s="47">
         <v>71</v>
       </c>
-      <c r="E22" s="110" t="s">
+      <c r="E22" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="F22" s="110">
+      <c r="F22" s="47">
         <v>1</v>
       </c>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110">
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47">
         <v>0</v>
       </c>
-      <c r="K22" s="110">
+      <c r="K22" s="47">
         <v>200</v>
       </c>
-      <c r="L22" s="110">
+      <c r="L22" s="47">
         <v>0</v>
       </c>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="110"/>
-      <c r="T22" s="110"/>
-      <c r="U22" s="110"/>
-      <c r="V22" s="110"/>
-      <c r="W22" s="110"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="47"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="110">
+      <c r="A23" s="47">
         <v>1</v>
       </c>
-      <c r="B23" s="113">
+      <c r="B23" s="50">
         <v>1001</v>
       </c>
-      <c r="C23" s="113" t="s">
+      <c r="C23" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="110">
+      <c r="D23" s="47">
         <v>72</v>
       </c>
-      <c r="E23" s="110" t="s">
+      <c r="E23" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="110">
+      <c r="F23" s="47">
         <v>1</v>
       </c>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110">
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47">
         <v>0</v>
       </c>
-      <c r="K23" s="110">
+      <c r="K23" s="47">
         <v>260</v>
       </c>
-      <c r="L23" s="110">
+      <c r="L23" s="47">
         <v>0</v>
       </c>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="110"/>
-      <c r="S23" s="110"/>
-      <c r="T23" s="110"/>
-      <c r="U23" s="110"/>
-      <c r="V23" s="110"/>
-      <c r="W23" s="110"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
     </row>
     <row r="28" spans="1:23">
       <c r="D28" t="s">
@@ -6912,7 +6926,7 @@
       </c>
     </row>
     <row r="29" spans="1:23">
-      <c r="D29" s="112" t="s">
+      <c r="D29" s="49" t="s">
         <v>104</v>
       </c>
     </row>

--- a/市場_2025改修/詳細設計_2025/25_詳細設計書(調整入力) .xlsx
+++ b/市場_2025改修/詳細設計_2025/25_詳細設計書(調整入力) .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\詳細設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F744DA8-156A-4EBF-9C8A-25C6DE981065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17D0DC7-529F-4599-9A42-182342F6BCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="範囲１" localSheetId="0">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="142">
   <si>
     <t>作成者</t>
   </si>
@@ -1668,6 +1668,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1677,20 +1692,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1698,30 +1716,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1749,10 +1749,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1760,33 +1787,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1822,6 +1822,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1838,15 +1847,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2330,50 +2330,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="63"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="60"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -2396,10 +2396,10 @@
         <v>18</v>
       </c>
       <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -2422,42 +2422,42 @@
         <v>20</v>
       </c>
       <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="63"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
       <c r="F15" s="54" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="55"/>
-      <c r="H15" s="56" t="s">
+      <c r="H15" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="58"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="63"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
       <c r="F16" s="54" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="63"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
       <c r="F17" s="54" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="58"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="63"/>
       <c r="N17" s="7" t="s">
         <v>54</v>
       </c>
@@ -2487,12 +2487,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -2501,6 +2495,12 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2529,52 +2529,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="68" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
       <c r="P1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
       <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="25"/>
@@ -2600,441 +2600,441 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65" t="s">
+      <c r="E4" s="71"/>
+      <c r="F4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65" t="s">
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="69">
+      <c r="B5" s="67">
         <v>44762</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70" t="s">
+      <c r="E5" s="68"/>
+      <c r="F5" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="71">
+      <c r="B6" s="65">
         <v>45848</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="72" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72" t="s">
+      <c r="E6" s="66"/>
+      <c r="F6" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="66" t="s">
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="28">
         <v>11</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="28">
         <v>14</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="28">
         <v>15</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="28">
         <v>16</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="28">
         <v>17</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -3045,14 +3045,62 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I19:R19"/>
     <mergeCell ref="I20:R20"/>
     <mergeCell ref="B17:C17"/>
@@ -3069,62 +3117,14 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -3150,213 +3150,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="30" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="83" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="84" t="str">
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="93" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="87" t="s">
+      <c r="V1" s="94"/>
+      <c r="W1" s="94"/>
+      <c r="X1" s="94"/>
+      <c r="Y1" s="94"/>
+      <c r="Z1" s="94"/>
+      <c r="AA1" s="94"/>
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="94"/>
+      <c r="AD1" s="94"/>
+      <c r="AE1" s="94"/>
+      <c r="AF1" s="94"/>
+      <c r="AG1" s="94"/>
+      <c r="AH1" s="94"/>
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="87"/>
-      <c r="AO1" s="88" t="s">
+      <c r="AK1" s="91"/>
+      <c r="AL1" s="91"/>
+      <c r="AM1" s="91"/>
+      <c r="AN1" s="91"/>
+      <c r="AO1" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="88"/>
-      <c r="AQ1" s="88"/>
-      <c r="AR1" s="88"/>
-      <c r="AS1" s="88"/>
-      <c r="AT1" s="88"/>
-      <c r="AU1" s="88"/>
-      <c r="AV1" s="87" t="s">
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="86"/>
+      <c r="AR1" s="86"/>
+      <c r="AS1" s="86"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
+      <c r="AV1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="87"/>
-      <c r="AX1" s="87"/>
-      <c r="AY1" s="87"/>
-      <c r="AZ1" s="87"/>
-      <c r="BA1" s="88"/>
-      <c r="BB1" s="88"/>
-      <c r="BC1" s="88"/>
-      <c r="BD1" s="88"/>
-      <c r="BE1" s="88"/>
-      <c r="BF1" s="88"/>
+      <c r="AW1" s="91"/>
+      <c r="AX1" s="91"/>
+      <c r="AY1" s="91"/>
+      <c r="AZ1" s="91"/>
+      <c r="BA1" s="86"/>
+      <c r="BB1" s="86"/>
+      <c r="BC1" s="86"/>
+      <c r="BD1" s="86"/>
+      <c r="BE1" s="86"/>
+      <c r="BF1" s="86"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="83" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="89" t="str">
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="88" t="str">
         <f>表紙!H15</f>
         <v>調整入力</v>
       </c>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="90"/>
-      <c r="AF2" s="90"/>
-      <c r="AG2" s="90"/>
-      <c r="AH2" s="90"/>
-      <c r="AI2" s="91"/>
-      <c r="AJ2" s="87" t="s">
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="87"/>
+      <c r="AK2" s="91"/>
+      <c r="AL2" s="91"/>
+      <c r="AM2" s="91"/>
+      <c r="AN2" s="91"/>
       <c r="AO2" s="92">
         <v>44752</v>
       </c>
-      <c r="AP2" s="88"/>
-      <c r="AQ2" s="88"/>
-      <c r="AR2" s="88"/>
-      <c r="AS2" s="88"/>
-      <c r="AT2" s="88"/>
-      <c r="AU2" s="88"/>
-      <c r="AV2" s="87" t="s">
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="86"/>
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="87"/>
-      <c r="AX2" s="87"/>
-      <c r="AY2" s="87"/>
-      <c r="AZ2" s="87"/>
-      <c r="BA2" s="88"/>
-      <c r="BB2" s="88"/>
-      <c r="BC2" s="88"/>
-      <c r="BD2" s="88"/>
-      <c r="BE2" s="88"/>
-      <c r="BF2" s="88"/>
+      <c r="AW2" s="91"/>
+      <c r="AX2" s="91"/>
+      <c r="AY2" s="91"/>
+      <c r="AZ2" s="91"/>
+      <c r="BA2" s="86"/>
+      <c r="BB2" s="86"/>
+      <c r="BC2" s="86"/>
+      <c r="BD2" s="86"/>
+      <c r="BE2" s="86"/>
+      <c r="BF2" s="86"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
-      <c r="AL3" s="94"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="95"/>
-      <c r="AO3" s="93" t="s">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="84"/>
+      <c r="AJ3" s="84"/>
+      <c r="AK3" s="84"/>
+      <c r="AL3" s="84"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="85"/>
+      <c r="AO3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="94"/>
-      <c r="AQ3" s="94"/>
-      <c r="AR3" s="94"/>
-      <c r="AS3" s="94"/>
-      <c r="AT3" s="94"/>
-      <c r="AU3" s="94"/>
-      <c r="AV3" s="94"/>
-      <c r="AW3" s="94"/>
-      <c r="AX3" s="94"/>
-      <c r="AY3" s="94"/>
-      <c r="AZ3" s="94"/>
-      <c r="BA3" s="94"/>
-      <c r="BB3" s="94"/>
-      <c r="BC3" s="94"/>
-      <c r="BD3" s="94"/>
-      <c r="BE3" s="94"/>
-      <c r="BF3" s="95"/>
+      <c r="AP3" s="84"/>
+      <c r="AQ3" s="84"/>
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="84"/>
+      <c r="AT3" s="84"/>
+      <c r="AU3" s="84"/>
+      <c r="AV3" s="84"/>
+      <c r="AW3" s="84"/>
+      <c r="AX3" s="84"/>
+      <c r="AY3" s="84"/>
+      <c r="AZ3" s="84"/>
+      <c r="BA3" s="84"/>
+      <c r="BB3" s="84"/>
+      <c r="BC3" s="84"/>
+      <c r="BD3" s="84"/>
+      <c r="BE3" s="84"/>
+      <c r="BF3" s="85"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="2"/>
@@ -3370,11 +3370,11 @@
       <c r="AO5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="AP5" s="66"/>
-      <c r="AQ5" s="66"/>
-      <c r="AR5" s="66"/>
-      <c r="AS5" s="66"/>
-      <c r="AT5" s="66"/>
+      <c r="AP5" s="64"/>
+      <c r="AQ5" s="64"/>
+      <c r="AR5" s="64"/>
+      <c r="AS5" s="64"/>
+      <c r="AT5" s="64"/>
       <c r="AU5" s="75" t="s">
         <v>62</v>
       </c>
@@ -3394,11 +3394,11 @@
       <c r="A6" s="2"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="74"/>
-      <c r="AP6" s="66"/>
-      <c r="AQ6" s="66"/>
-      <c r="AR6" s="66"/>
-      <c r="AS6" s="66"/>
-      <c r="AT6" s="66"/>
+      <c r="AP6" s="64"/>
+      <c r="AQ6" s="64"/>
+      <c r="AR6" s="64"/>
+      <c r="AS6" s="64"/>
+      <c r="AT6" s="64"/>
       <c r="AU6" s="75"/>
       <c r="AV6" s="75"/>
       <c r="AW6" s="75"/>
@@ -3418,11 +3418,11 @@
       <c r="AO7" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="AP7" s="66"/>
-      <c r="AQ7" s="66"/>
-      <c r="AR7" s="66"/>
-      <c r="AS7" s="66"/>
-      <c r="AT7" s="66"/>
+      <c r="AP7" s="64"/>
+      <c r="AQ7" s="64"/>
+      <c r="AR7" s="64"/>
+      <c r="AS7" s="64"/>
+      <c r="AT7" s="64"/>
       <c r="AU7" s="75" t="s">
         <v>53</v>
       </c>
@@ -3442,11 +3442,11 @@
       <c r="A8" s="2"/>
       <c r="AN8" s="3"/>
       <c r="AO8" s="74"/>
-      <c r="AP8" s="66"/>
-      <c r="AQ8" s="66"/>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="66"/>
-      <c r="AT8" s="66"/>
+      <c r="AP8" s="64"/>
+      <c r="AQ8" s="64"/>
+      <c r="AR8" s="64"/>
+      <c r="AS8" s="64"/>
+      <c r="AT8" s="64"/>
       <c r="AU8" s="75"/>
       <c r="AV8" s="75"/>
       <c r="AW8" s="75"/>
@@ -3466,11 +3466,11 @@
       <c r="AO9" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="AP9" s="66"/>
-      <c r="AQ9" s="66"/>
-      <c r="AR9" s="66"/>
-      <c r="AS9" s="66"/>
-      <c r="AT9" s="66"/>
+      <c r="AP9" s="64"/>
+      <c r="AQ9" s="64"/>
+      <c r="AR9" s="64"/>
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="64"/>
       <c r="AU9" s="75" t="s">
         <v>64</v>
       </c>
@@ -3490,11 +3490,11 @@
       <c r="A10" s="2"/>
       <c r="AN10" s="3"/>
       <c r="AO10" s="74"/>
-      <c r="AP10" s="66"/>
-      <c r="AQ10" s="66"/>
-      <c r="AR10" s="66"/>
-      <c r="AS10" s="66"/>
-      <c r="AT10" s="66"/>
+      <c r="AP10" s="64"/>
+      <c r="AQ10" s="64"/>
+      <c r="AR10" s="64"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="64"/>
       <c r="AU10" s="75"/>
       <c r="AV10" s="75"/>
       <c r="AW10" s="75"/>
@@ -3560,11 +3560,11 @@
       <c r="A13" s="2"/>
       <c r="AN13" s="3"/>
       <c r="AO13" s="74"/>
-      <c r="AP13" s="66"/>
-      <c r="AQ13" s="66"/>
-      <c r="AR13" s="66"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="66"/>
+      <c r="AP13" s="64"/>
+      <c r="AQ13" s="64"/>
+      <c r="AR13" s="64"/>
+      <c r="AS13" s="64"/>
+      <c r="AT13" s="64"/>
       <c r="AU13" s="75"/>
       <c r="AV13" s="75"/>
       <c r="AW13" s="75"/>
@@ -3582,11 +3582,11 @@
       <c r="A14" s="2"/>
       <c r="AN14" s="3"/>
       <c r="AO14" s="74"/>
-      <c r="AP14" s="66"/>
-      <c r="AQ14" s="66"/>
-      <c r="AR14" s="66"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="66"/>
+      <c r="AP14" s="64"/>
+      <c r="AQ14" s="64"/>
+      <c r="AR14" s="64"/>
+      <c r="AS14" s="64"/>
+      <c r="AT14" s="64"/>
       <c r="AU14" s="75"/>
       <c r="AV14" s="75"/>
       <c r="AW14" s="75"/>
@@ -3604,11 +3604,11 @@
       <c r="A15" s="2"/>
       <c r="AN15" s="3"/>
       <c r="AO15" s="74"/>
-      <c r="AP15" s="66"/>
-      <c r="AQ15" s="66"/>
-      <c r="AR15" s="66"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="66"/>
+      <c r="AP15" s="64"/>
+      <c r="AQ15" s="64"/>
+      <c r="AR15" s="64"/>
+      <c r="AS15" s="64"/>
+      <c r="AT15" s="64"/>
       <c r="AU15" s="75"/>
       <c r="AV15" s="75"/>
       <c r="AW15" s="75"/>
@@ -3626,11 +3626,11 @@
       <c r="A16" s="2"/>
       <c r="AN16" s="3"/>
       <c r="AO16" s="74"/>
-      <c r="AP16" s="66"/>
-      <c r="AQ16" s="66"/>
-      <c r="AR16" s="66"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="66"/>
+      <c r="AP16" s="64"/>
+      <c r="AQ16" s="64"/>
+      <c r="AR16" s="64"/>
+      <c r="AS16" s="64"/>
+      <c r="AT16" s="64"/>
       <c r="AU16" s="75"/>
       <c r="AV16" s="75"/>
       <c r="AW16" s="75"/>
@@ -3648,11 +3648,11 @@
       <c r="A17" s="2"/>
       <c r="AN17" s="3"/>
       <c r="AO17" s="74"/>
-      <c r="AP17" s="66"/>
-      <c r="AQ17" s="66"/>
-      <c r="AR17" s="66"/>
-      <c r="AS17" s="66"/>
-      <c r="AT17" s="66"/>
+      <c r="AP17" s="64"/>
+      <c r="AQ17" s="64"/>
+      <c r="AR17" s="64"/>
+      <c r="AS17" s="64"/>
+      <c r="AT17" s="64"/>
       <c r="AU17" s="75"/>
       <c r="AV17" s="75"/>
       <c r="AW17" s="75"/>
@@ -3670,11 +3670,11 @@
       <c r="A18" s="2"/>
       <c r="AN18" s="3"/>
       <c r="AO18" s="74"/>
-      <c r="AP18" s="66"/>
-      <c r="AQ18" s="66"/>
-      <c r="AR18" s="66"/>
-      <c r="AS18" s="66"/>
-      <c r="AT18" s="66"/>
+      <c r="AP18" s="64"/>
+      <c r="AQ18" s="64"/>
+      <c r="AR18" s="64"/>
+      <c r="AS18" s="64"/>
+      <c r="AT18" s="64"/>
       <c r="AU18" s="75"/>
       <c r="AV18" s="75"/>
       <c r="AW18" s="75"/>
@@ -3692,11 +3692,11 @@
       <c r="A19" s="2"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="74"/>
-      <c r="AP19" s="66"/>
-      <c r="AQ19" s="66"/>
-      <c r="AR19" s="66"/>
-      <c r="AS19" s="66"/>
-      <c r="AT19" s="66"/>
+      <c r="AP19" s="64"/>
+      <c r="AQ19" s="64"/>
+      <c r="AR19" s="64"/>
+      <c r="AS19" s="64"/>
+      <c r="AT19" s="64"/>
       <c r="AU19" s="75"/>
       <c r="AV19" s="75"/>
       <c r="AW19" s="75"/>
@@ -3714,11 +3714,11 @@
       <c r="A20" s="2"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="74"/>
-      <c r="AP20" s="66"/>
-      <c r="AQ20" s="66"/>
-      <c r="AR20" s="66"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="66"/>
+      <c r="AP20" s="64"/>
+      <c r="AQ20" s="64"/>
+      <c r="AR20" s="64"/>
+      <c r="AS20" s="64"/>
+      <c r="AT20" s="64"/>
       <c r="AU20" s="75"/>
       <c r="AV20" s="75"/>
       <c r="AW20" s="75"/>
@@ -3736,11 +3736,11 @@
       <c r="A21" s="2"/>
       <c r="AN21" s="3"/>
       <c r="AO21" s="74"/>
-      <c r="AP21" s="66"/>
-      <c r="AQ21" s="66"/>
-      <c r="AR21" s="66"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="66"/>
+      <c r="AP21" s="64"/>
+      <c r="AQ21" s="64"/>
+      <c r="AR21" s="64"/>
+      <c r="AS21" s="64"/>
+      <c r="AT21" s="64"/>
       <c r="AU21" s="75"/>
       <c r="AV21" s="75"/>
       <c r="AW21" s="75"/>
@@ -3758,11 +3758,11 @@
       <c r="A22" s="2"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="74"/>
-      <c r="AP22" s="66"/>
-      <c r="AQ22" s="66"/>
-      <c r="AR22" s="66"/>
-      <c r="AS22" s="66"/>
-      <c r="AT22" s="66"/>
+      <c r="AP22" s="64"/>
+      <c r="AQ22" s="64"/>
+      <c r="AR22" s="64"/>
+      <c r="AS22" s="64"/>
+      <c r="AT22" s="64"/>
       <c r="AU22" s="75"/>
       <c r="AV22" s="75"/>
       <c r="AW22" s="75"/>
@@ -3786,11 +3786,11 @@
       <c r="A24" s="2"/>
       <c r="AN24" s="3"/>
       <c r="AO24" s="74"/>
-      <c r="AP24" s="66"/>
-      <c r="AQ24" s="66"/>
-      <c r="AR24" s="66"/>
-      <c r="AS24" s="66"/>
-      <c r="AT24" s="66"/>
+      <c r="AP24" s="64"/>
+      <c r="AQ24" s="64"/>
+      <c r="AR24" s="64"/>
+      <c r="AS24" s="64"/>
+      <c r="AT24" s="64"/>
       <c r="AU24" s="75"/>
       <c r="AV24" s="75"/>
       <c r="AW24" s="75"/>
@@ -3808,11 +3808,11 @@
       <c r="A25" s="2"/>
       <c r="AN25" s="3"/>
       <c r="AO25" s="74"/>
-      <c r="AP25" s="66"/>
-      <c r="AQ25" s="66"/>
-      <c r="AR25" s="66"/>
-      <c r="AS25" s="66"/>
-      <c r="AT25" s="66"/>
+      <c r="AP25" s="64"/>
+      <c r="AQ25" s="64"/>
+      <c r="AR25" s="64"/>
+      <c r="AS25" s="64"/>
+      <c r="AT25" s="64"/>
       <c r="AU25" s="75"/>
       <c r="AV25" s="75"/>
       <c r="AW25" s="75"/>
@@ -3830,11 +3830,11 @@
       <c r="A26" s="2"/>
       <c r="AN26" s="3"/>
       <c r="AO26" s="74"/>
-      <c r="AP26" s="66"/>
-      <c r="AQ26" s="66"/>
-      <c r="AR26" s="66"/>
-      <c r="AS26" s="66"/>
-      <c r="AT26" s="66"/>
+      <c r="AP26" s="64"/>
+      <c r="AQ26" s="64"/>
+      <c r="AR26" s="64"/>
+      <c r="AS26" s="64"/>
+      <c r="AT26" s="64"/>
       <c r="AU26" s="75"/>
       <c r="AV26" s="75"/>
       <c r="AW26" s="75"/>
@@ -3852,11 +3852,11 @@
       <c r="A27" s="2"/>
       <c r="AN27" s="3"/>
       <c r="AO27" s="74"/>
-      <c r="AP27" s="66"/>
-      <c r="AQ27" s="66"/>
-      <c r="AR27" s="66"/>
-      <c r="AS27" s="66"/>
-      <c r="AT27" s="66"/>
+      <c r="AP27" s="64"/>
+      <c r="AQ27" s="64"/>
+      <c r="AR27" s="64"/>
+      <c r="AS27" s="64"/>
+      <c r="AT27" s="64"/>
       <c r="AU27" s="75"/>
       <c r="AV27" s="75"/>
       <c r="AW27" s="75"/>
@@ -3874,11 +3874,11 @@
       <c r="A28" s="2"/>
       <c r="AN28" s="3"/>
       <c r="AO28" s="74"/>
-      <c r="AP28" s="66"/>
-      <c r="AQ28" s="66"/>
-      <c r="AR28" s="66"/>
-      <c r="AS28" s="66"/>
-      <c r="AT28" s="66"/>
+      <c r="AP28" s="64"/>
+      <c r="AQ28" s="64"/>
+      <c r="AR28" s="64"/>
+      <c r="AS28" s="64"/>
+      <c r="AT28" s="64"/>
       <c r="AU28" s="75"/>
       <c r="AV28" s="75"/>
       <c r="AW28" s="75"/>
@@ -3896,11 +3896,11 @@
       <c r="A29" s="2"/>
       <c r="AN29" s="3"/>
       <c r="AO29" s="74"/>
-      <c r="AP29" s="66"/>
-      <c r="AQ29" s="66"/>
-      <c r="AR29" s="66"/>
-      <c r="AS29" s="66"/>
-      <c r="AT29" s="66"/>
+      <c r="AP29" s="64"/>
+      <c r="AQ29" s="64"/>
+      <c r="AR29" s="64"/>
+      <c r="AS29" s="64"/>
+      <c r="AT29" s="64"/>
       <c r="AU29" s="75"/>
       <c r="AV29" s="75"/>
       <c r="AW29" s="75"/>
@@ -3918,11 +3918,11 @@
       <c r="A30" s="2"/>
       <c r="AN30" s="3"/>
       <c r="AO30" s="74"/>
-      <c r="AP30" s="66"/>
-      <c r="AQ30" s="66"/>
-      <c r="AR30" s="66"/>
-      <c r="AS30" s="66"/>
-      <c r="AT30" s="66"/>
+      <c r="AP30" s="64"/>
+      <c r="AQ30" s="64"/>
+      <c r="AR30" s="64"/>
+      <c r="AS30" s="64"/>
+      <c r="AT30" s="64"/>
       <c r="AU30" s="75"/>
       <c r="AV30" s="75"/>
       <c r="AW30" s="75"/>
@@ -3940,11 +3940,11 @@
       <c r="A31" s="2"/>
       <c r="AN31" s="3"/>
       <c r="AO31" s="74"/>
-      <c r="AP31" s="66"/>
-      <c r="AQ31" s="66"/>
-      <c r="AR31" s="66"/>
-      <c r="AS31" s="66"/>
-      <c r="AT31" s="66"/>
+      <c r="AP31" s="64"/>
+      <c r="AQ31" s="64"/>
+      <c r="AR31" s="64"/>
+      <c r="AS31" s="64"/>
+      <c r="AT31" s="64"/>
       <c r="AU31" s="75"/>
       <c r="AV31" s="75"/>
       <c r="AW31" s="75"/>
@@ -3962,11 +3962,11 @@
       <c r="A32" s="2"/>
       <c r="AN32" s="3"/>
       <c r="AO32" s="74"/>
-      <c r="AP32" s="66"/>
-      <c r="AQ32" s="66"/>
-      <c r="AR32" s="66"/>
-      <c r="AS32" s="66"/>
-      <c r="AT32" s="66"/>
+      <c r="AP32" s="64"/>
+      <c r="AQ32" s="64"/>
+      <c r="AR32" s="64"/>
+      <c r="AS32" s="64"/>
+      <c r="AT32" s="64"/>
       <c r="AU32" s="75"/>
       <c r="AV32" s="75"/>
       <c r="AW32" s="75"/>
@@ -3984,11 +3984,11 @@
       <c r="A33" s="2"/>
       <c r="AN33" s="3"/>
       <c r="AO33" s="74"/>
-      <c r="AP33" s="66"/>
-      <c r="AQ33" s="66"/>
-      <c r="AR33" s="66"/>
-      <c r="AS33" s="66"/>
-      <c r="AT33" s="66"/>
+      <c r="AP33" s="64"/>
+      <c r="AQ33" s="64"/>
+      <c r="AR33" s="64"/>
+      <c r="AS33" s="64"/>
+      <c r="AT33" s="64"/>
       <c r="AU33" s="75"/>
       <c r="AV33" s="75"/>
       <c r="AW33" s="75"/>
@@ -4006,11 +4006,11 @@
       <c r="A34" s="2"/>
       <c r="AN34" s="3"/>
       <c r="AO34" s="74"/>
-      <c r="AP34" s="66"/>
-      <c r="AQ34" s="66"/>
-      <c r="AR34" s="66"/>
-      <c r="AS34" s="66"/>
-      <c r="AT34" s="66"/>
+      <c r="AP34" s="64"/>
+      <c r="AQ34" s="64"/>
+      <c r="AR34" s="64"/>
+      <c r="AS34" s="64"/>
+      <c r="AT34" s="64"/>
       <c r="AU34" s="75"/>
       <c r="AV34" s="75"/>
       <c r="AW34" s="75"/>
@@ -4028,11 +4028,11 @@
       <c r="A35" s="2"/>
       <c r="AN35" s="3"/>
       <c r="AO35" s="74"/>
-      <c r="AP35" s="66"/>
-      <c r="AQ35" s="66"/>
-      <c r="AR35" s="66"/>
-      <c r="AS35" s="66"/>
-      <c r="AT35" s="66"/>
+      <c r="AP35" s="64"/>
+      <c r="AQ35" s="64"/>
+      <c r="AR35" s="64"/>
+      <c r="AS35" s="64"/>
+      <c r="AT35" s="64"/>
       <c r="AU35" s="75"/>
       <c r="AV35" s="75"/>
       <c r="AW35" s="75"/>
@@ -4050,11 +4050,11 @@
       <c r="A36" s="2"/>
       <c r="AN36" s="3"/>
       <c r="AO36" s="74"/>
-      <c r="AP36" s="66"/>
-      <c r="AQ36" s="66"/>
-      <c r="AR36" s="66"/>
-      <c r="AS36" s="66"/>
-      <c r="AT36" s="66"/>
+      <c r="AP36" s="64"/>
+      <c r="AQ36" s="64"/>
+      <c r="AR36" s="64"/>
+      <c r="AS36" s="64"/>
+      <c r="AT36" s="64"/>
       <c r="AU36" s="75"/>
       <c r="AV36" s="75"/>
       <c r="AW36" s="75"/>
@@ -4072,11 +4072,11 @@
       <c r="A37" s="2"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="74"/>
-      <c r="AP37" s="66"/>
-      <c r="AQ37" s="66"/>
-      <c r="AR37" s="66"/>
-      <c r="AS37" s="66"/>
-      <c r="AT37" s="66"/>
+      <c r="AP37" s="64"/>
+      <c r="AQ37" s="64"/>
+      <c r="AR37" s="64"/>
+      <c r="AS37" s="64"/>
+      <c r="AT37" s="64"/>
       <c r="AU37" s="75"/>
       <c r="AV37" s="75"/>
       <c r="AW37" s="75"/>
@@ -4094,11 +4094,11 @@
       <c r="A38" s="2"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="74"/>
-      <c r="AP38" s="66"/>
-      <c r="AQ38" s="66"/>
-      <c r="AR38" s="66"/>
-      <c r="AS38" s="66"/>
-      <c r="AT38" s="66"/>
+      <c r="AP38" s="64"/>
+      <c r="AQ38" s="64"/>
+      <c r="AR38" s="64"/>
+      <c r="AS38" s="64"/>
+      <c r="AT38" s="64"/>
       <c r="AU38" s="75"/>
       <c r="AV38" s="75"/>
       <c r="AW38" s="75"/>
@@ -4116,11 +4116,11 @@
       <c r="A39" s="2"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="74"/>
-      <c r="AP39" s="66"/>
-      <c r="AQ39" s="66"/>
-      <c r="AR39" s="66"/>
-      <c r="AS39" s="66"/>
-      <c r="AT39" s="66"/>
+      <c r="AP39" s="64"/>
+      <c r="AQ39" s="64"/>
+      <c r="AR39" s="64"/>
+      <c r="AS39" s="64"/>
+      <c r="AT39" s="64"/>
       <c r="AU39" s="75"/>
       <c r="AV39" s="75"/>
       <c r="AW39" s="75"/>
@@ -4250,11 +4250,11 @@
     </row>
     <row r="50" spans="1:58">
       <c r="AO50" s="74"/>
-      <c r="AP50" s="66"/>
-      <c r="AQ50" s="66"/>
-      <c r="AR50" s="66"/>
-      <c r="AS50" s="66"/>
-      <c r="AT50" s="66"/>
+      <c r="AP50" s="64"/>
+      <c r="AQ50" s="64"/>
+      <c r="AR50" s="64"/>
+      <c r="AS50" s="64"/>
+      <c r="AT50" s="64"/>
       <c r="AU50" s="75"/>
       <c r="AV50" s="75"/>
       <c r="AW50" s="75"/>
@@ -4270,11 +4270,11 @@
     </row>
     <row r="51" spans="1:58">
       <c r="AO51" s="74"/>
-      <c r="AP51" s="66"/>
-      <c r="AQ51" s="66"/>
-      <c r="AR51" s="66"/>
-      <c r="AS51" s="66"/>
-      <c r="AT51" s="66"/>
+      <c r="AP51" s="64"/>
+      <c r="AQ51" s="64"/>
+      <c r="AR51" s="64"/>
+      <c r="AS51" s="64"/>
+      <c r="AT51" s="64"/>
       <c r="AU51" s="75"/>
       <c r="AV51" s="75"/>
       <c r="AW51" s="75"/>
@@ -4290,11 +4290,11 @@
     </row>
     <row r="52" spans="1:58">
       <c r="AO52" s="74"/>
-      <c r="AP52" s="66"/>
-      <c r="AQ52" s="66"/>
-      <c r="AR52" s="66"/>
-      <c r="AS52" s="66"/>
-      <c r="AT52" s="66"/>
+      <c r="AP52" s="64"/>
+      <c r="AQ52" s="64"/>
+      <c r="AR52" s="64"/>
+      <c r="AS52" s="64"/>
+      <c r="AT52" s="64"/>
       <c r="AU52" s="75"/>
       <c r="AV52" s="75"/>
       <c r="AW52" s="75"/>
@@ -4310,11 +4310,11 @@
     </row>
     <row r="53" spans="1:58">
       <c r="AO53" s="74"/>
-      <c r="AP53" s="66"/>
-      <c r="AQ53" s="66"/>
-      <c r="AR53" s="66"/>
-      <c r="AS53" s="66"/>
-      <c r="AT53" s="66"/>
+      <c r="AP53" s="64"/>
+      <c r="AQ53" s="64"/>
+      <c r="AR53" s="64"/>
+      <c r="AS53" s="64"/>
+      <c r="AT53" s="64"/>
       <c r="AU53" s="75"/>
       <c r="AV53" s="75"/>
       <c r="AW53" s="75"/>
@@ -4330,11 +4330,11 @@
     </row>
     <row r="54" spans="1:58">
       <c r="AO54" s="74"/>
-      <c r="AP54" s="66"/>
-      <c r="AQ54" s="66"/>
-      <c r="AR54" s="66"/>
-      <c r="AS54" s="66"/>
-      <c r="AT54" s="66"/>
+      <c r="AP54" s="64"/>
+      <c r="AQ54" s="64"/>
+      <c r="AR54" s="64"/>
+      <c r="AS54" s="64"/>
+      <c r="AT54" s="64"/>
       <c r="AU54" s="75"/>
       <c r="AV54" s="75"/>
       <c r="AW54" s="75"/>
@@ -4350,11 +4350,11 @@
     </row>
     <row r="55" spans="1:58">
       <c r="AO55" s="74"/>
-      <c r="AP55" s="66"/>
-      <c r="AQ55" s="66"/>
-      <c r="AR55" s="66"/>
-      <c r="AS55" s="66"/>
-      <c r="AT55" s="66"/>
+      <c r="AP55" s="64"/>
+      <c r="AQ55" s="64"/>
+      <c r="AR55" s="64"/>
+      <c r="AS55" s="64"/>
+      <c r="AT55" s="64"/>
       <c r="AU55" s="75"/>
       <c r="AV55" s="75"/>
       <c r="AW55" s="75"/>
@@ -4410,11 +4410,11 @@
     </row>
     <row r="58" spans="1:58">
       <c r="AO58" s="74"/>
-      <c r="AP58" s="66"/>
-      <c r="AQ58" s="66"/>
-      <c r="AR58" s="66"/>
-      <c r="AS58" s="66"/>
-      <c r="AT58" s="66"/>
+      <c r="AP58" s="64"/>
+      <c r="AQ58" s="64"/>
+      <c r="AR58" s="64"/>
+      <c r="AS58" s="64"/>
+      <c r="AT58" s="64"/>
       <c r="AU58" s="75"/>
       <c r="AV58" s="75"/>
       <c r="AW58" s="75"/>
@@ -4430,11 +4430,11 @@
     </row>
     <row r="59" spans="1:58">
       <c r="AO59" s="74"/>
-      <c r="AP59" s="66"/>
-      <c r="AQ59" s="66"/>
-      <c r="AR59" s="66"/>
-      <c r="AS59" s="66"/>
-      <c r="AT59" s="66"/>
+      <c r="AP59" s="64"/>
+      <c r="AQ59" s="64"/>
+      <c r="AR59" s="64"/>
+      <c r="AS59" s="64"/>
+      <c r="AT59" s="64"/>
       <c r="AU59" s="75"/>
       <c r="AV59" s="75"/>
       <c r="AW59" s="75"/>
@@ -4450,11 +4450,11 @@
     </row>
     <row r="60" spans="1:58">
       <c r="AO60" s="74"/>
-      <c r="AP60" s="66"/>
-      <c r="AQ60" s="66"/>
-      <c r="AR60" s="66"/>
-      <c r="AS60" s="66"/>
-      <c r="AT60" s="66"/>
+      <c r="AP60" s="64"/>
+      <c r="AQ60" s="64"/>
+      <c r="AR60" s="64"/>
+      <c r="AS60" s="64"/>
+      <c r="AT60" s="64"/>
       <c r="AU60" s="75"/>
       <c r="AV60" s="75"/>
       <c r="AW60" s="75"/>
@@ -4470,11 +4470,11 @@
     </row>
     <row r="61" spans="1:58">
       <c r="AO61" s="74"/>
-      <c r="AP61" s="66"/>
-      <c r="AQ61" s="66"/>
-      <c r="AR61" s="66"/>
-      <c r="AS61" s="66"/>
-      <c r="AT61" s="66"/>
+      <c r="AP61" s="64"/>
+      <c r="AQ61" s="64"/>
+      <c r="AR61" s="64"/>
+      <c r="AS61" s="64"/>
+      <c r="AT61" s="64"/>
       <c r="AU61" s="75"/>
       <c r="AV61" s="75"/>
       <c r="AW61" s="75"/>
@@ -4490,11 +4490,11 @@
     </row>
     <row r="62" spans="1:58">
       <c r="AO62" s="74"/>
-      <c r="AP62" s="66"/>
-      <c r="AQ62" s="66"/>
-      <c r="AR62" s="66"/>
-      <c r="AS62" s="66"/>
-      <c r="AT62" s="66"/>
+      <c r="AP62" s="64"/>
+      <c r="AQ62" s="64"/>
+      <c r="AR62" s="64"/>
+      <c r="AS62" s="64"/>
+      <c r="AT62" s="64"/>
       <c r="AU62" s="75"/>
       <c r="AV62" s="75"/>
       <c r="AW62" s="75"/>
@@ -4510,11 +4510,11 @@
     </row>
     <row r="63" spans="1:58">
       <c r="AO63" s="74"/>
-      <c r="AP63" s="66"/>
-      <c r="AQ63" s="66"/>
-      <c r="AR63" s="66"/>
-      <c r="AS63" s="66"/>
-      <c r="AT63" s="66"/>
+      <c r="AP63" s="64"/>
+      <c r="AQ63" s="64"/>
+      <c r="AR63" s="64"/>
+      <c r="AS63" s="64"/>
+      <c r="AT63" s="64"/>
       <c r="AU63" s="75"/>
       <c r="AV63" s="75"/>
       <c r="AW63" s="75"/>
@@ -4530,11 +4530,11 @@
     </row>
     <row r="64" spans="1:58">
       <c r="AO64" s="74"/>
-      <c r="AP64" s="66"/>
-      <c r="AQ64" s="66"/>
-      <c r="AR64" s="66"/>
-      <c r="AS64" s="66"/>
-      <c r="AT64" s="66"/>
+      <c r="AP64" s="64"/>
+      <c r="AQ64" s="64"/>
+      <c r="AR64" s="64"/>
+      <c r="AS64" s="64"/>
+      <c r="AT64" s="64"/>
       <c r="AU64" s="75"/>
       <c r="AV64" s="75"/>
       <c r="AW64" s="75"/>
@@ -4550,11 +4550,11 @@
     </row>
     <row r="65" spans="41:58">
       <c r="AO65" s="74"/>
-      <c r="AP65" s="66"/>
-      <c r="AQ65" s="66"/>
-      <c r="AR65" s="66"/>
-      <c r="AS65" s="66"/>
-      <c r="AT65" s="66"/>
+      <c r="AP65" s="64"/>
+      <c r="AQ65" s="64"/>
+      <c r="AR65" s="64"/>
+      <c r="AS65" s="64"/>
+      <c r="AT65" s="64"/>
       <c r="AU65" s="75"/>
       <c r="AV65" s="75"/>
       <c r="AW65" s="75"/>
@@ -4570,11 +4570,11 @@
     </row>
     <row r="66" spans="41:58">
       <c r="AO66" s="74"/>
-      <c r="AP66" s="66"/>
-      <c r="AQ66" s="66"/>
-      <c r="AR66" s="66"/>
-      <c r="AS66" s="66"/>
-      <c r="AT66" s="66"/>
+      <c r="AP66" s="64"/>
+      <c r="AQ66" s="64"/>
+      <c r="AR66" s="64"/>
+      <c r="AS66" s="64"/>
+      <c r="AT66" s="64"/>
       <c r="AU66" s="75"/>
       <c r="AV66" s="75"/>
       <c r="AW66" s="75"/>
@@ -4590,11 +4590,11 @@
     </row>
     <row r="67" spans="41:58">
       <c r="AO67" s="74"/>
-      <c r="AP67" s="66"/>
-      <c r="AQ67" s="66"/>
-      <c r="AR67" s="66"/>
-      <c r="AS67" s="66"/>
-      <c r="AT67" s="66"/>
+      <c r="AP67" s="64"/>
+      <c r="AQ67" s="64"/>
+      <c r="AR67" s="64"/>
+      <c r="AS67" s="64"/>
+      <c r="AT67" s="64"/>
       <c r="AU67" s="75"/>
       <c r="AV67" s="75"/>
       <c r="AW67" s="75"/>
@@ -4614,11 +4614,11 @@
     </row>
     <row r="69" spans="41:58">
       <c r="AO69" s="74"/>
-      <c r="AP69" s="66"/>
-      <c r="AQ69" s="66"/>
-      <c r="AR69" s="66"/>
-      <c r="AS69" s="66"/>
-      <c r="AT69" s="66"/>
+      <c r="AP69" s="64"/>
+      <c r="AQ69" s="64"/>
+      <c r="AR69" s="64"/>
+      <c r="AS69" s="64"/>
+      <c r="AT69" s="64"/>
       <c r="AU69" s="75"/>
       <c r="AV69" s="75"/>
       <c r="AW69" s="75"/>
@@ -4634,11 +4634,11 @@
     </row>
     <row r="70" spans="41:58">
       <c r="AO70" s="74"/>
-      <c r="AP70" s="66"/>
-      <c r="AQ70" s="66"/>
-      <c r="AR70" s="66"/>
-      <c r="AS70" s="66"/>
-      <c r="AT70" s="66"/>
+      <c r="AP70" s="64"/>
+      <c r="AQ70" s="64"/>
+      <c r="AR70" s="64"/>
+      <c r="AS70" s="64"/>
+      <c r="AT70" s="64"/>
       <c r="AU70" s="75"/>
       <c r="AV70" s="75"/>
       <c r="AW70" s="75"/>
@@ -4654,11 +4654,11 @@
     </row>
     <row r="71" spans="41:58">
       <c r="AO71" s="74"/>
-      <c r="AP71" s="66"/>
-      <c r="AQ71" s="66"/>
-      <c r="AR71" s="66"/>
-      <c r="AS71" s="66"/>
-      <c r="AT71" s="66"/>
+      <c r="AP71" s="64"/>
+      <c r="AQ71" s="64"/>
+      <c r="AR71" s="64"/>
+      <c r="AS71" s="64"/>
+      <c r="AT71" s="64"/>
       <c r="AU71" s="75"/>
       <c r="AV71" s="75"/>
       <c r="AW71" s="75"/>
@@ -4674,11 +4674,11 @@
     </row>
     <row r="72" spans="41:58">
       <c r="AO72" s="74"/>
-      <c r="AP72" s="66"/>
-      <c r="AQ72" s="66"/>
-      <c r="AR72" s="66"/>
-      <c r="AS72" s="66"/>
-      <c r="AT72" s="66"/>
+      <c r="AP72" s="64"/>
+      <c r="AQ72" s="64"/>
+      <c r="AR72" s="64"/>
+      <c r="AS72" s="64"/>
+      <c r="AT72" s="64"/>
       <c r="AU72" s="75"/>
       <c r="AV72" s="75"/>
       <c r="AW72" s="75"/>
@@ -4694,11 +4694,11 @@
     </row>
     <row r="73" spans="41:58">
       <c r="AO73" s="74"/>
-      <c r="AP73" s="66"/>
-      <c r="AQ73" s="66"/>
-      <c r="AR73" s="66"/>
-      <c r="AS73" s="66"/>
-      <c r="AT73" s="66"/>
+      <c r="AP73" s="64"/>
+      <c r="AQ73" s="64"/>
+      <c r="AR73" s="64"/>
+      <c r="AS73" s="64"/>
+      <c r="AT73" s="64"/>
       <c r="AU73" s="75"/>
       <c r="AV73" s="75"/>
       <c r="AW73" s="75"/>
@@ -4714,11 +4714,11 @@
     </row>
     <row r="74" spans="41:58">
       <c r="AO74" s="74"/>
-      <c r="AP74" s="66"/>
-      <c r="AQ74" s="66"/>
-      <c r="AR74" s="66"/>
-      <c r="AS74" s="66"/>
-      <c r="AT74" s="66"/>
+      <c r="AP74" s="64"/>
+      <c r="AQ74" s="64"/>
+      <c r="AR74" s="64"/>
+      <c r="AS74" s="64"/>
+      <c r="AT74" s="64"/>
       <c r="AU74" s="75"/>
       <c r="AV74" s="75"/>
       <c r="AW74" s="75"/>
@@ -4734,11 +4734,11 @@
     </row>
     <row r="75" spans="41:58">
       <c r="AO75" s="74"/>
-      <c r="AP75" s="66"/>
-      <c r="AQ75" s="66"/>
-      <c r="AR75" s="66"/>
-      <c r="AS75" s="66"/>
-      <c r="AT75" s="66"/>
+      <c r="AP75" s="64"/>
+      <c r="AQ75" s="64"/>
+      <c r="AR75" s="64"/>
+      <c r="AS75" s="64"/>
+      <c r="AT75" s="64"/>
       <c r="AU75" s="75"/>
       <c r="AV75" s="75"/>
       <c r="AW75" s="75"/>
@@ -4754,11 +4754,11 @@
     </row>
     <row r="76" spans="41:58">
       <c r="AO76" s="74"/>
-      <c r="AP76" s="66"/>
-      <c r="AQ76" s="66"/>
-      <c r="AR76" s="66"/>
-      <c r="AS76" s="66"/>
-      <c r="AT76" s="66"/>
+      <c r="AP76" s="64"/>
+      <c r="AQ76" s="64"/>
+      <c r="AR76" s="64"/>
+      <c r="AS76" s="64"/>
+      <c r="AT76" s="64"/>
       <c r="AU76" s="75"/>
       <c r="AV76" s="75"/>
       <c r="AW76" s="75"/>
@@ -4774,11 +4774,11 @@
     </row>
     <row r="77" spans="41:58">
       <c r="AO77" s="74"/>
-      <c r="AP77" s="66"/>
-      <c r="AQ77" s="66"/>
-      <c r="AR77" s="66"/>
-      <c r="AS77" s="66"/>
-      <c r="AT77" s="66"/>
+      <c r="AP77" s="64"/>
+      <c r="AQ77" s="64"/>
+      <c r="AR77" s="64"/>
+      <c r="AS77" s="64"/>
+      <c r="AT77" s="64"/>
       <c r="AU77" s="75"/>
       <c r="AV77" s="75"/>
       <c r="AW77" s="75"/>
@@ -4794,11 +4794,11 @@
     </row>
     <row r="78" spans="41:58">
       <c r="AO78" s="74"/>
-      <c r="AP78" s="66"/>
-      <c r="AQ78" s="66"/>
-      <c r="AR78" s="66"/>
-      <c r="AS78" s="66"/>
-      <c r="AT78" s="66"/>
+      <c r="AP78" s="64"/>
+      <c r="AQ78" s="64"/>
+      <c r="AR78" s="64"/>
+      <c r="AS78" s="64"/>
+      <c r="AT78" s="64"/>
       <c r="AU78" s="75"/>
       <c r="AV78" s="75"/>
       <c r="AW78" s="75"/>
@@ -4814,11 +4814,11 @@
     </row>
     <row r="79" spans="41:58">
       <c r="AO79" s="74"/>
-      <c r="AP79" s="66"/>
-      <c r="AQ79" s="66"/>
-      <c r="AR79" s="66"/>
-      <c r="AS79" s="66"/>
-      <c r="AT79" s="66"/>
+      <c r="AP79" s="64"/>
+      <c r="AQ79" s="64"/>
+      <c r="AR79" s="64"/>
+      <c r="AS79" s="64"/>
+      <c r="AT79" s="64"/>
       <c r="AU79" s="75"/>
       <c r="AV79" s="75"/>
       <c r="AW79" s="75"/>
@@ -4834,11 +4834,11 @@
     </row>
     <row r="80" spans="41:58">
       <c r="AO80" s="74"/>
-      <c r="AP80" s="66"/>
-      <c r="AQ80" s="66"/>
-      <c r="AR80" s="66"/>
-      <c r="AS80" s="66"/>
-      <c r="AT80" s="66"/>
+      <c r="AP80" s="64"/>
+      <c r="AQ80" s="64"/>
+      <c r="AR80" s="64"/>
+      <c r="AS80" s="64"/>
+      <c r="AT80" s="64"/>
       <c r="AU80" s="75"/>
       <c r="AV80" s="75"/>
       <c r="AW80" s="75"/>
@@ -4854,11 +4854,11 @@
     </row>
     <row r="81" spans="41:58">
       <c r="AO81" s="74"/>
-      <c r="AP81" s="66"/>
-      <c r="AQ81" s="66"/>
-      <c r="AR81" s="66"/>
-      <c r="AS81" s="66"/>
-      <c r="AT81" s="66"/>
+      <c r="AP81" s="64"/>
+      <c r="AQ81" s="64"/>
+      <c r="AR81" s="64"/>
+      <c r="AS81" s="64"/>
+      <c r="AT81" s="64"/>
       <c r="AU81" s="75"/>
       <c r="AV81" s="75"/>
       <c r="AW81" s="75"/>
@@ -4874,11 +4874,11 @@
     </row>
     <row r="82" spans="41:58">
       <c r="AO82" s="74"/>
-      <c r="AP82" s="66"/>
-      <c r="AQ82" s="66"/>
-      <c r="AR82" s="66"/>
-      <c r="AS82" s="66"/>
-      <c r="AT82" s="66"/>
+      <c r="AP82" s="64"/>
+      <c r="AQ82" s="64"/>
+      <c r="AR82" s="64"/>
+      <c r="AS82" s="64"/>
+      <c r="AT82" s="64"/>
       <c r="AU82" s="75"/>
       <c r="AV82" s="75"/>
       <c r="AW82" s="75"/>
@@ -4894,11 +4894,11 @@
     </row>
     <row r="83" spans="41:58">
       <c r="AO83" s="74"/>
-      <c r="AP83" s="66"/>
-      <c r="AQ83" s="66"/>
-      <c r="AR83" s="66"/>
-      <c r="AS83" s="66"/>
-      <c r="AT83" s="66"/>
+      <c r="AP83" s="64"/>
+      <c r="AQ83" s="64"/>
+      <c r="AR83" s="64"/>
+      <c r="AS83" s="64"/>
+      <c r="AT83" s="64"/>
       <c r="AU83" s="75"/>
       <c r="AV83" s="75"/>
       <c r="AW83" s="75"/>
@@ -4914,11 +4914,11 @@
     </row>
     <row r="84" spans="41:58">
       <c r="AO84" s="74"/>
-      <c r="AP84" s="66"/>
-      <c r="AQ84" s="66"/>
-      <c r="AR84" s="66"/>
-      <c r="AS84" s="66"/>
-      <c r="AT84" s="66"/>
+      <c r="AP84" s="64"/>
+      <c r="AQ84" s="64"/>
+      <c r="AR84" s="64"/>
+      <c r="AS84" s="64"/>
+      <c r="AT84" s="64"/>
       <c r="AU84" s="75"/>
       <c r="AV84" s="75"/>
       <c r="AW84" s="75"/>
@@ -4990,45 +4990,40 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="AO21:AT22"/>
-    <mergeCell ref="AU21:BF22"/>
-    <mergeCell ref="AO15:AT16"/>
-    <mergeCell ref="AU15:BF16"/>
-    <mergeCell ref="AO17:AT18"/>
-    <mergeCell ref="AU17:BF18"/>
-    <mergeCell ref="AO19:AT20"/>
-    <mergeCell ref="AU19:BF20"/>
-    <mergeCell ref="AO9:AT10"/>
-    <mergeCell ref="AU9:BF10"/>
-    <mergeCell ref="AO11:AT12"/>
-    <mergeCell ref="AU11:BF12"/>
-    <mergeCell ref="AO13:AT14"/>
-    <mergeCell ref="AU13:BF14"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AO3:BF3"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AO7:AT8"/>
-    <mergeCell ref="AU7:BF8"/>
-    <mergeCell ref="BA1:BF1"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="U2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AU2"/>
-    <mergeCell ref="AV2:AZ2"/>
-    <mergeCell ref="BA2:BF2"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="AO24:AT25"/>
-    <mergeCell ref="AU24:BF25"/>
-    <mergeCell ref="AO26:AT27"/>
-    <mergeCell ref="AU26:BF27"/>
-    <mergeCell ref="AO28:AT29"/>
-    <mergeCell ref="AU28:BF29"/>
+    <mergeCell ref="AO81:AT82"/>
+    <mergeCell ref="AU81:BF82"/>
+    <mergeCell ref="AO83:AT84"/>
+    <mergeCell ref="AU83:BF84"/>
+    <mergeCell ref="AO75:AT76"/>
+    <mergeCell ref="AU75:BF76"/>
+    <mergeCell ref="AO77:AT78"/>
+    <mergeCell ref="AU77:BF78"/>
+    <mergeCell ref="AO79:AT80"/>
+    <mergeCell ref="AU79:BF80"/>
+    <mergeCell ref="AO69:AT70"/>
+    <mergeCell ref="AU69:BF70"/>
+    <mergeCell ref="AO71:AT72"/>
+    <mergeCell ref="AU71:BF72"/>
+    <mergeCell ref="AO73:AT74"/>
+    <mergeCell ref="AU73:BF74"/>
+    <mergeCell ref="AO62:AT63"/>
+    <mergeCell ref="AU62:BF63"/>
+    <mergeCell ref="AO64:AT65"/>
+    <mergeCell ref="AU64:BF65"/>
+    <mergeCell ref="AO66:AT67"/>
+    <mergeCell ref="AU66:BF67"/>
+    <mergeCell ref="AO56:AT57"/>
+    <mergeCell ref="AU56:BF57"/>
+    <mergeCell ref="AO58:AT59"/>
+    <mergeCell ref="AU58:BF59"/>
+    <mergeCell ref="AO60:AT61"/>
+    <mergeCell ref="AU60:BF61"/>
+    <mergeCell ref="AO50:AT51"/>
+    <mergeCell ref="AU50:BF51"/>
+    <mergeCell ref="AO52:AT53"/>
+    <mergeCell ref="AU52:BF53"/>
+    <mergeCell ref="AO54:AT55"/>
+    <mergeCell ref="AU54:BF55"/>
     <mergeCell ref="AO36:AT37"/>
     <mergeCell ref="AU36:BF37"/>
     <mergeCell ref="AO38:AT39"/>
@@ -5039,40 +5034,45 @@
     <mergeCell ref="AU32:BF33"/>
     <mergeCell ref="AO34:AT35"/>
     <mergeCell ref="AU34:BF35"/>
-    <mergeCell ref="AO50:AT51"/>
-    <mergeCell ref="AU50:BF51"/>
-    <mergeCell ref="AO52:AT53"/>
-    <mergeCell ref="AU52:BF53"/>
-    <mergeCell ref="AO54:AT55"/>
-    <mergeCell ref="AU54:BF55"/>
-    <mergeCell ref="AO56:AT57"/>
-    <mergeCell ref="AU56:BF57"/>
-    <mergeCell ref="AO58:AT59"/>
-    <mergeCell ref="AU58:BF59"/>
-    <mergeCell ref="AO60:AT61"/>
-    <mergeCell ref="AU60:BF61"/>
-    <mergeCell ref="AO62:AT63"/>
-    <mergeCell ref="AU62:BF63"/>
-    <mergeCell ref="AO64:AT65"/>
-    <mergeCell ref="AU64:BF65"/>
-    <mergeCell ref="AO66:AT67"/>
-    <mergeCell ref="AU66:BF67"/>
-    <mergeCell ref="AO69:AT70"/>
-    <mergeCell ref="AU69:BF70"/>
-    <mergeCell ref="AO71:AT72"/>
-    <mergeCell ref="AU71:BF72"/>
-    <mergeCell ref="AO73:AT74"/>
-    <mergeCell ref="AU73:BF74"/>
-    <mergeCell ref="AO81:AT82"/>
-    <mergeCell ref="AU81:BF82"/>
-    <mergeCell ref="AO83:AT84"/>
-    <mergeCell ref="AU83:BF84"/>
-    <mergeCell ref="AO75:AT76"/>
-    <mergeCell ref="AU75:BF76"/>
-    <mergeCell ref="AO77:AT78"/>
-    <mergeCell ref="AU77:BF78"/>
-    <mergeCell ref="AO79:AT80"/>
-    <mergeCell ref="AU79:BF80"/>
+    <mergeCell ref="AO24:AT25"/>
+    <mergeCell ref="AU24:BF25"/>
+    <mergeCell ref="AO26:AT27"/>
+    <mergeCell ref="AU26:BF27"/>
+    <mergeCell ref="AO28:AT29"/>
+    <mergeCell ref="AU28:BF29"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="BA1:BF1"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="U2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AU2"/>
+    <mergeCell ref="AV2:AZ2"/>
+    <mergeCell ref="BA2:BF2"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AO3:BF3"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AO7:AT8"/>
+    <mergeCell ref="AU7:BF8"/>
+    <mergeCell ref="AO9:AT10"/>
+    <mergeCell ref="AU9:BF10"/>
+    <mergeCell ref="AO11:AT12"/>
+    <mergeCell ref="AU11:BF12"/>
+    <mergeCell ref="AO13:AT14"/>
+    <mergeCell ref="AU13:BF14"/>
+    <mergeCell ref="AO21:AT22"/>
+    <mergeCell ref="AU21:BF22"/>
+    <mergeCell ref="AO15:AT16"/>
+    <mergeCell ref="AU15:BF16"/>
+    <mergeCell ref="AO17:AT18"/>
+    <mergeCell ref="AU17:BF18"/>
+    <mergeCell ref="AO19:AT20"/>
+    <mergeCell ref="AU19:BF20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5088,7 +5088,7 @@
   </sheetPr>
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -5691,51 +5691,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="K21:Q21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K19:Q19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="K20:Q20"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:Q5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="K6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="K13:Q13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="K14:Q14"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="K22:Q22"/>
@@ -5752,6 +5707,51 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="K18:Q18"/>
     <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="K6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:Q5"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5867,536 +5867,529 @@
         <v>47</v>
       </c>
       <c r="B5" s="42"/>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="116"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="110"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="43"/>
       <c r="B6" s="44"/>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="110"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="113"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="43"/>
       <c r="B7" s="44"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="110"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
+      <c r="O7" s="112"/>
+      <c r="P7" s="112"/>
+      <c r="Q7" s="113"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="43"/>
       <c r="B8" s="44"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="110"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="112"/>
+      <c r="O8" s="112"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="113"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="45"/>
       <c r="B9" s="46"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="113"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="116"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="41" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="42"/>
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="116"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="110"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="43"/>
       <c r="B11" s="44"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="110"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="112"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="113"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="43"/>
       <c r="B12" s="44"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="110"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="113"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="45"/>
       <c r="B13" s="46"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="116"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="42"/>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="116"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="110"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="43"/>
       <c r="B15" s="44"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="110"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="112"/>
+      <c r="Q15" s="113"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="43"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="110"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="113"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="43"/>
       <c r="B17" s="44"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="110"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="113"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="43"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="109"/>
-      <c r="P18" s="109"/>
-      <c r="Q18" s="110"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="113"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="109"/>
-      <c r="O19" s="109"/>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="110"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="113"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="42"/>
-      <c r="C20" s="114" t="s">
+      <c r="C20" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="116"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="109"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="109"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="110"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="43"/>
       <c r="B21" s="44"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="109"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="109"/>
-      <c r="P21" s="109"/>
-      <c r="Q21" s="110"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="113"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="45"/>
       <c r="B22" s="46"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="113"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="115"/>
+      <c r="Q22" s="116"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="41" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="42"/>
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="115"/>
-      <c r="O23" s="115"/>
-      <c r="P23" s="115"/>
-      <c r="Q23" s="116"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="109"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="109"/>
+      <c r="P23" s="109"/>
+      <c r="Q23" s="110"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="43"/>
       <c r="B24" s="44"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="109"/>
-      <c r="N24" s="109"/>
-      <c r="O24" s="109"/>
-      <c r="P24" s="109"/>
-      <c r="Q24" s="110"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="112"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="113"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="43"/>
       <c r="B25" s="44"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="109"/>
-      <c r="O25" s="109"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="110"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="112"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="113"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="43"/>
       <c r="B26" s="44"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="110"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="113"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="45"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="112"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="113"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="115"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="116"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="41" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="42"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="115"/>
-      <c r="O28" s="115"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="116"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="109"/>
+      <c r="L28" s="109"/>
+      <c r="M28" s="109"/>
+      <c r="N28" s="109"/>
+      <c r="O28" s="109"/>
+      <c r="P28" s="109"/>
+      <c r="Q28" s="110"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="43"/>
       <c r="B29" s="44"/>
-      <c r="C29" s="108" t="s">
+      <c r="C29" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="110"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="112"/>
+      <c r="K29" s="112"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="113"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="45"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="113"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="115"/>
+      <c r="P30" s="115"/>
+      <c r="Q30" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C10:Q10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="C5:Q5"/>
-    <mergeCell ref="C6:Q6"/>
-    <mergeCell ref="C7:Q7"/>
-    <mergeCell ref="C8:Q8"/>
-    <mergeCell ref="C9:Q9"/>
+    <mergeCell ref="C25:Q25"/>
+    <mergeCell ref="C27:Q27"/>
+    <mergeCell ref="C28:Q28"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C30:Q30"/>
+    <mergeCell ref="C26:Q26"/>
     <mergeCell ref="C24:Q24"/>
     <mergeCell ref="C11:Q11"/>
     <mergeCell ref="C12:Q12"/>
@@ -6411,12 +6404,19 @@
     <mergeCell ref="C23:Q23"/>
     <mergeCell ref="C21:Q21"/>
     <mergeCell ref="C18:Q18"/>
-    <mergeCell ref="C25:Q25"/>
-    <mergeCell ref="C27:Q27"/>
-    <mergeCell ref="C28:Q28"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C30:Q30"/>
-    <mergeCell ref="C26:Q26"/>
+    <mergeCell ref="C10:Q10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="C5:Q5"/>
+    <mergeCell ref="C6:Q6"/>
+    <mergeCell ref="C7:Q7"/>
+    <mergeCell ref="C8:Q8"/>
+    <mergeCell ref="C9:Q9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6428,16 +6428,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544AB957-8A51-40C2-852E-BF427FB6CD42}">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6451,16 +6455,20 @@
         <v>100</v>
       </c>
       <c r="B3" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="47" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="51"/>
       <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
       <c r="D5" t="s">
         <v>103</v>
       </c>
